--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-ja-20181106-2139X\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F97395-0489-487D-A17A-29170E5EB063}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61DD0A6-97D8-4CED-811F-C284756744E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="132" windowWidth="20844" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="948" yWindow="144" windowWidth="22020" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -27,9 +27,10 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Security Requirements - Android'!$B$3:$I$72</definedName>
-    <definedName name="BASE_URL">Dashboard!$D$12</definedName>
+    <definedName name="BASE_URL">Dashboard!$D$14</definedName>
     <definedName name="MASVS_VERSION" localSheetId="7">[1]Dashboard!$D$11</definedName>
     <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
+    <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Security Requirements - Android'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'Security Requirements - iOS'!$1:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'Version history'!$1:$3</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="299">
   <si>
     <t>ID</t>
   </si>
@@ -553,9 +554,6 @@
     <t>1.1.0.5</t>
   </si>
   <si>
-    <t>Testing user education</t>
-  </si>
-  <si>
     <t>1.1.0.6</t>
   </si>
   <si>
@@ -1721,6 +1719,73 @@
   </si>
   <si>
     <t>translate ver. 1.1.0.7 into Japanese</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Updating the links based on OSS19 restructured chapters:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+android 
+3.2|3.4|4.9|4.10|5.2|5.4|7.7
+IOS
+3.2|4.5|4.10|4.11|5.1|5.3|6.4|7.8
+</t>
+    </r>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>Correcting the Link to the MSTG repo and adding a link to the MASVS repo</t>
+  </si>
+  <si>
+    <t>オンライン版MASVS</t>
+    <rPh sb="5" eb="6">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>MSTG バージョン</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1.1.2</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1.1.4</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>translate ver. 1.1.1.2 into Japanese</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2558,7 +2623,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2592,46 +2657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2639,12 +2665,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2656,40 +2676,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2705,53 +2691,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2762,15 +2708,6 @@
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2782,9 +2719,6 @@
     <xf numFmtId="10" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2799,9 +2733,6 @@
     <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2924,9 +2855,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2947,9 +2875,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2966,6 +2891,149 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -4248,376 +4316,400 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D48"/>
+  <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.9140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="20"/>
-    <col min="3" max="3" width="13.6640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="70.58203125" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="20"/>
+    <col min="1" max="1" width="1.9140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="19"/>
+    <col min="3" max="3" width="13.6640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="70.58203125" style="19" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="120"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="123"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>100</v>
+      <c r="C11" s="112"/>
+      <c r="D11" s="23" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-"https://github.com/OWASP/owasp-mstg/blob/",
+      <c r="B12" s="111" t="s">
+        <v>293</v>
+      </c>
+      <c r="C12" s="112"/>
+      <c r="D12" s="158" t="str">
+        <f>HYPERLINK(CONCATENATE(
+"https://github.com/OWASP/owasp-masvs/blob/",
 MASVS_VERSION,
 "/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.0/Document/</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="42" t="s">
+        <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C13" s="112"/>
+      <c r="D13" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="112"/>
+      <c r="D14" s="158" t="str">
+        <f>HYPERLINK(CONCATENATE(
+"https://github.com/OWASP/owasp-mstg/blob/",
+MSTG_VERSION,
+"/Document/"))</f>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="127" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="128"/>
+      <c r="D15" s="129"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="36" t="s">
+      <c r="C16" s="112"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="45" t="s">
+      <c r="C17" s="114"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="38"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="36" t="s">
+      <c r="C18" s="112"/>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="36" t="s">
+      <c r="C19" s="112"/>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="36" t="s">
+      <c r="C20" s="112"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="36" t="s">
+      <c r="C21" s="112"/>
+      <c r="D21" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
+    </row>
+    <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="111" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="36" t="s">
+      <c r="C22" s="112"/>
+      <c r="D22" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="33" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="39" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="112"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="38"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="36" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="112"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="112"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="112"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="111" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="112"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="111" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="112"/>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="38"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="38"/>
-    </row>
-    <row r="27" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="38"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-    </row>
-    <row r="34" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="47" t="s">
+      <c r="C36" s="112"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="33" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="130"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="132"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="45" t="s">
+      <c r="C40" s="133"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="45" t="s">
+      <c r="C41" s="133"/>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="45" t="s">
+      <c r="C42" s="133"/>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="45" t="s">
+      <c r="C43" s="133"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="53"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="45" t="s">
+      <c r="C44" s="133"/>
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="130"/>
+      <c r="C45" s="131"/>
+      <c r="D45" s="132"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="113" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="133"/>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="45" t="s">
+      <c r="C47" s="133"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="45" t="s">
+      <c r="C48" s="133"/>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="45" t="s">
+      <c r="C49" s="133"/>
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="53"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="37">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B2:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:C44"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4637,554 +4729,554 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="54" customWidth="1"/>
-    <col min="2" max="2" width="9.4140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="35.58203125" style="54" customWidth="1"/>
-    <col min="4" max="11" width="9" style="54" customWidth="1"/>
-    <col min="12" max="21" width="4.6640625" style="54" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="54"/>
+    <col min="1" max="1" width="1.5" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.4140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="35.58203125" style="28" customWidth="1"/>
+    <col min="4" max="11" width="9" style="28" customWidth="1"/>
+    <col min="12" max="21" width="4.6640625" style="28" customWidth="1"/>
+    <col min="22" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.5">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.5">
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="2:24" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-    </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-    </row>
-    <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" spans="2:24" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="V6" s="61" t="s">
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
+      <c r="V6" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="62"/>
-      <c r="X6" s="63"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="137"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="65">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="138">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-      <c r="V8" s="65">
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
+      <c r="V8" s="138">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
+      <c r="W8" s="139"/>
+      <c r="X8" s="140"/>
     </row>
     <row r="9" spans="2:24" ht="91.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="70"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="70"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="143"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="70"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="143"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="143"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="73"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="146"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="146"/>
     </row>
     <row r="12" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C23" s="78"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C24" s="78"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C25" s="78"/>
+      <c r="C25" s="38"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C26" s="78"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C27" s="78"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C28" s="78"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C29" s="78"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C30" s="78"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C31" s="78"/>
+      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.5">
-      <c r="C32" s="78"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="79" t="s">
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="81"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="150"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="82" t="s">
+      <c r="E42" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="82" t="s">
+      <c r="H42" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I42" s="82" t="s">
+      <c r="I42" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="82" t="s">
+      <c r="J42" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="K42" s="82" t="s">
+      <c r="K42" s="39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C43" s="83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="84">
+      <c r="C43" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="84">
+      <c r="E43" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="85">
+      <c r="F43" s="42">
         <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B81)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="86">
+      <c r="G43" s="43">
         <f t="shared" ref="G43:G49" si="0">IF(D43+E43=0, 0, D43/(E43+D43))</f>
         <v>0</v>
       </c>
-      <c r="H43" s="87">
+      <c r="H43" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F5:F14,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="87">
+      <c r="I43" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F5:F14,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="88">
+      <c r="J43" s="45">
         <f>COUNTIFS('Security Requirements - iOS'!F5:F14,'Security Requirements - Android'!B81)</f>
         <v>6</v>
       </c>
-      <c r="K43" s="86">
+      <c r="K43" s="43">
         <f t="shared" ref="K43:K49" si="1">IF(H43+I43=0, 0, H43/(H43+I43))</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C44" s="83" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="84">
+      <c r="C44" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="84">
+      <c r="E44" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F44" s="84">
+      <c r="F44" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B81)</f>
         <v>5</v>
       </c>
-      <c r="G44" s="86">
+      <c r="G44" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="87">
+      <c r="H44" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F16:F27,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="87">
+      <c r="I44" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F16:F27,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="87">
+      <c r="J44" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F16:F27,'Security Requirements - Android'!B81)</f>
         <v>5</v>
       </c>
-      <c r="K44" s="86">
+      <c r="K44" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C45" s="83" t="s">
-        <v>172</v>
-      </c>
-      <c r="D45" s="84">
+      <c r="C45" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="84">
+      <c r="E45" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F45" s="84">
+      <c r="F45" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="86">
+      <c r="G45" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H45" s="87">
+      <c r="H45" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F29:F34,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="87">
+      <c r="I45" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F29:F34,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="87">
+      <c r="J45" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F29:F34,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="86">
+      <c r="K45" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C46" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="84">
+      <c r="C46" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D46" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="84">
+      <c r="E46" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F46" s="84">
+      <c r="F46" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B81)</f>
         <v>4</v>
       </c>
-      <c r="G46" s="86">
+      <c r="G46" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46" s="87">
+      <c r="H46" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F36:F46,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I46" s="87">
+      <c r="I46" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F36:F46,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="87">
+      <c r="J46" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F36:F46,'Security Requirements - Android'!B81)</f>
         <v>4</v>
       </c>
-      <c r="K46" s="86">
+      <c r="K46" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C47" s="83" t="s">
-        <v>174</v>
-      </c>
-      <c r="D47" s="84">
+      <c r="C47" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="84">
+      <c r="E47" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F47" s="84">
+      <c r="F47" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B81)</f>
         <v>3</v>
       </c>
-      <c r="G47" s="86">
+      <c r="G47" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H47" s="87">
+      <c r="H47" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F48:F53,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="87">
+      <c r="I47" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F48:F53,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J47" s="87">
+      <c r="J47" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F48:F53,'Security Requirements - Android'!B81)</f>
         <v>3</v>
       </c>
-      <c r="K47" s="86">
+      <c r="K47" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C48" s="83" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="84">
+      <c r="C48" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E48" s="84">
+      <c r="E48" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="84">
+      <c r="F48" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
-      <c r="G48" s="86">
+      <c r="G48" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H48" s="87">
+      <c r="H48" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F55:F62,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="87">
+      <c r="I48" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F55:F62,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J48" s="87">
+      <c r="J48" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F55:F62,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="86">
+      <c r="K48" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C49" s="83" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="87">
+      <c r="C49" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="44">
         <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="87">
+      <c r="E49" s="44">
         <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87">
+      <c r="F49" s="44">
         <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
-      <c r="G49" s="86">
+      <c r="G49" s="43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H49" s="87">
+      <c r="H49" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F64:F72,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I49" s="87">
+      <c r="I49" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F64:F72,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87">
+      <c r="J49" s="44">
         <f>COUNTIFS('Security Requirements - iOS'!F64:F72,'Security Requirements - Android'!B81)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="86">
+      <c r="K49" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="C50" s="83" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="84">
+      <c r="C50" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="41">
         <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="84">
+      <c r="E50" s="41">
         <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="F50" s="84">
+      <c r="F50" s="41">
         <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B81)</f>
         <v>12</v>
       </c>
-      <c r="G50" s="86">
+      <c r="G50" s="43">
         <f>IF(D50+E50=0, 0, D50/(E50+D50))</f>
         <v>0</v>
       </c>
-      <c r="H50" s="87">
+      <c r="H50" s="44">
         <f>COUNTIFS('Anti-RE - iOS'!E4:E18,'Security Requirements - Android'!B79)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="87">
+      <c r="I50" s="44">
         <f>COUNTIFS('Anti-RE - iOS'!E4:E18,'Security Requirements - Android'!B80)</f>
         <v>0</v>
       </c>
-      <c r="J50" s="87">
+      <c r="J50" s="44">
         <f>COUNTIFS('Anti-RE - iOS'!E4:E18,'Security Requirements - Android'!B81)</f>
         <v>12</v>
       </c>
-      <c r="K50" s="86">
+      <c r="K50" s="43">
         <f>IF(H50+I50=0, 0, H50/(H50+I50))</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <conditionalFormatting sqref="F14">
@@ -5232,1802 +5324,1744 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="90" customWidth="1"/>
-    <col min="2" max="2" width="7.9140625" style="91" customWidth="1"/>
-    <col min="3" max="3" width="97.1640625" style="92" customWidth="1"/>
-    <col min="4" max="5" width="6.58203125" style="90" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="90" customWidth="1"/>
-    <col min="7" max="7" width="60.1640625" style="92" customWidth="1"/>
-    <col min="8" max="8" width="63.58203125" style="92" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="92" customWidth="1"/>
-    <col min="10" max="10" width="10.9140625" style="90"/>
-    <col min="11" max="12" width="10.6640625" style="90" customWidth="1"/>
-    <col min="13" max="16384" width="10.9140625" style="90"/>
+    <col min="1" max="1" width="1.5" style="46" customWidth="1"/>
+    <col min="2" max="2" width="7.9140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" style="48" customWidth="1"/>
+    <col min="4" max="5" width="6.58203125" style="46" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="46" customWidth="1"/>
+    <col min="7" max="7" width="60.1640625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="63.58203125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="10.9140625" style="46"/>
+    <col min="11" max="12" width="10.6640625" style="46" customWidth="1"/>
+    <col min="13" max="16384" width="10.9140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="152" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="94" t="s">
+      <c r="D3" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="E3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="F3" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="G3" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="H3" s="153"/>
+      <c r="I3" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="96"/>
-      <c r="I3" s="97" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="99" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="101"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="155" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="102" t="s">
+      <c r="D5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106" t="s">
+      <c r="D6" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="106"/>
-      <c r="I5" s="107"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="155" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="102" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106" t="s">
+      <c r="D7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="106"/>
-      <c r="I6" s="107"/>
-    </row>
-    <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="102" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
+      <c r="D8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="107"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="155" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="102" t="s">
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="155" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="102" t="s">
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="105" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G10" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="155" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="102" t="s">
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="105" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G11" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="155" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="102" t="s">
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="105" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-    </row>
-    <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="155" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="102" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="105" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G13" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="102" t="s">
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="105" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G14" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="102" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="111" t="s">
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="69"/>
+    </row>
+    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D16" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
 "Testing For Sensitive Data in Local Data Storage")</f>
         <v>Testing For Sensitive Data in Local Data Storage</v>
       </c>
-      <c r="H16" s="115"/>
-      <c r="I16" s="107"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="116" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C17" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
 "Testing For Sensitive Data in Local Data Storage")</f>
         <v>Testing For Sensitive Data in Local Data Storage</v>
       </c>
-      <c r="H17" s="116"/>
-      <c r="I17" s="117"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C18" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),
 "Testing For Sensitive Data in Logs")</f>
         <v>Testing For Sensitive Data in Logs</v>
       </c>
-      <c r="H18" s="115"/>
-      <c r="I18" s="107"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="102" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C19" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
 "Testing Whether Sensitive Data Is Sent To Third Parties")</f>
         <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
       </c>
-      <c r="H19" s="115"/>
-      <c r="I19" s="107"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C20" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),
 "Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
         <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
       </c>
-      <c r="H20" s="115"/>
-      <c r="I20" s="107"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="102" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C21" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),
 "Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
         <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
       </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="107"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C22" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),
 "Testing for Sensitive Data Disclosure Through the User Interface")</f>
         <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
       </c>
-      <c r="H22" s="115"/>
-      <c r="I22" s="107"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="102" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="105" t="s">
+      <c r="C23" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G23" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
 "Testing for Sensitive Data in Backups")</f>
         <v>Testing for Sensitive Data in Backups</v>
       </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="107"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="105" t="s">
+      <c r="C24" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G24" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),
 "Testing for Sensitive Information in Auto-Generated Screenshots")</f>
         <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
       </c>
-      <c r="H24" s="115"/>
-      <c r="I24" s="107"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="105" t="s">
+      <c r="C25" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G25" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),
 "Testing for Sensitive Data in Memory")</f>
         <v>Testing for Sensitive Data in Memory</v>
       </c>
-      <c r="H25" s="115"/>
-      <c r="I25" s="107"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="102" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="105" t="s">
+      <c r="C26" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G26" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-the-device-access-security-policy"),
 "Testing the Device-Access-Security Policy")</f>
         <v>Testing the Device-Access-Security Policy</v>
       </c>
-      <c r="H26" s="115"/>
-      <c r="I26" s="107"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="105" t="s">
+      <c r="C27" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G27" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04i-Testing-user-interaction.md#testing-user-education"),
 "Testing user education")</f>
         <v>Testing user education</v>
       </c>
-      <c r="H27" s="115"/>
-      <c r="I27" s="107"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="62"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="69"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="114"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="105"/>
-      <c r="G29" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D29" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-key-management"),
 "Verifying Key Management")</f>
         <v>Verifying Key Management</v>
       </c>
-      <c r="H29" s="115"/>
-      <c r="I29" s="107"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="102" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="105"/>
-      <c r="G30" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C30" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),
 "Testing for Custom Implementations of Cryptography")</f>
         <v>Testing for Custom Implementations of Cryptography</v>
       </c>
-      <c r="H30" s="115"/>
-      <c r="I30" s="107"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C31" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
 "Verifying the Configuration of Cryptographic Standard Algorithms")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
       </c>
-      <c r="H31" s="115"/>
-      <c r="I31" s="107"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C32" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
 "Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
         <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
-      <c r="H32" s="115"/>
-      <c r="I32" s="107"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="105"/>
-      <c r="G33" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x06e-Testing-Cryptography.md#testing-key-management"),
+      <c r="C33" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05e-Testing-Cryptography.md#testing-key-management"),
 "Verifying Key Management")</f>
         <v>Verifying Key Management</v>
       </c>
-      <c r="H33" s="115"/>
-      <c r="I33" s="107"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x06e-Testing-Cryptography.md#testing-random-number-generation"),
+      <c r="C34" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x05e-Testing-Cryptography.md#testing-random-number-generation"),
 "Testing Random Number Generation")</f>
         <v>Testing Random Number Generation</v>
       </c>
-      <c r="H34" s="115"/>
-      <c r="I34" s="107"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="69"/>
+    </row>
+    <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="114"/>
-    </row>
-    <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="155" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="119" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="105"/>
-      <c r="G36" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D36" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
 "Verifying that Users Are Properly Authenticated")</f>
         <v>Verifying that Users Are Properly Authenticated</v>
       </c>
-      <c r="H36" s="115"/>
-      <c r="I36" s="107"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="155" t="s">
+      <c r="B37" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
+"Testing Stateful Session Management")</f>
+        <v>Testing Stateful Session Management</v>
+      </c>
+      <c r="H37" s="70"/>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="105"/>
-      <c r="G37" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
-"Testing Session Management")</f>
-        <v>Testing Session Management</v>
-      </c>
-      <c r="H37" s="115"/>
-      <c r="I37" s="107"/>
-    </row>
-    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="155" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D38" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
 "Testing Stateless Authentication")</f>
         <v>Testing Stateless Authentication</v>
       </c>
-      <c r="H38" s="115"/>
-      <c r="I38" s="107"/>
-      <c r="K38" s="120"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="62"/>
+      <c r="K38" s="75"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C39" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
 "Testing the Logout Functionality")</f>
         <v>Testing the Logout Functionality</v>
       </c>
-      <c r="H39" s="115"/>
-      <c r="I39" s="107"/>
-      <c r="K39" s="120"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="62"/>
+      <c r="K39" s="75"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
+      <c r="C40" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
 "Testing the Password Policy")</f>
         <v>Testing the Password Policy</v>
       </c>
-      <c r="H40" s="115"/>
-      <c r="I40" s="107"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="155" t="s">
+      <c r="B41" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="119" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C41" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="G41" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
 "Testing Excessive Login Attempts")</f>
         <v>Testing Excessive Login Attempts</v>
       </c>
-      <c r="H41" s="115"/>
-      <c r="I41" s="107"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="119" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C42" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
 "Testing the Session Timeout")</f>
         <v>Testing the Session Timeout</v>
       </c>
-      <c r="H42" s="115"/>
-      <c r="I42" s="121"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="76"/>
     </row>
     <row r="43" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="105" t="s">
+      <c r="C43" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G43" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05f-Testing-Local-Authentication.md#testing-biometric-authentication"),
 "Testing Biometric Authentication")</f>
         <v>Testing Biometric Authentication</v>
       </c>
-      <c r="H43" s="115"/>
-      <c r="I43" s="107"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="155" t="s">
+      <c r="B44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="118"/>
-      <c r="E44" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="105" t="s">
+      <c r="C44" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G44" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
 "Testing 2-Factor Authentication")</f>
         <v>Testing 2-Factor Authentication</v>
       </c>
-      <c r="H44" s="115"/>
-      <c r="I44" s="107"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="119" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="118"/>
-      <c r="E45" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="105" t="s">
+      <c r="C45" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
+      <c r="G45" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
 "Testing Step-up Authentication")</f>
         <v>Testing Step-up Authentication</v>
       </c>
-      <c r="H45" s="115"/>
-      <c r="I45" s="107"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="155" t="s">
+      <c r="B46" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="119" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="105" t="s">
+      <c r="C46" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="115" t="str">
+      <c r="G46" s="70" t="str">
         <f>HYPERLINK(
-_xlfn.CONCAT(
+CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
 "Testing Login Activity and Device Blocking")</f>
         <v>Testing Login Activity and Device Blocking</v>
       </c>
-      <c r="H46" s="115"/>
-      <c r="I46" s="107"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="114"/>
-    </row>
-    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="155" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="105"/>
-      <c r="G48" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D48" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
 "Testing for Unencrypted Sensitive Data on the Network")</f>
         <v>Testing for Unencrypted Sensitive Data on the Network</v>
       </c>
-      <c r="H48" s="115"/>
-      <c r="I48" s="107"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="62"/>
     </row>
     <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="119" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="105"/>
-      <c r="G49" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C49" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
 "Verifying the TLS Settings")</f>
         <v>Verifying the TLS Settings</v>
       </c>
-      <c r="H49" s="115"/>
-      <c r="I49" s="107"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="62"/>
     </row>
     <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="119" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="105"/>
-      <c r="G50" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C50" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="60"/>
+      <c r="G50" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-endpoint-identify-verification"),
 "Testing Endpoint Identify Verification")</f>
         <v>Testing Endpoint Identify Verification</v>
       </c>
-      <c r="H50" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Making Sure That Critical Operations Use Secure Communication Channels")</f>
-        <v>Making Sure That Critical Operations Use Secure Communication Channels</v>
-      </c>
-      <c r="I50" s="123"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="78"/>
     </row>
     <row r="51" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="119" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="118"/>
-      <c r="E51" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="105" t="s">
+      <c r="C51" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G51" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
 "Testing Custom Certificate Stores and SSL Pinning")</f>
         <v>Testing Custom Certificate Stores and SSL Pinning</v>
       </c>
-      <c r="H51" s="115"/>
-      <c r="I51" s="107"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="62"/>
     </row>
     <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="105" t="s">
+      <c r="C52" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G52" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
 "Verifying that Critical Operations Use Secure Communication Channels")</f>
         <v>Verifying that Critical Operations Use Secure Communication Channels</v>
       </c>
-      <c r="H52" s="115"/>
-      <c r="I52" s="107"/>
+      <c r="H52" s="70"/>
+      <c r="I52" s="62"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="119" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="118"/>
-      <c r="E53" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="105" t="s">
+      <c r="C53" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="73"/>
+      <c r="E53" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G53" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-the-security-provider"),
 "Verifying the Security Provider")</f>
         <v>Verifying the Security Provider</v>
       </c>
-      <c r="H53" s="115"/>
-      <c r="I53" s="107"/>
+      <c r="H53" s="70"/>
+      <c r="I53" s="62"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="111" t="s">
+      <c r="C54" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="114"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="D55" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="105"/>
-      <c r="G55" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D55" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="G55" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-app-permissions"),
 "Testing App Permissions")</f>
         <v>Testing App Permissions</v>
       </c>
-      <c r="H55" s="115"/>
-      <c r="I55" s="107"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="62"/>
     </row>
     <row r="56" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="155" t="s">
+      <c r="B56" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="105"/>
-      <c r="G56" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C56" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="60"/>
+      <c r="G56" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
 "Testing Input Validation and Sanitization")</f>
         <v>Testing Input Validation and Sanitization</v>
       </c>
-      <c r="H56" s="115"/>
-      <c r="I56" s="107"/>
+      <c r="H56" s="70"/>
+      <c r="I56" s="62"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="119" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="105"/>
-      <c r="G57" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C57" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="60"/>
+      <c r="G57" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
 "Testing Custom URL Schemes")</f>
         <v>Testing Custom URL Schemes</v>
       </c>
-      <c r="H57" s="115"/>
-      <c r="I57" s="107"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="62"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="155" t="s">
+      <c r="B58" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="D58" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="105"/>
-      <c r="G58" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C58" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="60"/>
+      <c r="G58" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
 "Testing For Sensitive Functionality Exposure Through IPC")</f>
         <v>Testing For Sensitive Functionality Exposure Through IPC</v>
       </c>
-      <c r="H58" s="115"/>
-      <c r="I58" s="107"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="62"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="155" t="s">
+      <c r="B59" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="119" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="105"/>
-      <c r="G59" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C59" s="74" t="s">
+        <v>244</v>
+      </c>
+      <c r="D59" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="60"/>
+      <c r="G59" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-javascript-execution-in-webviews"),
 "Testing JavaScript Execution in WebViews")</f>
         <v>Testing JavaScript Execution in WebViews</v>
       </c>
-      <c r="H59" s="115"/>
-      <c r="I59" s="107"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="62"/>
     </row>
     <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="155" t="s">
+      <c r="B60" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="119" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="105"/>
-      <c r="G60" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C60" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="60"/>
+      <c r="G60" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
 "Testing WebView Protocol Handlers")</f>
         <v>Testing WebView Protocol Handlers</v>
       </c>
-      <c r="H60" s="115"/>
-      <c r="I60" s="107"/>
+      <c r="H60" s="70"/>
+      <c r="I60" s="62"/>
     </row>
     <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="155" t="s">
+      <c r="B61" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="119" t="s">
-        <v>247</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C61" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="60"/>
+      <c r="G61" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),
 "Testing Whether Java Objects Are Exposed Through WebViews")</f>
         <v>Testing Whether Java Objects Are Exposed Through WebViews</v>
       </c>
-      <c r="H61" s="115"/>
-      <c r="I61" s="107"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="62"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="155" t="s">
+      <c r="B62" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="119" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="105"/>
-      <c r="G62" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C62" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="60"/>
+      <c r="G62" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),
 "Testing Object (De-)Serialization")</f>
         <v>Testing Object (De-)Serialization</v>
       </c>
-      <c r="H62" s="115"/>
-      <c r="I62" s="107"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="62"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="111" t="s">
+      <c r="C63" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="69"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="112"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="114"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="105"/>
-      <c r="G64" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D64" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="60"/>
+      <c r="G64" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
 "Verifying That the App is Properly Signed")</f>
         <v>Verifying That the App is Properly Signed</v>
       </c>
-      <c r="H64" s="115"/>
-      <c r="I64" s="107"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="62"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="155" t="s">
+      <c r="B65" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="D65" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="105"/>
-      <c r="G65" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C65" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="60"/>
+      <c r="G65" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
 "Testing If the App is Debuggable")</f>
         <v>Testing If the App is Debuggable</v>
       </c>
-      <c r="H65" s="115"/>
-      <c r="I65" s="107"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="62"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="155" t="s">
+      <c r="B66" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="105"/>
-      <c r="G66" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C66" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
 "Testing for Debugging Symbols")</f>
         <v>Testing for Debugging Symbols</v>
       </c>
-      <c r="H66" s="115"/>
-      <c r="I66" s="107"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="62"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="155" t="s">
+      <c r="B67" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="105"/>
-      <c r="G67" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C67" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
 "Testing for Debugging Code and Verbose Error Logging")</f>
         <v>Testing for Debugging Code and Verbose Error Logging</v>
       </c>
-      <c r="H67" s="115"/>
-      <c r="I67" s="107"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="62"/>
     </row>
     <row r="68" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="D68" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="105"/>
-      <c r="G68" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C68" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
 "Testing for Weaknesses in Third Party Libraries")</f>
         <v>Testing for Weaknesses in Third Party Libraries</v>
       </c>
-      <c r="H68" s="122"/>
-      <c r="I68" s="107"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="62"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="102" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="105"/>
-      <c r="G69" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C69" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="60"/>
+      <c r="G69" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing Exception Handling")</f>
         <v>Testing Exception Handling</v>
       </c>
-      <c r="H69" s="115"/>
-      <c r="I69" s="107"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="62"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="155" t="s">
+      <c r="B70" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="105"/>
-      <c r="G70" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C70" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="60"/>
+      <c r="G70" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing  Error Handling in Security Controls")</f>
         <v>Testing  Error Handling in Security Controls</v>
       </c>
-      <c r="H70" s="115"/>
-      <c r="I70" s="107"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="62"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="155" t="s">
+      <c r="B71" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="102" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="105"/>
-      <c r="G71" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C71" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="60"/>
+      <c r="G71" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),
 "Testing for Memory Management Bugs")</f>
         <v>Testing for Memory Management Bugs</v>
       </c>
-      <c r="H71" s="115"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="125"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="79"/>
+      <c r="J71" s="80"/>
     </row>
     <row r="72" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="105"/>
-      <c r="G72" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C72" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="60"/>
+      <c r="G72" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
 "Verifying usage of Free Security Features")</f>
         <v>Verifying usage of Free Security Features</v>
       </c>
-      <c r="H72" s="115"/>
-      <c r="I72" s="107"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="62"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="126"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="127"/>
-      <c r="I73" s="129"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
+      <c r="I73" s="84"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="130"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="130"/>
-      <c r="C75" s="119"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="130"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="131" t="s">
+      <c r="B77" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="61"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="106"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="132" t="s">
+      <c r="C78" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="133" t="s">
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="106"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="135" t="s">
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="61"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D79" s="78"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="106"/>
-      <c r="I79" s="106"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="135" t="s">
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="D80" s="78"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="106"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="106"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="134" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="78"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="106"/>
-      <c r="H81" s="106"/>
-      <c r="I81" s="106"/>
+      <c r="D81" s="38"/>
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="130"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="61"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="130"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="61"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="130"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="130"/>
-      <c r="C85" s="106"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="106"/>
-      <c r="H85" s="106"/>
-      <c r="I85" s="106"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="38"/>
+      <c r="E85" s="38"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7062,450 +7096,442 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="90" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="91" customWidth="1"/>
-    <col min="3" max="3" width="97.1640625" style="92" customWidth="1"/>
-    <col min="4" max="4" width="2.9140625" style="90" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="90" customWidth="1"/>
-    <col min="6" max="6" width="42.4140625" style="92" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="92" customWidth="1"/>
-    <col min="8" max="16384" width="10.9140625" style="90"/>
+    <col min="1" max="1" width="1.5" style="46" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="2.9140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="42.4140625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="30.58203125" style="48" customWidth="1"/>
+    <col min="8" max="16384" width="10.9140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="85"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="130"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="94" t="s">
+      <c r="D3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="94" t="s">
+      <c r="G3" s="52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="110"/>
-      <c r="C4" s="111" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="114"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="105" t="s">
+      <c r="D5" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F5" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-root-detection"),
 "Testing Root Detection")</f>
         <v>Testing Root Detection</v>
       </c>
-      <c r="G5" s="107"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="119" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="105" t="s">
+      <c r="C6" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="115" t="str">
+      <c r="F6" s="70" t="str">
         <f>HYPERLINK(
-_xlfn.CONCAT(
+CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),
 "Testing Debugging Defenses")</f>
         <v>Testing Debugging Defenses</v>
       </c>
-      <c r="G6" s="107"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="119" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="105" t="s">
+      <c r="C7" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F7" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-file-integrity-checks"),
 "Testing File Integrity Checks")</f>
         <v>Testing File Integrity Checks</v>
       </c>
-      <c r="G7" s="107"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="119" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="105" t="s">
+      <c r="C8" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F8" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),
 "Testing Detection of Reverse Engineering Tools")</f>
         <v>Testing Detection of Reverse Engineering Tools</v>
       </c>
-      <c r="G8" s="107"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="119" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="105" t="s">
+      <c r="C9" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F9" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),
 "Testing Simple Emulator Detection")</f>
         <v>Testing Simple Emulator Detection</v>
       </c>
-      <c r="G9" s="107"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="119" t="s">
-        <v>268</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="105" t="s">
+      <c r="C10" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F10" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),
 "Testing Run-Time Integrity Checks")</f>
         <v>Testing Run-Time Integrity Checks</v>
       </c>
-      <c r="G10" s="107"/>
+      <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="108" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="62"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="105" t="s">
+      <c r="D12" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="107"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="119" t="s">
+      <c r="G12" s="62"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="105" t="s">
+      <c r="D13" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="107"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="119" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F13" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
 "Testing Simple Obfuscation")</f>
         <v>Testing Simple Obfuscation</v>
       </c>
-      <c r="G13" s="107"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="110"/>
-      <c r="C14" s="111" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="114"/>
-    </row>
-    <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="156" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="105" t="s">
+      <c r="D15" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F15" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-device-binding"),
 "Testing Device Binding")</f>
         <v>Testing Device Binding</v>
       </c>
-      <c r="G15" s="107"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="110"/>
-      <c r="C16" s="111" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="69"/>
+    </row>
+    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="114"/>
-    </row>
-    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="119" t="s">
-        <v>275</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="105" t="s">
+      <c r="D17" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F17" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
 "Testing Obfuscation")</f>
         <v>Testing Obfuscation</v>
       </c>
-      <c r="G17" s="107"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="62"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="84"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="85"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="85"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="86" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="105" t="s">
+      <c r="C22" s="61"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="107"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="129"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="130"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="130"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="132" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="133" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="135" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="135" t="s">
+      <c r="C26" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="134" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="130"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="130"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="130"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12"/>
@@ -7530,1800 +7556,1750 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="7.9140625" style="140" customWidth="1"/>
-    <col min="3" max="3" width="97.1640625" style="139" customWidth="1"/>
-    <col min="4" max="5" width="6.58203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="20" customWidth="1"/>
-    <col min="7" max="7" width="60.1640625" style="139" customWidth="1"/>
-    <col min="8" max="8" width="63.58203125" style="92" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="139" customWidth="1"/>
-    <col min="10" max="10" width="10.9140625" style="20"/>
-    <col min="11" max="12" width="10.6640625" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="10.9140625" style="20"/>
+    <col min="1" max="1" width="1.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.9140625" style="95" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" style="94" customWidth="1"/>
+    <col min="4" max="5" width="6.58203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="60.1640625" style="94" customWidth="1"/>
+    <col min="8" max="8" width="63.58203125" style="48" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="94" customWidth="1"/>
+    <col min="10" max="10" width="10.9140625" style="19"/>
+    <col min="11" max="12" width="10.6640625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="10.9140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="B1" s="138" t="s">
-        <v>283</v>
+      <c r="B1" s="93" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="E3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="F3" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="G3" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="H3" s="154"/>
+      <c r="I3" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="H3" s="141"/>
-      <c r="I3" s="97" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="99" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="101"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="155" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="102" t="s">
+      <c r="D5" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="62"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106" t="s">
+      <c r="D6" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="107"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="155" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="102" t="s">
+      <c r="H6" s="74"/>
+      <c r="I6" s="62"/>
+    </row>
+    <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106" t="s">
+      <c r="D7" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="107"/>
-    </row>
-    <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="155" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="102" t="s">
+      <c r="H7" s="74"/>
+      <c r="I7" s="62"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
+      <c r="D8" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="107"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="155" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="102" t="s">
+      <c r="H8" s="74"/>
+      <c r="I8" s="62"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="155" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="102" t="s">
+      <c r="H9" s="74"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="105" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G10" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="107"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="155" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="102" t="s">
+      <c r="H10" s="74"/>
+      <c r="I10" s="62"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="108"/>
-      <c r="E10" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="105" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G11" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="107"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="155" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="102" t="s">
+      <c r="H11" s="74"/>
+      <c r="I11" s="62"/>
+    </row>
+    <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="105" t="s">
+      <c r="D12" s="63"/>
+      <c r="E12" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="107"/>
-    </row>
-    <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="155" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="102" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="108"/>
-      <c r="E12" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="105" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G13" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="119"/>
-      <c r="I12" s="107"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="155" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="102" t="s">
+      <c r="H13" s="74"/>
+      <c r="I13" s="62"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="108"/>
-      <c r="E13" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="105" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="106" t="s">
+      <c r="G14" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="119"/>
-      <c r="I13" s="107"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="102" t="s">
+      <c r="H14" s="74"/>
+      <c r="I14" s="62"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="108"/>
-      <c r="E14" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="119"/>
-      <c r="I14" s="107"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="110" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="111" t="s">
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="69"/>
+    </row>
+    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="114"/>
-    </row>
-    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="155" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D16" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="60"/>
+      <c r="G16" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
 "Testing For Sensitive Data in Local Data Storage")</f>
         <v>Testing For Sensitive Data in Local Data Storage</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="107"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="155" t="s">
+      <c r="B17" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C17" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
 "Testing For Sensitive Data in Local Data Storage")</f>
         <v>Testing For Sensitive Data in Local Data Storage</v>
       </c>
-      <c r="H17" s="119"/>
-      <c r="I17" s="107"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="D18" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C18" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="60"/>
+      <c r="G18" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),
 "Testing For Sensitive Data in Logs")</f>
         <v>Testing For Sensitive Data in Logs</v>
       </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="107"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="155" t="s">
+      <c r="B19" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="102" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C19" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
 "Testing Whether Sensitive Data Is Sent To Third Parties")</f>
         <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
       </c>
-      <c r="H19" s="119"/>
-      <c r="I19" s="107"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="105"/>
-      <c r="G20" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C20" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="60"/>
+      <c r="G20" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),
 "Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
         <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
       </c>
-      <c r="H20" s="119"/>
-      <c r="I20" s="107"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="155" t="s">
+      <c r="B21" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="102" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="105"/>
-      <c r="G21" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C21" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="60"/>
+      <c r="G21" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),
 "Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
         <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
       </c>
-      <c r="H21" s="119"/>
-      <c r="I21" s="107"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="D22" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="105"/>
-      <c r="G22" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C22" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="60"/>
+      <c r="G22" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),
 "Testing for Sensitive Data Disclosure Through the User Interface")</f>
         <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
       </c>
-      <c r="H22" s="119"/>
-      <c r="I22" s="107"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="155" t="s">
+      <c r="B23" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="102" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="118"/>
-      <c r="E23" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="105" t="s">
+      <c r="C23" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G23" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
 "Testing for Sensitive Data in Backups")</f>
         <v>Testing for Sensitive Data in Backups</v>
       </c>
-      <c r="H23" s="119"/>
-      <c r="I23" s="107"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="102" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="118"/>
-      <c r="E24" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="105" t="s">
+      <c r="C24" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G24" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),
 "Testing for Sensitive Information in Auto-Generated Screenshots")</f>
         <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
       </c>
-      <c r="H24" s="119"/>
-      <c r="I24" s="107"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="118"/>
-      <c r="E25" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="105" t="s">
+      <c r="C25" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="73"/>
+      <c r="E25" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G25" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),
 "Testing for Sensitive Data in Memory")</f>
         <v>Testing for Sensitive Data in Memory</v>
       </c>
-      <c r="H25" s="119"/>
-      <c r="I25" s="107"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="155" t="s">
+      <c r="B26" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="102" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="118"/>
-      <c r="E26" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="105" t="s">
+      <c r="C26" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="73"/>
+      <c r="E26" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G26" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
 "Testing Local Authentication")</f>
         <v>Testing Local Authentication</v>
       </c>
-      <c r="H26" s="119"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="142"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="96"/>
     </row>
     <row r="27" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="118"/>
-      <c r="E27" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="105" t="s">
+      <c r="C27" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="73"/>
+      <c r="E27" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="143" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="119"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="90"/>
+      <c r="G27" s="97" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
+"Testing Local Authentication")</f>
+        <v>Testing Local Authentication</v>
+      </c>
+      <c r="H27" s="74"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="46"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="111" t="s">
+      <c r="C28" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="69"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D28" s="112"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="114"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="155" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="D29" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="105"/>
-      <c r="G29" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D29" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="60"/>
+      <c r="G29" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
 "Verifying Key Management")</f>
         <v>Verifying Key Management</v>
       </c>
-      <c r="H29" s="119"/>
-      <c r="I29" s="107"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="155" t="s">
+      <c r="B30" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="102" t="s">
-        <v>215</v>
-      </c>
-      <c r="D30" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F30" s="105"/>
-      <c r="G30" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C30" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="60"/>
+      <c r="G30" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),
 "Testing for Custom Implementations of Cryptography")</f>
         <v>Testing for Custom Implementations of Cryptography</v>
       </c>
-      <c r="H30" s="119"/>
-      <c r="I30" s="107"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="155" t="s">
+      <c r="B31" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="105"/>
-      <c r="G31" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C31" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="60"/>
+      <c r="G31" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#verifying-the-configuration-of-cryptographic-standard-algorithms"),
 "Verifying the Configuration of Cryptographic Standard Algorithms")</f>
         <v>Verifying the Configuration of Cryptographic Standard Algorithms</v>
       </c>
-      <c r="H31" s="119"/>
-      <c r="I31" s="107"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="155" t="s">
+      <c r="B32" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="D32" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="105"/>
-      <c r="G32" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C32" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="60"/>
+      <c r="G32" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
 "Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
         <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
-      <c r="H32" s="119"/>
-      <c r="I32" s="107"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="105"/>
-      <c r="G33" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C33" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="60"/>
+      <c r="G33" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
 "Verifying Key Management")</f>
         <v>Verifying Key Management</v>
       </c>
-      <c r="H33" s="119"/>
-      <c r="I33" s="107"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="62"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="D34" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="105"/>
-      <c r="G34" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C34" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="60"/>
+      <c r="G34" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-random-number-generation"),
 "Testing Random Number Generation")</f>
         <v>Testing Random Number Generation</v>
       </c>
-      <c r="H34" s="119"/>
-      <c r="I34" s="107"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="62"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="111" t="s">
+      <c r="C35" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="69"/>
+    </row>
+    <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="74" t="s">
         <v>220</v>
       </c>
-      <c r="D35" s="112"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="114"/>
-    </row>
-    <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="155" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="119" t="s">
-        <v>221</v>
-      </c>
-      <c r="D36" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="105"/>
-      <c r="G36" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D36" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
 "Verifying that Users Are Properly Authenticated")</f>
         <v>Verifying that Users Are Properly Authenticated</v>
       </c>
-      <c r="H36" s="119"/>
-      <c r="I36" s="107"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="155" t="s">
+      <c r="B37" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="119" t="s">
+      <c r="C37" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="60"/>
+      <c r="G37" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
+"Testing Stateful Session Management")</f>
+        <v>Testing Stateful Session Management</v>
+      </c>
+      <c r="H37" s="74"/>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="105"/>
-      <c r="G37" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-stateful-session-management"),
-"Testing Session Management")</f>
-        <v>Testing Session Management</v>
-      </c>
-      <c r="H37" s="119"/>
-      <c r="I37" s="107"/>
-    </row>
-    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="155" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D38" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
 "Testing Stateless Authentication")</f>
         <v>Testing Stateless Authentication</v>
       </c>
-      <c r="H38" s="119"/>
-      <c r="I38" s="107"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="62"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="155" t="s">
+      <c r="B39" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="103"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105"/>
-      <c r="G39" s="115" t="str">
+      <c r="C39" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="70" t="str">
         <f>HYPERLINK(
-_xlfn.CONCAT(
+CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
 "Testing the Logout Functionality")</f>
         <v>Testing the Logout Functionality</v>
       </c>
-      <c r="H39" s="119"/>
-      <c r="I39" s="107"/>
-      <c r="K39" s="120"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="62"/>
+      <c r="K39" s="75"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="155" t="s">
+      <c r="B40" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="119" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="105"/>
-      <c r="G40" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
+      <c r="C40" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="60"/>
+      <c r="G40" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
 "Testing the Password Policy")</f>
         <v>Testing the Password Policy</v>
       </c>
-      <c r="H40" s="119"/>
-      <c r="I40" s="107"/>
-      <c r="K40" s="120"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="62"/>
+      <c r="K40" s="75"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="155" t="s">
+      <c r="B41" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="119" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="105"/>
-      <c r="G41" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C41" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="G41" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
 "Testing Excessive Login Attempts")</f>
         <v>Testing Excessive Login Attempts</v>
       </c>
-      <c r="H41" s="119"/>
-      <c r="I41" s="107"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="155" t="s">
+      <c r="B42" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="119" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C42" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="60"/>
+      <c r="G42" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
 "Testing the Session Timeout")</f>
         <v>Testing the Session Timeout</v>
       </c>
-      <c r="H42" s="144"/>
-      <c r="I42" s="121"/>
+      <c r="H42" s="98"/>
+      <c r="I42" s="76"/>
     </row>
     <row r="43" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="155" t="s">
+      <c r="B43" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="119" t="s">
-        <v>228</v>
-      </c>
-      <c r="D43" s="118"/>
-      <c r="E43" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="105" t="s">
+      <c r="C43" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" s="73"/>
+      <c r="E43" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G43" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G43" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#testing-local-authentication"),
 "Testing Biometric Authentication")</f>
         <v>Testing Biometric Authentication</v>
       </c>
-      <c r="H43" s="119"/>
-      <c r="I43" s="107"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="62"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="155" t="s">
+      <c r="B44" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="D44" s="118"/>
-      <c r="E44" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="105" t="s">
+      <c r="C44" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" s="73"/>
+      <c r="E44" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G44" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G44" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
 "Testing 2-Factor Authentication")</f>
         <v>Testing 2-Factor Authentication</v>
       </c>
-      <c r="H44" s="119"/>
-      <c r="I44" s="107"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="155" t="s">
+      <c r="B45" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="119" t="s">
-        <v>230</v>
-      </c>
-      <c r="D45" s="118"/>
-      <c r="E45" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="105" t="s">
+      <c r="C45" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" s="73"/>
+      <c r="E45" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
+      <c r="G45" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
 "Testing Step-up Authentication")</f>
         <v>Testing Step-up Authentication</v>
       </c>
-      <c r="H45" s="119"/>
-      <c r="I45" s="107"/>
+      <c r="H45" s="74"/>
+      <c r="I45" s="62"/>
     </row>
     <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="155" t="s">
+      <c r="B46" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="119" t="s">
-        <v>231</v>
-      </c>
-      <c r="D46" s="118"/>
-      <c r="E46" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="105" t="s">
+      <c r="C46" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="73"/>
+      <c r="E46" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G46" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G46" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
 "Testing Login Activity and Device Blocking")</f>
         <v>Testing Login Activity and Device Blocking</v>
       </c>
-      <c r="H46" s="119"/>
-      <c r="I46" s="107"/>
+      <c r="H46" s="74"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="112"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="112"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="114"/>
-    </row>
-    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="155" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="D48" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="105"/>
-      <c r="G48" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D48" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="60"/>
+      <c r="G48" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
 "Testing for Unencrypted Sensitive Data on the Network")</f>
         <v>Testing for Unencrypted Sensitive Data on the Network</v>
       </c>
-      <c r="H48" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="H48" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#app-transport-security"),
 "App Transport Security (ATS)")</f>
         <v>App Transport Security (ATS)</v>
       </c>
-      <c r="I48" s="123"/>
+      <c r="I48" s="78"/>
     </row>
     <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="119" t="s">
-        <v>235</v>
-      </c>
-      <c r="D49" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="105"/>
-      <c r="G49" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C49" s="74" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="60"/>
+      <c r="G49" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
 "Verifying the TLS Settings")</f>
         <v>Verifying the TLS Settings</v>
       </c>
-      <c r="H49" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="H49" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#app-transport-security"),
 "App Transport Security (ATS)")</f>
         <v>App Transport Security (ATS)</v>
       </c>
-      <c r="I49" s="123"/>
+      <c r="I49" s="78"/>
     </row>
     <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="119" t="s">
-        <v>236</v>
-      </c>
-      <c r="D50" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="105"/>
-      <c r="G50" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C50" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D50" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="60"/>
+      <c r="G50" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
 "Testing Custom Certificate Stores and SSL Pinning")</f>
         <v>Testing Custom Certificate Stores and SSL Pinning</v>
       </c>
-      <c r="H50" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Making Sure That Critical Operations Use Secure Communication Channels")</f>
-        <v>Making Sure That Critical Operations Use Secure Communication Channels</v>
-      </c>
-      <c r="I50" s="123"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="78"/>
     </row>
     <row r="51" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="119" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="118"/>
-      <c r="E51" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F51" s="105" t="s">
+      <c r="C51" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="73"/>
+      <c r="E51" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G51" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G51" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
 "Testing Custom Certificate Stores and SSL Pinning")</f>
         <v>Testing Custom Certificate Stores and SSL Pinning</v>
       </c>
-      <c r="H51" s="119"/>
-      <c r="I51" s="107"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="62"/>
     </row>
     <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="D52" s="118"/>
-      <c r="E52" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="105" t="s">
+      <c r="C52" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="73"/>
+      <c r="E52" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G52" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G52" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
 "Verifying that Critical Operations Use Secure Communication Channels")</f>
         <v>Verifying that Critical Operations Use Secure Communication Channels</v>
       </c>
-      <c r="H52" s="119"/>
-      <c r="I52" s="107"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="62"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="119" t="s">
-        <v>239</v>
-      </c>
-      <c r="D53" s="118"/>
-      <c r="E53" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="105" t="s">
+      <c r="C53" s="74" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="73"/>
+      <c r="E53" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G53" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="G53" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
 "Checking for Weaknesses in Third Party Libraries")</f>
         <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
-      <c r="H53" s="119"/>
-      <c r="I53" s="107"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="62"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="110" t="s">
+      <c r="B54" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="111" t="s">
+      <c r="C54" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="67"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="74" t="s">
         <v>240</v>
       </c>
-      <c r="D54" s="112"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="112"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="114"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="155" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="119" t="s">
-        <v>241</v>
-      </c>
-      <c r="D55" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F55" s="105"/>
-      <c r="G55" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D55" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="60"/>
+      <c r="G55" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-app-permissions"),
 "Testing App Permissions")</f>
         <v>Testing App Permissions</v>
       </c>
-      <c r="H55" s="119"/>
-      <c r="I55" s="107"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="62"/>
     </row>
     <row r="56" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="155" t="s">
+      <c r="B56" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="D56" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="105"/>
-      <c r="G56" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C56" s="74" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="60"/>
+      <c r="G56" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
 "Testing Input Validation and Sanitization")</f>
         <v>Testing Input Validation and Sanitization</v>
       </c>
-      <c r="H56" s="119"/>
-      <c r="I56" s="107"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="62"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="119" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="105"/>
-      <c r="G57" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C57" s="74" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="60"/>
+      <c r="G57" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-custom-url-schemes"),
 "Testing Custom URL Schemes")</f>
         <v>Testing Custom URL Schemes</v>
       </c>
-      <c r="H57" s="119"/>
-      <c r="I57" s="107"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="62"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="155" t="s">
+      <c r="B58" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="119" t="s">
+      <c r="C58" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="60"/>
+      <c r="G58" s="61" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
+"Testing For Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing For Sensitive Functionality Exposure Through IPC</v>
+      </c>
+      <c r="H58" s="74"/>
+      <c r="I58" s="62"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="74" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="105"/>
-      <c r="G58" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="H58" s="119"/>
-      <c r="I58" s="107"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="119" t="s">
-        <v>245</v>
-      </c>
-      <c r="D59" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="105"/>
-      <c r="G59" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D59" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="60"/>
+      <c r="G59" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),
 "Testing JavaScript Execution in WebViews")</f>
         <v>Testing JavaScript Execution in WebViews</v>
       </c>
-      <c r="H59" s="119"/>
-      <c r="I59" s="107"/>
+      <c r="H59" s="74"/>
+      <c r="I59" s="62"/>
     </row>
     <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="155" t="s">
+      <c r="B60" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="119" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="105"/>
-      <c r="G60" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C60" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="60"/>
+      <c r="G60" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-webview-protocol-handlers"),
 "Testing WebView Protocol Handlers")</f>
         <v>Testing WebView Protocol Handlers</v>
       </c>
-      <c r="H60" s="119"/>
-      <c r="I60" s="107"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="62"/>
     </row>
     <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="155" t="s">
+      <c r="B61" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="119" t="s">
-        <v>247</v>
-      </c>
-      <c r="D61" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F61" s="105"/>
-      <c r="G61" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C61" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D61" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="60"/>
+      <c r="G61" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),
 "Testing Whether Native Methods Are Exposed Through WebViews")</f>
         <v>Testing Whether Native Methods Are Exposed Through WebViews</v>
       </c>
-      <c r="H61" s="119"/>
-      <c r="I61" s="107"/>
+      <c r="H61" s="74"/>
+      <c r="I61" s="62"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="155" t="s">
+      <c r="B62" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="119" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="105"/>
-      <c r="G62" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C62" s="74" t="s">
+        <v>247</v>
+      </c>
+      <c r="D62" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="60"/>
+      <c r="G62" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),
 "Testing Object (De-)Serialization")</f>
         <v>Testing Object (De-)Serialization</v>
       </c>
-      <c r="H62" s="119"/>
-      <c r="I62" s="107"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="62"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="111" t="s">
+      <c r="C63" s="66" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="69"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="112"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="112"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="111"/>
-      <c r="I63" s="114"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="D64" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64" s="105"/>
-      <c r="G64" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="D64" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="60"/>
+      <c r="G64" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
 "Verifying That the App is Properly Signed")</f>
         <v>Verifying That the App is Properly Signed</v>
       </c>
-      <c r="H64" s="119"/>
-      <c r="I64" s="107"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="62"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="155" t="s">
+      <c r="B65" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="D65" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="105"/>
-      <c r="G65" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C65" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="60"/>
+      <c r="G65" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
 "Testing If the App is Debuggable")</f>
         <v>Testing If the App is Debuggable</v>
       </c>
-      <c r="H65" s="119"/>
-      <c r="I65" s="107"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="62"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="155" t="s">
+      <c r="B66" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="D66" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="105"/>
-      <c r="G66" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C66" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
 "Testing for Debugging Symbols")</f>
         <v>Testing for Debugging Symbols</v>
       </c>
-      <c r="H66" s="119"/>
-      <c r="I66" s="107"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="62"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="155" t="s">
+      <c r="B67" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="102" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F67" s="105"/>
-      <c r="G67" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C67" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D67" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="60"/>
+      <c r="G67" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
 "Testing for Debugging Code and Verbose Error Logging")</f>
         <v>Testing for Debugging Code and Verbose Error Logging</v>
       </c>
-      <c r="H67" s="119"/>
-      <c r="I67" s="107"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="62"/>
     </row>
     <row r="68" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="102" t="s">
-        <v>254</v>
-      </c>
-      <c r="D68" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="105"/>
-      <c r="G68" s="122" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C68" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="77" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
 "Testing for Weaknesses in Third Party Libraries")</f>
         <v>Testing for Weaknesses in Third Party Libraries</v>
       </c>
-      <c r="H68" s="119"/>
-      <c r="I68" s="107"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="62"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="C69" s="102" t="s">
-        <v>255</v>
-      </c>
-      <c r="D69" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="105"/>
-      <c r="G69" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C69" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="D69" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="60"/>
+      <c r="G69" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing Exception Handling")</f>
         <v>Testing Exception Handling</v>
       </c>
-      <c r="H69" s="119"/>
-      <c r="I69" s="107"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="62"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="155" t="s">
+      <c r="B70" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="D70" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="105"/>
-      <c r="G70" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C70" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="60"/>
+      <c r="G70" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
 "Testing  Error Handling in Security Controls")</f>
         <v>Testing  Error Handling in Security Controls</v>
       </c>
-      <c r="H70" s="119"/>
-      <c r="I70" s="107"/>
+      <c r="H70" s="74"/>
+      <c r="I70" s="62"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="155" t="s">
+      <c r="B71" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="102" t="s">
-        <v>257</v>
-      </c>
-      <c r="D71" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71" s="105"/>
-      <c r="G71" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
-BASE_URL,
-"0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
+      <c r="C71" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="60"/>
+      <c r="G71" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),
 "Testing for Memory Management Bugs")</f>
         <v>Testing for Memory Management Bugs</v>
       </c>
-      <c r="H71" s="119"/>
-      <c r="I71" s="107"/>
+      <c r="H71" s="74"/>
+      <c r="I71" s="62"/>
     </row>
     <row r="72" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="102" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="103" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="105"/>
-      <c r="G72" s="115" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="C72" s="57" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="60"/>
+      <c r="G72" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
 "Verifying usage of Free Security Features")</f>
         <v>Verifying usage of Free Security Features</v>
       </c>
-      <c r="H72" s="119"/>
-      <c r="I72" s="107"/>
+      <c r="H72" s="74"/>
+      <c r="I72" s="62"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="126"/>
-      <c r="C73" s="127"/>
-      <c r="D73" s="128"/>
-      <c r="E73" s="128"/>
-      <c r="F73" s="128"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="145"/>
-      <c r="I73" s="146"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="100"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="147"/>
-      <c r="C74" s="148"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="148"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="148"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="102"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="147"/>
-      <c r="C75" s="148"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="144"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="148"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="98"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="102"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="147"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="148"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="102"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="149" t="s">
+      <c r="B77" s="103" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="102"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="C77" s="148"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="148"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="148"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="132" t="s">
+      <c r="C78" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="C78" s="133" t="s">
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="28"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="61"/>
+      <c r="I78" s="102"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="90" t="s">
         <v>279</v>
       </c>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="148"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="148"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C79" s="135" t="s">
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="102"/>
+      <c r="H79" s="61"/>
+      <c r="I79" s="102"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D79" s="54"/>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54"/>
-      <c r="G79" s="148"/>
-      <c r="H79" s="106"/>
-      <c r="I79" s="148"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="135" t="s">
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="102"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="102"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C81" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54"/>
-      <c r="F80" s="54"/>
-      <c r="G80" s="148"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="148"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="134" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="148"/>
-      <c r="H81" s="106"/>
-      <c r="I81" s="148"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="102"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="147"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="148"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="148"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="61"/>
+      <c r="I82" s="102"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="147"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="148"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="148"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="102"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="147"/>
-      <c r="C84" s="148"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="148"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="148"/>
+      <c r="B84" s="101"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="102"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="147"/>
-      <c r="C85" s="148"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="148"/>
-      <c r="H85" s="106"/>
-      <c r="I85" s="148"/>
+      <c r="B85" s="101"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9370,424 +9346,420 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="20" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="140" customWidth="1"/>
-    <col min="3" max="3" width="93.1640625" style="139" customWidth="1"/>
-    <col min="4" max="4" width="2.9140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="42.4140625" style="148" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="139" customWidth="1"/>
-    <col min="8" max="16384" width="10.9140625" style="20"/>
+    <col min="1" max="1" width="1.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="95" customWidth="1"/>
+    <col min="3" max="3" width="93.1640625" style="94" customWidth="1"/>
+    <col min="4" max="4" width="2.9140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="42.4140625" style="102" customWidth="1"/>
+    <col min="7" max="7" width="30.58203125" style="94" customWidth="1"/>
+    <col min="8" max="16384" width="10.9140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="93" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="102"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="G2" s="102"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="148"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" s="148"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="F3" s="97" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="97" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="110"/>
-      <c r="C4" s="111" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="69"/>
+    </row>
+    <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="114"/>
-    </row>
-    <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="105" t="s">
+      <c r="D5" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="116" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F5" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),
 "Testing Jailbreak Detection")</f>
         <v>Testing Jailbreak Detection</v>
       </c>
-      <c r="G5" s="107"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="119" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="105" t="s">
+      <c r="C6" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="116" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F6" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),
 "Testing Debugging Defenses")</f>
         <v>Testing Debugging Defenses</v>
       </c>
-      <c r="G6" s="107"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="119" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="105" t="s">
+      <c r="C7" s="74" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="116" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F7" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),
 "Testing File Integrity Checks")</f>
         <v>Testing File Integrity Checks</v>
       </c>
-      <c r="G7" s="107"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="119" t="s">
+      <c r="C8" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="105" t="s">
+      <c r="D9" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="106" t="s">
+      <c r="F9" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="107"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="155" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="119" t="s">
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="105" t="s">
+      <c r="D10" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="106" t="s">
+      <c r="F10" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="107"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="155" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="119" t="s">
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="105" t="s">
+      <c r="D11" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F11" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="107"/>
-    </row>
-    <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="155" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" s="119" t="s">
+      <c r="G11" s="62"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="105" t="s">
+      <c r="D12" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F12" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="107"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="155" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="119" t="s">
+      <c r="G12" s="62"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="105" t="s">
+      <c r="D13" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F13" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="107"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="119" t="s">
+      <c r="G13" s="62"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="65"/>
+      <c r="C14" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="105" t="s">
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="109" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G13" s="107"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="110"/>
-      <c r="C14" s="111" t="s">
-        <v>272</v>
-      </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="114"/>
-    </row>
-    <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="156" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="D15" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="116" t="str">
-        <f>HYPERLINK(
-_xlfn.CONCAT(
+      <c r="F15" s="71" t="str">
+        <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),
 "Testing Device Binding")</f>
         <v>Testing Device Binding</v>
       </c>
-      <c r="G15" s="107"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="110"/>
-      <c r="C16" s="111" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="69"/>
+    </row>
+    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="114"/>
-    </row>
-    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="155" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="119" t="s">
+      <c r="D17" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="62"/>
+    </row>
+    <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D17" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="105" t="s">
+      <c r="D18" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="106" t="s">
+      <c r="F18" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="107"/>
-    </row>
-    <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="155" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="119" t="s">
+      <c r="G18" s="62"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="101"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="G20" s="102"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="101"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="G21" s="102"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="103" t="s">
         <v>276</v>
       </c>
-      <c r="D18" s="137" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="105" t="s">
+      <c r="C22" s="102"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="G22" s="102"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="G23" s="102"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="G24" s="102"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="G25" s="102"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="106" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="107"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="147"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="G20" s="148"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="147"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="G21" s="148"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="149" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="148"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="G22" s="148"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="132" t="s">
-        <v>278</v>
-      </c>
-      <c r="C23" s="133" t="s">
-        <v>279</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="G23" s="148"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="134" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="135" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="G24" s="148"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="134" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="135" t="s">
+      <c r="C26" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="G25" s="148"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="134" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="G26" s="148"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="G26" s="102"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="147"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="G27" s="102"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="147"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="G28" s="148"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="G28" s="102"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="147"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="G29" s="148"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="G29" s="102"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="147"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="147"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="147"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12"/>
@@ -9846,29 +9818,29 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="84" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.58203125" customWidth="1"/>
     <col min="5" max="5" width="119.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="155"/>
       <c r="C1" s="10"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
@@ -9885,7 +9857,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -9900,7 +9872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
@@ -9915,7 +9887,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -9930,7 +9902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -9945,7 +9917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -9960,7 +9932,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -9975,7 +9947,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
@@ -9990,7 +9962,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
@@ -10005,7 +9977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -10020,7 +9992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -10035,7 +10007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -10050,7 +10022,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="12" t="s">
         <v>126</v>
       </c>
@@ -10082,7 +10054,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="12" t="s">
         <v>124</v>
       </c>
@@ -10113,7 +10085,7 @@
         <v>43476</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -10121,7 +10093,7 @@
         <v>102</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>100</v>
@@ -10130,7 +10102,7 @@
         <v>43478</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -10138,7 +10110,7 @@
         <v>102</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>100</v>
@@ -10147,7 +10119,41 @@
         <v>43478</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="134.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="157" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="14">
+        <v>43641</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="157" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="14">
+        <v>43642</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -10165,7 +10171,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -10173,68 +10179,85 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="20" customWidth="1"/>
-    <col min="2" max="4" width="11.08203125" style="20"/>
-    <col min="5" max="5" width="70.6640625" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="11.08203125" style="20"/>
+    <col min="1" max="1" width="30.5" style="19" customWidth="1"/>
+    <col min="2" max="4" width="11.08203125" style="19"/>
+    <col min="5" max="5" width="70.6640625" style="19" customWidth="1"/>
+    <col min="6" max="16384" width="11.08203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="156" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="110"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="105">
+        <v>43402</v>
+      </c>
+      <c r="E3" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="157"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="151" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="151" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="151" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="151" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="151" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="153" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="154" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="154" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="152">
-        <v>43402</v>
-      </c>
-      <c r="E3" s="153" t="s">
+      <c r="C4" s="107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="105">
+        <v>43590</v>
+      </c>
+      <c r="E4" s="106" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="153" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="154" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="154" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="152">
-        <v>43590</v>
-      </c>
-      <c r="E4" s="153" t="s">
-        <v>288</v>
+      <c r="C5" s="107" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="105">
+        <v>43643</v>
+      </c>
+      <c r="E5" s="106" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-ja-20181106-2139X\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61DD0A6-97D8-4CED-811F-C284756744E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CECD5-AED2-4321-B39B-DAFC3AAD2D7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="144" windowWidth="22020" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="72" windowWidth="22020" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="303">
   <si>
     <t>ID</t>
   </si>
@@ -1112,13 +1112,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>バックグラウンド時にアプリはビューから機密データを削除していることを検証する。</t>
-    <rPh sb="34" eb="36">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>アプリは必要以上に長くメモリ内に機密データを保持せず、使用後は明示的にメモリがクリアされていることを検証する。</t>
     <rPh sb="50" eb="52">
       <t>ケンショウ</t>
@@ -1786,6 +1779,25 @@
   </si>
   <si>
     <t>translate ver. 1.1.1.2 into Japanese</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>Synchronizing the requirements wording in excel with the MASVS
+changes:
+2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updating the link 2.12 for IOS </t>
+  </si>
+  <si>
+    <t>バックグラウンドへ移動した際にアプリはビューから機密データを削除している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>translate ver. 1.1.1.3 into Japanese</t>
     <phoneticPr fontId="12"/>
   </si>
 </sst>
@@ -2623,7 +2635,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2858,9 +2870,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2892,148 +2901,148 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="9" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -4331,48 +4340,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="123" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="118"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="120"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="120"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="121"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="123"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="131"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="126"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="20" t="s">
@@ -4382,20 +4391,20 @@
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="112"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="111" t="s">
-        <v>293</v>
-      </c>
-      <c r="C12" s="112"/>
-      <c r="D12" s="158" t="str">
+      <c r="B12" s="117" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="118"/>
+      <c r="D12" s="111" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
 MASVS_VERSION,
@@ -4404,20 +4413,20 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="111" t="s">
-        <v>294</v>
-      </c>
-      <c r="C13" s="112"/>
+      <c r="B13" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="C13" s="118"/>
       <c r="D13" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="117" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="112"/>
-      <c r="D14" s="158" t="str">
+      <c r="C14" s="118"/>
+      <c r="D14" s="111" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MSTG_VERSION,
@@ -4426,69 +4435,69 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="127" t="s">
+      <c r="B15" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="128"/>
-      <c r="D15" s="129"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="117" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="112"/>
+      <c r="C16" s="118"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="114"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="117" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="112"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="111" t="s">
+      <c r="B19" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="112"/>
+      <c r="C19" s="118"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="117" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="112"/>
+      <c r="C20" s="118"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="111" t="s">
+      <c r="B21" s="117" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="112"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="117" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="112"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="23" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="20" t="s">
@@ -4505,37 +4514,37 @@
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="112"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="112"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="112"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="112"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="126"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="20" t="s">
@@ -4552,37 +4561,37 @@
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="117" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="112"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="117" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="112"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="111" t="s">
+      <c r="B35" s="117" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="112"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="112"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="23"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="126"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="119"/>
+      <c r="D37" s="120"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="20" t="s">
@@ -4592,97 +4601,100 @@
       <c r="D38" s="22"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="130"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="132"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="116"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="133"/>
+      <c r="C40" s="113"/>
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="133"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="26"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="133"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="26"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="133"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="27"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="113" t="s">
+      <c r="B44" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="133"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="26"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="130"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="132"/>
+      <c r="B45" s="114"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="116"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="113" t="s">
+      <c r="B46" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="133"/>
+      <c r="C46" s="113"/>
       <c r="D46" s="26"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="113" t="s">
+      <c r="B47" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="133"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="26"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="133"/>
+      <c r="C48" s="113"/>
       <c r="D48" s="26"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="113" t="s">
+      <c r="B49" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="133"/>
+      <c r="C49" s="113"/>
       <c r="D49" s="27"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="113" t="s">
+      <c r="B50" s="112" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="133"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4697,19 +4709,16 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4755,11 +4764,11 @@
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
     </row>
     <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="32"/>
@@ -4774,16 +4783,16 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="135" t="s">
+      <c r="G6" s="146" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="137"/>
-      <c r="V6" s="135" t="s">
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
+      <c r="V6" s="146" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="136"/>
-      <c r="X6" s="137"/>
+      <c r="W6" s="147"/>
+      <c r="X6" s="148"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="34"/>
@@ -4798,18 +4807,18 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="138">
+      <c r="G8" s="137">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140"/>
-      <c r="V8" s="138">
+      <c r="H8" s="138"/>
+      <c r="I8" s="139"/>
+      <c r="V8" s="137">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="139"/>
-      <c r="X8" s="140"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="139"/>
     </row>
     <row r="9" spans="2:24" ht="91.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="33"/>
@@ -4817,12 +4826,12 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="142"/>
-      <c r="X9" s="143"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="142"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="142"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="34"/>
@@ -4830,12 +4839,12 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="143"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="142"/>
-      <c r="X10" s="143"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="142"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="142"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="34"/>
@@ -4843,19 +4852,19 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="146"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="146"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="145"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="145"/>
     </row>
     <row r="12" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B13" s="35"/>
@@ -4879,11 +4888,11 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="147"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" s="35"/>
@@ -4931,18 +4940,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="D41" s="148" t="s">
+      <c r="D41" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="148" t="s">
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="150"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="152"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.5">
       <c r="D42" s="39" t="s">
@@ -5268,15 +5277,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <conditionalFormatting sqref="F14">
@@ -5338,16 +5347,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="153" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="49" t="s">
@@ -5365,10 +5374,10 @@
       <c r="F3" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="153"/>
+      <c r="H3" s="154"/>
       <c r="I3" s="52" t="s">
         <v>186</v>
       </c>
@@ -5388,7 +5397,7 @@
       <c r="I4" s="56"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -5408,7 +5417,7 @@
       <c r="I5" s="62"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="107" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -5428,7 +5437,7 @@
       <c r="I6" s="62"/>
     </row>
     <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="107" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -5448,7 +5457,7 @@
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -5468,7 +5477,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -5488,7 +5497,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="107" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -5508,7 +5517,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="107" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="57" t="s">
@@ -5528,7 +5537,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="107" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -5548,7 +5557,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="107" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -5568,7 +5577,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="108" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="57" t="s">
@@ -5602,7 +5611,7 @@
       <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="57" t="s">
@@ -5626,7 +5635,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="107" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="57" t="s">
@@ -5646,7 +5655,7 @@
       <c r="I17" s="72"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="107" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -5670,7 +5679,7 @@
       <c r="I18" s="62"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="107" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="57" t="s">
@@ -5694,7 +5703,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -5718,7 +5727,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="107" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -5742,7 +5751,7 @@
       <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="107" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="57" t="s">
@@ -5766,7 +5775,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="107" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="57" t="s">
@@ -5790,11 +5799,11 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="107" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="59" t="s">
@@ -5814,11 +5823,11 @@
       <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="59" t="s">
@@ -5838,11 +5847,11 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="107" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="59" t="s">
@@ -5862,11 +5871,11 @@
       <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="107" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="59" t="s">
@@ -5890,7 +5899,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="68"/>
@@ -5900,11 +5909,11 @@
       <c r="I28" s="69"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="107" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>3</v>
@@ -5924,11 +5933,11 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>3</v>
@@ -5948,11 +5957,11 @@
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>3</v>
@@ -5972,11 +5981,11 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="107" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>3</v>
@@ -5996,11 +6005,11 @@
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="107" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="58" t="s">
         <v>3</v>
@@ -6020,11 +6029,11 @@
       <c r="I33" s="62"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="107" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>3</v>
@@ -6048,7 +6057,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="68"/>
@@ -6058,11 +6067,11 @@
       <c r="I35" s="69"/>
     </row>
     <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="107" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>3</v>
@@ -6082,11 +6091,11 @@
       <c r="I36" s="62"/>
     </row>
     <row r="37" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>3</v>
@@ -6106,11 +6115,11 @@
       <c r="I37" s="62"/>
     </row>
     <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="58" t="s">
         <v>3</v>
@@ -6131,11 +6140,11 @@
       <c r="K38" s="75"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="107" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="59"/>
@@ -6152,11 +6161,11 @@
       <c r="K39" s="75"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="107" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="58" t="s">
         <v>3</v>
@@ -6176,11 +6185,11 @@
       <c r="I40" s="62"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="108" t="s">
+      <c r="B41" s="107" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>3</v>
@@ -6200,11 +6209,11 @@
       <c r="I41" s="62"/>
     </row>
     <row r="42" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="107" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>3</v>
@@ -6224,11 +6233,11 @@
       <c r="I42" s="76"/>
     </row>
     <row r="43" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="107" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="73"/>
       <c r="E43" s="59" t="s">
@@ -6248,11 +6257,11 @@
       <c r="I43" s="62"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="107" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D44" s="73"/>
       <c r="E44" s="59" t="s">
@@ -6272,11 +6281,11 @@
       <c r="I44" s="62"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="107" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" s="73"/>
       <c r="E45" s="59" t="s">
@@ -6296,11 +6305,11 @@
       <c r="I45" s="62"/>
     </row>
     <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="107" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46" s="73"/>
       <c r="E46" s="59" t="s">
@@ -6325,7 +6334,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D47" s="67"/>
       <c r="E47" s="68"/>
@@ -6335,11 +6344,11 @@
       <c r="I47" s="69"/>
     </row>
     <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="107" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>3</v>
@@ -6359,11 +6368,11 @@
       <c r="I48" s="62"/>
     </row>
     <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="107" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>3</v>
@@ -6383,11 +6392,11 @@
       <c r="I49" s="62"/>
     </row>
     <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>3</v>
@@ -6407,11 +6416,11 @@
       <c r="I50" s="78"/>
     </row>
     <row r="51" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="107" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D51" s="73"/>
       <c r="E51" s="59" t="s">
@@ -6431,11 +6440,11 @@
       <c r="I51" s="62"/>
     </row>
     <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="107" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D52" s="73"/>
       <c r="E52" s="59" t="s">
@@ -6455,11 +6464,11 @@
       <c r="I52" s="62"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="107" t="s">
         <v>105</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="59" t="s">
@@ -6483,7 +6492,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="68"/>
@@ -6493,11 +6502,11 @@
       <c r="I54" s="69"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="108" t="s">
+      <c r="B55" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D55" s="58" t="s">
         <v>3</v>
@@ -6517,11 +6526,11 @@
       <c r="I55" s="62"/>
     </row>
     <row r="56" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="108" t="s">
+      <c r="B56" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" s="58" t="s">
         <v>3</v>
@@ -6541,11 +6550,11 @@
       <c r="I56" s="62"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="107" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D57" s="58" t="s">
         <v>3</v>
@@ -6565,11 +6574,11 @@
       <c r="I57" s="62"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="108" t="s">
+      <c r="B58" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" s="58" t="s">
         <v>3</v>
@@ -6589,11 +6598,11 @@
       <c r="I58" s="62"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D59" s="58" t="s">
         <v>3</v>
@@ -6613,11 +6622,11 @@
       <c r="I59" s="62"/>
     </row>
     <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="107" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" s="58" t="s">
         <v>3</v>
@@ -6637,11 +6646,11 @@
       <c r="I60" s="62"/>
     </row>
     <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="108" t="s">
+      <c r="B61" s="107" t="s">
         <v>104</v>
       </c>
       <c r="C61" s="74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D61" s="58" t="s">
         <v>3</v>
@@ -6661,11 +6670,11 @@
       <c r="I61" s="62"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="108" t="s">
+      <c r="B62" s="107" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="58" t="s">
         <v>3</v>
@@ -6689,7 +6698,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D63" s="67"/>
       <c r="E63" s="68"/>
@@ -6699,11 +6708,11 @@
       <c r="I63" s="69"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="107" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D64" s="58" t="s">
         <v>3</v>
@@ -6723,11 +6732,11 @@
       <c r="I64" s="62"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="108" t="s">
+      <c r="B65" s="107" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D65" s="58" t="s">
         <v>3</v>
@@ -6747,11 +6756,11 @@
       <c r="I65" s="62"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="108" t="s">
+      <c r="B66" s="107" t="s">
         <v>57</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D66" s="58" t="s">
         <v>3</v>
@@ -6771,11 +6780,11 @@
       <c r="I66" s="62"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="107" t="s">
         <v>58</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D67" s="58" t="s">
         <v>3</v>
@@ -6795,11 +6804,11 @@
       <c r="I67" s="62"/>
     </row>
     <row r="68" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="108" t="s">
+      <c r="B68" s="107" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D68" s="58" t="s">
         <v>3</v>
@@ -6819,11 +6828,11 @@
       <c r="I68" s="62"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="108" t="s">
+      <c r="B69" s="107" t="s">
         <v>35</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D69" s="58" t="s">
         <v>3</v>
@@ -6843,11 +6852,11 @@
       <c r="I69" s="62"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="108" t="s">
+      <c r="B70" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="58" t="s">
         <v>3</v>
@@ -6867,11 +6876,11 @@
       <c r="I70" s="62"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="107" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D71" s="58" t="s">
         <v>3</v>
@@ -6892,11 +6901,11 @@
       <c r="J71" s="80"/>
     </row>
     <row r="72" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="107" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D72" s="58" t="s">
         <v>3</v>
@@ -6957,7 +6966,7 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C77" s="61"/>
       <c r="D77" s="38"/>
@@ -6969,10 +6978,10 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="88" t="s">
         <v>277</v>
-      </c>
-      <c r="C78" s="88" t="s">
-        <v>278</v>
       </c>
       <c r="D78" s="38"/>
       <c r="E78" s="38"/>
@@ -6986,7 +6995,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -7000,7 +7009,7 @@
         <v>69</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
@@ -7014,7 +7023,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -7108,7 +7117,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B1" s="91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="38"/>
@@ -7129,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>38</v>
@@ -7138,7 +7147,7 @@
         <v>184</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="52" t="s">
         <v>186</v>
@@ -7147,7 +7156,7 @@
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="65"/>
       <c r="C4" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
@@ -7155,11 +7164,11 @@
       <c r="G4" s="69"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>3</v>
@@ -7177,11 +7186,11 @@
       <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="107" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" s="92" t="s">
         <v>3</v>
@@ -7200,11 +7209,11 @@
       <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="107" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>3</v>
@@ -7222,11 +7231,11 @@
       <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>3</v>
@@ -7244,11 +7253,11 @@
       <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="107" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>3</v>
@@ -7266,11 +7275,11 @@
       <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="107" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>3</v>
@@ -7288,11 +7297,11 @@
       <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="107" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>3</v>
@@ -7306,11 +7315,11 @@
       <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="107" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>3</v>
@@ -7324,11 +7333,11 @@
       <c r="G12" s="62"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="107" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>3</v>
@@ -7348,7 +7357,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="65"/>
       <c r="C14" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -7356,11 +7365,11 @@
       <c r="G14" s="69"/>
     </row>
     <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="108" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" s="92" t="s">
         <v>3</v>
@@ -7380,7 +7389,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="65"/>
       <c r="C16" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -7388,11 +7397,11 @@
       <c r="G16" s="69"/>
     </row>
     <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="107" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>3</v>
@@ -7410,11 +7419,11 @@
       <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="107" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="92" t="s">
         <v>3</v>
@@ -7453,7 +7462,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="38"/>
@@ -7463,10 +7472,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="88" t="s">
         <v>277</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>278</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -7478,7 +7487,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -7490,7 +7499,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -7502,7 +7511,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -7571,7 +7580,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B1" s="93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -7590,10 +7599,10 @@
       <c r="F3" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="H3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="52" t="s">
         <v>186</v>
       </c>
@@ -7613,7 +7622,7 @@
       <c r="I4" s="56"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -7633,7 +7642,7 @@
       <c r="I5" s="62"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="107" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -7653,7 +7662,7 @@
       <c r="I6" s="62"/>
     </row>
     <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="107" t="s">
         <v>111</v>
       </c>
       <c r="C7" s="57" t="s">
@@ -7673,7 +7682,7 @@
       <c r="I7" s="62"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -7693,7 +7702,7 @@
       <c r="I8" s="62"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="107" t="s">
         <v>109</v>
       </c>
       <c r="C9" s="57" t="s">
@@ -7713,7 +7722,7 @@
       <c r="I9" s="62"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="107" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -7733,7 +7742,7 @@
       <c r="I10" s="62"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="107" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="57" t="s">
@@ -7753,7 +7762,7 @@
       <c r="I11" s="62"/>
     </row>
     <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="107" t="s">
         <v>107</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -7773,7 +7782,7 @@
       <c r="I12" s="62"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="107" t="s">
         <v>106</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -7793,7 +7802,7 @@
       <c r="I13" s="62"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="107" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="57" t="s">
@@ -7827,7 +7836,7 @@
       <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="57" t="s">
@@ -7851,7 +7860,7 @@
       <c r="I16" s="62"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="107" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="57" t="s">
@@ -7871,7 +7880,7 @@
       <c r="I17" s="62"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="107" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="57" t="s">
@@ -7895,7 +7904,7 @@
       <c r="I18" s="62"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="107" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="57" t="s">
@@ -7919,7 +7928,7 @@
       <c r="I19" s="62"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="57" t="s">
@@ -7943,7 +7952,7 @@
       <c r="I20" s="62"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="107" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="57" t="s">
@@ -7967,7 +7976,7 @@
       <c r="I21" s="62"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="107" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="57" t="s">
@@ -7991,7 +8000,7 @@
       <c r="I22" s="62"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="107" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="57" t="s">
@@ -8015,11 +8024,11 @@
       <c r="I23" s="62"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="107" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>207</v>
+        <v>301</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="59" t="s">
@@ -8039,11 +8048,11 @@
       <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="59" t="s">
@@ -8063,11 +8072,11 @@
       <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="107" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="59" t="s">
@@ -8088,11 +8097,11 @@
       <c r="J26" s="96"/>
     </row>
     <row r="27" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="107" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="59" t="s">
@@ -8101,12 +8110,12 @@
       <c r="F27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="97" t="str">
-        <f>HYPERLINK(CONCATENATE(
-BASE_URL,
-"0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
-"Testing Local Authentication")</f>
-        <v>Testing Local Authentication</v>
+      <c r="G27" s="70" t="str">
+        <f>HYPERLINK(CONCATENATE(
+BASE_URL,
+"0x04i-Testing-user-interaction.md#testing-user-education"),
+"Testing user education")</f>
+        <v>Testing user education</v>
       </c>
       <c r="H27" s="74"/>
       <c r="I27" s="62"/>
@@ -8117,7 +8126,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="68"/>
@@ -8127,11 +8136,11 @@
       <c r="I28" s="69"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="107" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>3</v>
@@ -8151,11 +8160,11 @@
       <c r="I29" s="62"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="107" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>3</v>
@@ -8175,11 +8184,11 @@
       <c r="I30" s="62"/>
     </row>
     <row r="31" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>3</v>
@@ -8199,11 +8208,11 @@
       <c r="I31" s="62"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="107" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>3</v>
@@ -8223,11 +8232,11 @@
       <c r="I32" s="62"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="107" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D33" s="58" t="s">
         <v>3</v>
@@ -8247,11 +8256,11 @@
       <c r="I33" s="62"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="107" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>3</v>
@@ -8275,7 +8284,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="68"/>
@@ -8285,11 +8294,11 @@
       <c r="I35" s="69"/>
     </row>
     <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="107" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>3</v>
@@ -8309,11 +8318,11 @@
       <c r="I36" s="62"/>
     </row>
     <row r="37" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="107" t="s">
         <v>44</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>3</v>
@@ -8333,11 +8342,11 @@
       <c r="I37" s="62"/>
     </row>
     <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="58" t="s">
         <v>3</v>
@@ -8357,11 +8366,11 @@
       <c r="I38" s="62"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="107" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="59"/>
@@ -8379,11 +8388,11 @@
       <c r="K39" s="75"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="107" t="s">
         <v>24</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="58" t="s">
         <v>3</v>
@@ -8404,11 +8413,11 @@
       <c r="K40" s="75"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="108" t="s">
+      <c r="B41" s="107" t="s">
         <v>46</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>3</v>
@@ -8428,11 +8437,11 @@
       <c r="I41" s="62"/>
     </row>
     <row r="42" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="107" t="s">
         <v>47</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>3</v>
@@ -8448,15 +8457,15 @@
 "Testing the Session Timeout")</f>
         <v>Testing the Session Timeout</v>
       </c>
-      <c r="H42" s="98"/>
+      <c r="H42" s="97"/>
       <c r="I42" s="76"/>
     </row>
     <row r="43" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="107" t="s">
         <v>25</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D43" s="73"/>
       <c r="E43" s="59" t="s">
@@ -8476,11 +8485,11 @@
       <c r="I43" s="62"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="107" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D44" s="73"/>
       <c r="E44" s="59" t="s">
@@ -8500,11 +8509,11 @@
       <c r="I44" s="62"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="107" t="s">
         <v>27</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D45" s="73"/>
       <c r="E45" s="59" t="s">
@@ -8524,11 +8533,11 @@
       <c r="I45" s="62"/>
     </row>
     <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="107" t="s">
         <v>91</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D46" s="73"/>
       <c r="E46" s="59" t="s">
@@ -8552,7 +8561,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D47" s="67"/>
       <c r="E47" s="68"/>
@@ -8562,11 +8571,11 @@
       <c r="I47" s="69"/>
     </row>
     <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="107" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>3</v>
@@ -8592,11 +8601,11 @@
       <c r="I48" s="78"/>
     </row>
     <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="107" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>3</v>
@@ -8622,11 +8631,11 @@
       <c r="I49" s="78"/>
     </row>
     <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="107" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>3</v>
@@ -8646,11 +8655,11 @@
       <c r="I50" s="78"/>
     </row>
     <row r="51" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="107" t="s">
         <v>49</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D51" s="73"/>
       <c r="E51" s="59" t="s">
@@ -8670,11 +8679,11 @@
       <c r="I51" s="62"/>
     </row>
     <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="107" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D52" s="73"/>
       <c r="E52" s="59" t="s">
@@ -8694,11 +8703,11 @@
       <c r="I52" s="62"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="107" t="s">
         <v>105</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="59" t="s">
@@ -8722,7 +8731,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="68"/>
@@ -8732,11 +8741,11 @@
       <c r="I54" s="69"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="108" t="s">
+      <c r="B55" s="107" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D55" s="58" t="s">
         <v>3</v>
@@ -8756,11 +8765,11 @@
       <c r="I55" s="62"/>
     </row>
     <row r="56" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="108" t="s">
+      <c r="B56" s="107" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D56" s="58" t="s">
         <v>3</v>
@@ -8780,11 +8789,11 @@
       <c r="I56" s="62"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="107" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D57" s="58" t="s">
         <v>3</v>
@@ -8804,11 +8813,11 @@
       <c r="I57" s="62"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="108" t="s">
+      <c r="B58" s="107" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D58" s="58" t="s">
         <v>3</v>
@@ -8828,11 +8837,11 @@
       <c r="I58" s="62"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="107" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="74" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D59" s="58" t="s">
         <v>3</v>
@@ -8852,11 +8861,11 @@
       <c r="I59" s="62"/>
     </row>
     <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="107" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D60" s="58" t="s">
         <v>3</v>
@@ -8876,11 +8885,11 @@
       <c r="I60" s="62"/>
     </row>
     <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="108" t="s">
+      <c r="B61" s="107" t="s">
         <v>104</v>
       </c>
       <c r="C61" s="74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D61" s="58" t="s">
         <v>3</v>
@@ -8900,11 +8909,11 @@
       <c r="I61" s="62"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="108" t="s">
+      <c r="B62" s="107" t="s">
         <v>103</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="58" t="s">
         <v>3</v>
@@ -8928,7 +8937,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D63" s="67"/>
       <c r="E63" s="68"/>
@@ -8938,11 +8947,11 @@
       <c r="I63" s="69"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="107" t="s">
         <v>56</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D64" s="58" t="s">
         <v>3</v>
@@ -8962,11 +8971,11 @@
       <c r="I64" s="62"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="108" t="s">
+      <c r="B65" s="107" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D65" s="58" t="s">
         <v>3</v>
@@ -8986,11 +8995,11 @@
       <c r="I65" s="62"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="108" t="s">
+      <c r="B66" s="107" t="s">
         <v>57</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D66" s="58" t="s">
         <v>3</v>
@@ -9010,11 +9019,11 @@
       <c r="I66" s="62"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="107" t="s">
         <v>58</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D67" s="58" t="s">
         <v>3</v>
@@ -9034,11 +9043,11 @@
       <c r="I67" s="62"/>
     </row>
     <row r="68" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="108" t="s">
+      <c r="B68" s="107" t="s">
         <v>59</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D68" s="58" t="s">
         <v>3</v>
@@ -9058,11 +9067,11 @@
       <c r="I68" s="62"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="108" t="s">
+      <c r="B69" s="107" t="s">
         <v>35</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D69" s="58" t="s">
         <v>3</v>
@@ -9082,11 +9091,11 @@
       <c r="I69" s="62"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="108" t="s">
+      <c r="B70" s="107" t="s">
         <v>36</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70" s="58" t="s">
         <v>3</v>
@@ -9106,11 +9115,11 @@
       <c r="I70" s="62"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="107" t="s">
         <v>37</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D71" s="58" t="s">
         <v>3</v>
@@ -9130,11 +9139,11 @@
       <c r="I71" s="62"/>
     </row>
     <row r="72" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="107" t="s">
         <v>93</v>
       </c>
       <c r="C72" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D72" s="58" t="s">
         <v>3</v>
@@ -9160,146 +9169,146 @@
       <c r="E73" s="83"/>
       <c r="F73" s="83"/>
       <c r="G73" s="82"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="100"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="99"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="101"/>
-      <c r="C74" s="102"/>
+      <c r="B74" s="100"/>
+      <c r="C74" s="101"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
       <c r="F74" s="28"/>
-      <c r="G74" s="102"/>
+      <c r="G74" s="101"/>
       <c r="H74" s="61"/>
-      <c r="I74" s="102"/>
+      <c r="I74" s="101"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="101"/>
-      <c r="C75" s="102"/>
+      <c r="B75" s="100"/>
+      <c r="C75" s="101"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
       <c r="F75" s="28"/>
-      <c r="G75" s="98"/>
+      <c r="G75" s="97"/>
       <c r="H75" s="61"/>
-      <c r="I75" s="102"/>
+      <c r="I75" s="101"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="101"/>
-      <c r="C76" s="102"/>
+      <c r="B76" s="100"/>
+      <c r="C76" s="101"/>
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
-      <c r="G76" s="102"/>
+      <c r="G76" s="101"/>
       <c r="H76" s="61"/>
-      <c r="I76" s="102"/>
+      <c r="I76" s="101"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="C77" s="102"/>
+      <c r="B77" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="101"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
       <c r="F77" s="28"/>
-      <c r="G77" s="102"/>
+      <c r="G77" s="101"/>
       <c r="H77" s="61"/>
-      <c r="I77" s="102"/>
+      <c r="I77" s="101"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" s="88" t="s">
         <v>277</v>
-      </c>
-      <c r="C78" s="88" t="s">
-        <v>278</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
       <c r="F78" s="28"/>
-      <c r="G78" s="102"/>
+      <c r="G78" s="101"/>
       <c r="H78" s="61"/>
-      <c r="I78" s="102"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="89" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
       <c r="F79" s="28"/>
-      <c r="G79" s="102"/>
+      <c r="G79" s="101"/>
       <c r="H79" s="61"/>
-      <c r="I79" s="102"/>
+      <c r="I79" s="101"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="89" t="s">
         <v>69</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
       <c r="F80" s="28"/>
-      <c r="G80" s="102"/>
+      <c r="G80" s="101"/>
       <c r="H80" s="61"/>
-      <c r="I80" s="102"/>
+      <c r="I80" s="101"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="89" t="s">
         <v>64</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
       <c r="F81" s="28"/>
-      <c r="G81" s="102"/>
+      <c r="G81" s="101"/>
       <c r="H81" s="61"/>
-      <c r="I81" s="102"/>
+      <c r="I81" s="101"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="101"/>
-      <c r="C82" s="102"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="101"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
       <c r="F82" s="28"/>
-      <c r="G82" s="102"/>
+      <c r="G82" s="101"/>
       <c r="H82" s="61"/>
-      <c r="I82" s="102"/>
+      <c r="I82" s="101"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="101"/>
-      <c r="C83" s="102"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="101"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
       <c r="F83" s="28"/>
-      <c r="G83" s="102"/>
+      <c r="G83" s="101"/>
       <c r="H83" s="61"/>
-      <c r="I83" s="102"/>
+      <c r="I83" s="101"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="101"/>
-      <c r="C84" s="102"/>
+      <c r="B84" s="100"/>
+      <c r="C84" s="101"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
-      <c r="G84" s="102"/>
+      <c r="G84" s="101"/>
       <c r="H84" s="61"/>
-      <c r="I84" s="102"/>
+      <c r="I84" s="101"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="101"/>
-      <c r="C85" s="102"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="101"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
-      <c r="G85" s="102"/>
+      <c r="G85" s="101"/>
       <c r="H85" s="61"/>
-      <c r="I85" s="102"/>
+      <c r="I85" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9324,11 +9333,8 @@
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G27" r:id="rId1" location="testing-user-education" display="https://github.com/OWASP/owasp-mstg/blob/1.1.0/Document/0x04i-Testing-user-interaction.md - testing-user-education" xr:uid="{3C190139-796B-A245-B60E-3DEAEE40B5CA}"/>
-  </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="46" max="16383" man="1"/>
   </rowBreaks>
@@ -9351,26 +9357,26 @@
     <col min="3" max="3" width="93.1640625" style="94" customWidth="1"/>
     <col min="4" max="4" width="2.9140625" style="19" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="42.4140625" style="102" customWidth="1"/>
+    <col min="6" max="6" width="42.4140625" style="101" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="94" customWidth="1"/>
     <col min="8" max="16384" width="10.9140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B1" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" s="102"/>
+        <v>282</v>
+      </c>
+      <c r="G1" s="101"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="G2" s="102"/>
+      <c r="G2" s="101"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>38</v>
@@ -9379,16 +9385,16 @@
         <v>184</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="65"/>
       <c r="C4" s="66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
@@ -9396,11 +9402,11 @@
       <c r="G4" s="69"/>
     </row>
     <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="107" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>3</v>
@@ -9418,11 +9424,11 @@
       <c r="G5" s="62"/>
     </row>
     <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="107" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6" s="92" t="s">
         <v>3</v>
@@ -9440,11 +9446,11 @@
       <c r="G6" s="62"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="107" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>3</v>
@@ -9462,11 +9468,11 @@
       <c r="G7" s="62"/>
     </row>
     <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="107" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>3</v>
@@ -9480,11 +9486,11 @@
       <c r="G8" s="62"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="107" t="s">
         <v>117</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>3</v>
@@ -9498,11 +9504,11 @@
       <c r="G9" s="62"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="107" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>3</v>
@@ -9516,11 +9522,11 @@
       <c r="G10" s="62"/>
     </row>
     <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="107" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>3</v>
@@ -9534,11 +9540,11 @@
       <c r="G11" s="62"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="107" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>3</v>
@@ -9552,11 +9558,11 @@
       <c r="G12" s="62"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="107" t="s">
         <v>95</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>3</v>
@@ -9572,7 +9578,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="65"/>
       <c r="C14" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -9580,11 +9586,11 @@
       <c r="G14" s="69"/>
     </row>
     <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="108" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" s="92" t="s">
         <v>3</v>
@@ -9604,7 +9610,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="65"/>
       <c r="C16" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -9612,11 +9618,11 @@
       <c r="G16" s="69"/>
     </row>
     <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="107" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>3</v>
@@ -9630,11 +9636,11 @@
       <c r="G17" s="62"/>
     </row>
     <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="107" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="92" t="s">
         <v>3</v>
@@ -9656,108 +9662,108 @@
       <c r="G19" s="84"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="G20" s="102"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
-      <c r="G21" s="102"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="103" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="102"/>
+      <c r="B22" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="C22" s="101"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
-      <c r="G22" s="102"/>
+      <c r="G22" s="101"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="88" t="s">
         <v>277</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>278</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
-      <c r="G23" s="102"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="89" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="G24" s="102"/>
+      <c r="G24" s="101"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="89" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
-      <c r="G25" s="102"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="89" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
-      <c r="G26" s="102"/>
+      <c r="G26" s="101"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="101"/>
-      <c r="C27" s="102"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
-      <c r="G27" s="102"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="101"/>
-      <c r="C28" s="102"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
-      <c r="G28" s="102"/>
+      <c r="G28" s="101"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="G29" s="102"/>
+      <c r="G29" s="101"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="101"/>
-      <c r="C31" s="102"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="28"/>
       <c r="E32" s="28"/>
     </row>
@@ -9818,9 +9824,9 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="84" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -9832,10 +9838,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="156" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="156"/>
       <c r="C1" s="10"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10127,16 +10133,16 @@
         <v>124</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="110" t="s">
         <v>288</v>
-      </c>
-      <c r="C20" s="157" t="s">
-        <v>289</v>
       </c>
       <c r="D20" s="14">
         <v>43641</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10144,16 +10150,50 @@
         <v>124</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" s="157" t="s">
-        <v>100</v>
+        <v>290</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>288</v>
       </c>
       <c r="D21" s="14">
         <v>43642</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="14">
+        <v>43649</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="14">
+        <v>43672</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -10171,7 +10211,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -10186,78 +10226,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="157" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="109"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="104">
+        <v>43402</v>
+      </c>
+      <c r="E3" s="105" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="110"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="106" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="107" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="105">
-        <v>43402</v>
-      </c>
-      <c r="E3" s="106" t="s">
+      <c r="B4" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="104">
+        <v>43590</v>
+      </c>
+      <c r="E4" s="105" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="106" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="107" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="105">
-        <v>43590</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="106" t="s">
+      <c r="C5" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="104">
+        <v>43643</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B6" s="106" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="107" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="105">
-        <v>43643</v>
-      </c>
-      <c r="E5" s="106" t="s">
-        <v>298</v>
+      <c r="C6" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="104">
+        <v>43673</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-ja-20181106-2139X\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/razr/Documents/workspace/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CECD5-AED2-4321-B39B-DAFC3AAD2D7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00895869-B657-7442-AA6B-4324FC8FAE08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="72" windowWidth="22020" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="23980" windowHeight="15900" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -27,14 +27,14 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Security Requirements - Android'!$B$3:$I$72</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Security Requirements - Android'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Security Requirements - iOS'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Version history'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Version history (Japanese)'!$1:$2</definedName>
     <definedName name="BASE_URL">Dashboard!$D$14</definedName>
     <definedName name="MASVS_VERSION" localSheetId="7">[1]Dashboard!$D$11</definedName>
     <definedName name="MASVS_VERSION">Dashboard!$D$11</definedName>
     <definedName name="MSTG_VERSION">Dashboard!$D$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Security Requirements - Android'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Security Requirements - iOS'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">'Version history'!$1:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">'Version history (Japanese)'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="305">
   <si>
     <t>ID</t>
   </si>
@@ -594,7 +594,7 @@
     <r>
       <rPr>
         <sz val="14"/>
-        <rFont val="メイリオ"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1726,7 +1726,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="メイリオ"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1736,7 +1736,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="メイリオ"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1800,19 +1800,25 @@
     <t>translate ver. 1.1.1.3 into Japanese</t>
     <phoneticPr fontId="12"/>
   </si>
+  <si>
+    <t>Ensure that tiles are in sync on Excel and MSTG</t>
+  </si>
+  <si>
+    <t>Jeroen Willemsen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1820,7 +1826,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1828,7 +1834,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1853,7 +1859,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1866,7 +1872,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1890,7 +1896,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1898,7 +1904,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1906,14 +1912,14 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1921,14 +1927,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1937,7 +1943,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1945,7 +1951,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1953,7 +1959,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1962,7 +1968,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1971,7 +1977,7 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1979,7 +1985,7 @@
     <font>
       <sz val="72"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1988,7 +1994,7 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1997,7 +2003,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2006,7 +2012,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2015,14 +2021,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2030,7 +2036,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2040,7 +2046,7 @@
       <i/>
       <u/>
       <sz val="11"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2049,7 +2055,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2057,7 +2063,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2066,7 +2072,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2075,7 +2081,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2084,7 +2090,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2693,7 +2699,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2909,76 +2915,88 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3017,18 +3035,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3046,69 +3052,69 @@
     </xf>
   </cellXfs>
   <cellStyles count="63">
+    <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="62" xr:uid="{34BD3A51-AA52-F643-9E6A-B40E3FA0D56F}"/>
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="表示済みのハイパーリンク" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -3214,7 +3220,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3232,7 +3238,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" u="sng"/>
+              <a:defRPr lang="ja-JP" b="1" u="sng"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" b="1" u="sng"/>
@@ -3406,9 +3412,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918959216"/>
@@ -3452,9 +3458,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918956896"/>
@@ -3487,6 +3493,16 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3514,7 +3530,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3528,7 +3544,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3546,7 +3562,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" u="sng"/>
+              <a:defRPr lang="ja-JP" b="1" u="sng"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" b="1" u="sng"/>
@@ -3714,9 +3730,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920829984"/>
@@ -3760,9 +3776,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="ja-JP"/>
             </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920827664"/>
@@ -3795,6 +3811,16 @@
           <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3822,7 +3848,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4327,83 +4353,83 @@
   </sheetPr>
   <dimension ref="B1:D50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.9140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="19"/>
     <col min="3" max="3" width="13.6640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="70.58203125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="70.5" style="19" customWidth="1"/>
     <col min="5" max="16384" width="8.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="123" t="s">
+    <row r="1" spans="2:4" ht="8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="126"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
-    </row>
-    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="132" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="121"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
+    </row>
+    <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="117" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="23" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="117" t="s">
+    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B12" s="112" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="118"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="111" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -4412,20 +4438,20 @@
         <v>https://github.com/OWASP/owasp-masvs/blob/1.1.4/Document/</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="117" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="112" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="118"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="117" t="s">
+    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="118"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="111" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -4434,267 +4460,264 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.2/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="133" t="s">
+    <row r="15" spans="2:4" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="135"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="117" t="s">
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="23"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="112" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="122"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="117" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="118"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="23"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="117" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="118"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="117" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="118"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="23"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="117" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="118"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="117" t="s">
+    <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="118"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
         <v>153</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="117" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="118"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="23"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="117" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="118"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="23"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="117" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="118"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="121" t="s">
+    <row r="29" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="118"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="23"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="24" t="s">
         <v>153</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="117" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="118"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="23"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="117" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="118"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="117" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="112" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="118"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="121" t="s">
+    <row r="36" spans="2:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="118"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="23"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="120"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="112" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="131"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="133"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="113"/>
+      <c r="C40" s="134"/>
       <c r="D40" s="26"/>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="112" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="113"/>
+      <c r="C41" s="134"/>
       <c r="D41" s="26"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="112" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="113"/>
+      <c r="C42" s="134"/>
       <c r="D42" s="26"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="112" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="113"/>
+      <c r="C43" s="134"/>
       <c r="D43" s="27"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="112" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="113"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="26"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="116"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="112" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="131"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="133"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="113"/>
+      <c r="C46" s="134"/>
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="112" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="113"/>
+      <c r="C47" s="134"/>
       <c r="D47" s="26"/>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="112" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="113"/>
+      <c r="C48" s="134"/>
       <c r="D48" s="26"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="112" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="113"/>
+      <c r="C49" s="134"/>
       <c r="D49" s="27"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="112" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="113"/>
+      <c r="C50" s="134"/>
       <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4709,16 +4732,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4736,18 +4762,18 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5" style="28" customWidth="1"/>
-    <col min="2" max="2" width="9.4140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="35.58203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="35.5" style="28" customWidth="1"/>
     <col min="4" max="11" width="9" style="28" customWidth="1"/>
     <col min="12" max="21" width="4.6640625" style="28" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
         <v>167</v>
@@ -4756,204 +4782,204 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-    </row>
-    <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+    </row>
+    <row r="5" spans="2:24" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
       <c r="F5" s="32"/>
     </row>
-    <row r="6" spans="2:24" ht="19.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:24" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="146" t="s">
+      <c r="G6" s="150" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="V6" s="146" t="s">
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="V6" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="147"/>
-      <c r="X6" s="148"/>
-    </row>
-    <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="W6" s="151"/>
+      <c r="X6" s="152"/>
+    </row>
+    <row r="7" spans="2:24" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="137">
+      <c r="G8" s="141">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
-      <c r="V8" s="137">
+      <c r="H8" s="142"/>
+      <c r="I8" s="143"/>
+      <c r="V8" s="141">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="138"/>
-      <c r="X8" s="139"/>
-    </row>
-    <row r="9" spans="2:24" ht="91.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="W8" s="142"/>
+      <c r="X8" s="143"/>
+    </row>
+    <row r="9" spans="2:24" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="142"/>
-    </row>
-    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="146"/>
+    </row>
+    <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="142"/>
-    </row>
-    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="146"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="146"/>
+    </row>
+    <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="145"/>
-    </row>
-    <row r="12" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.5">
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="149"/>
+    </row>
+    <row r="12" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
     </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
     </row>
-    <row r="16" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
       <c r="F17" s="35"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
       <c r="D18" s="36"/>
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="38"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="38"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" s="38"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="38"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C27" s="38"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C28" s="38"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C29" s="38"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C30" s="38"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="38"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C32" s="38"/>
     </row>
-    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="D41" s="150" t="s">
+    <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D41" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="150" t="s">
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="152"/>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.5">
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="139"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D42" s="39" t="s">
         <v>70</v>
       </c>
@@ -4979,7 +5005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C43" s="40" t="s">
         <v>169</v>
       </c>
@@ -5016,7 +5042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C44" s="40" t="s">
         <v>170</v>
       </c>
@@ -5053,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C45" s="40" t="s">
         <v>171</v>
       </c>
@@ -5090,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C46" s="40" t="s">
         <v>172</v>
       </c>
@@ -5127,7 +5153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C47" s="40" t="s">
         <v>173</v>
       </c>
@@ -5164,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C48" s="40" t="s">
         <v>174</v>
       </c>
@@ -5201,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="40" t="s">
         <v>175</v>
       </c>
@@ -5238,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="40" t="s">
         <v>176</v>
       </c>
@@ -5277,6 +5303,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -5284,8 +5312,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <conditionalFormatting sqref="F14">
@@ -5329,24 +5355,26 @@
   </sheetPr>
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="D3" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5" style="46" customWidth="1"/>
-    <col min="2" max="2" width="7.9140625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="47" customWidth="1"/>
     <col min="3" max="3" width="97.1640625" style="48" customWidth="1"/>
-    <col min="4" max="5" width="6.58203125" style="46" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="46" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" style="46" customWidth="1"/>
     <col min="7" max="7" width="60.1640625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="63.58203125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="63.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="10.9140625" style="46"/>
+    <col min="10" max="10" width="10.83203125" style="46"/>
     <col min="11" max="12" width="10.6640625" style="46" customWidth="1"/>
-    <col min="13" max="16384" width="10.9140625" style="46"/>
+    <col min="13" max="16384" width="10.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:9" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="153" t="s">
         <v>180</v>
       </c>
@@ -5358,7 +5386,7 @@
       <c r="H1" s="153"/>
       <c r="I1" s="153"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
@@ -5382,7 +5410,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
@@ -5396,7 +5424,7 @@
       <c r="H4" s="54"/>
       <c r="I4" s="56"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>2</v>
       </c>
@@ -5416,7 +5444,7 @@
       <c r="H5" s="61"/>
       <c r="I5" s="62"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>112</v>
       </c>
@@ -5436,7 +5464,7 @@
       <c r="H6" s="61"/>
       <c r="I6" s="62"/>
     </row>
-    <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>111</v>
       </c>
@@ -5456,7 +5484,7 @@
       <c r="H7" s="61"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>110</v>
       </c>
@@ -5476,7 +5504,7 @@
       <c r="H8" s="61"/>
       <c r="I8" s="62"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="107" t="s">
         <v>109</v>
       </c>
@@ -5496,7 +5524,7 @@
       <c r="H9" s="61"/>
       <c r="I9" s="62"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="107" t="s">
         <v>108</v>
       </c>
@@ -5516,7 +5544,7 @@
       <c r="H10" s="61"/>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="107" t="s">
         <v>4</v>
       </c>
@@ -5536,7 +5564,7 @@
       <c r="H11" s="61"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="107" t="s">
         <v>107</v>
       </c>
@@ -5556,7 +5584,7 @@
       <c r="H12" s="61"/>
       <c r="I12" s="62"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="107" t="s">
         <v>106</v>
       </c>
@@ -5576,7 +5604,7 @@
       <c r="H13" s="61"/>
       <c r="I13" s="62"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="108" t="s">
         <v>5</v>
       </c>
@@ -5596,7 +5624,7 @@
       <c r="H14" s="61"/>
       <c r="I14" s="62"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="65" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5638,7 @@
       <c r="H15" s="66"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="107" t="s">
         <v>7</v>
       </c>
@@ -5628,13 +5656,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="62"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="107" t="s">
         <v>39</v>
       </c>
@@ -5648,13 +5676,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
       </c>
       <c r="H17" s="71"/>
       <c r="I17" s="72"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>40</v>
       </c>
@@ -5672,13 +5700,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),
-"Testing For Sensitive Data in Logs")</f>
-        <v>Testing For Sensitive Data in Logs</v>
+"Testing Logs for Sensitive Data")</f>
+        <v>Testing Logs for Sensitive Data</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="62"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
         <v>8</v>
       </c>
@@ -5696,13 +5724,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
-"Testing Whether Sensitive Data Is Sent To Third Parties")</f>
-        <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
+"Determining Whether Sensitive Data is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data is Sent to Third Parties</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
         <v>41</v>
       </c>
@@ -5720,13 +5748,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),
-"Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
-        <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
+        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="62"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>9</v>
       </c>
@@ -5744,13 +5772,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),
-"Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
-        <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="62"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
         <v>10</v>
       </c>
@@ -5768,13 +5796,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),
-"Testing for Sensitive Data Disclosure Through the User Interface")</f>
-        <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
+"Checking for Sensitive Data Disclosure Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosure Through the User Interface</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="62"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
         <v>11</v>
       </c>
@@ -5792,13 +5820,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
-"Testing for Sensitive Data in Backups")</f>
-        <v>Testing for Sensitive Data in Backups</v>
+"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="62"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="107" t="s">
         <v>12</v>
       </c>
@@ -5816,13 +5844,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),
-"Testing for Sensitive Information in Auto-Generated Screenshots")</f>
-        <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
+"Finding Sensitive Information in Auto-Generated Screenshots")</f>
+        <v>Finding Sensitive Information in Auto-Generated Screenshots</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="62"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B25" s="107" t="s">
         <v>42</v>
       </c>
@@ -5840,13 +5868,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),
-"Testing for Sensitive Data in Memory")</f>
-        <v>Testing for Sensitive Data in Memory</v>
+"Checking Memory for Sensitive Data")</f>
+        <v>Checking Memory for Sensitive Data</v>
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="62"/>
     </row>
-    <row r="26" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="107" t="s">
         <v>43</v>
       </c>
@@ -5870,7 +5898,7 @@
       <c r="H26" s="70"/>
       <c r="I26" s="62"/>
     </row>
-    <row r="27" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" s="107" t="s">
         <v>13</v>
       </c>
@@ -5888,13 +5916,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04i-Testing-user-interaction.md#testing-user-education"),
-"Testing user education")</f>
-        <v>Testing user education</v>
+"Testing User Education")</f>
+        <v>Testing User Education</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="62"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
@@ -5908,7 +5936,7 @@
       <c r="H28" s="66"/>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
         <v>15</v>
       </c>
@@ -5926,13 +5954,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="62"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="107" t="s">
         <v>16</v>
       </c>
@@ -5950,13 +5978,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),
-"Testing for Custom Implementations of Cryptography")</f>
-        <v>Testing for Custom Implementations of Cryptography</v>
+"Cryptography for Mobile Apps")</f>
+        <v>Cryptography for Mobile Apps</v>
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
         <v>17</v>
       </c>
@@ -5980,7 +6008,7 @@
       <c r="H31" s="70"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
         <v>18</v>
       </c>
@@ -5998,13 +6026,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
-"Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
+"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
       <c r="H32" s="70"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
         <v>19</v>
       </c>
@@ -6022,13 +6050,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
         <v>20</v>
       </c>
@@ -6052,7 +6080,7 @@
       <c r="H34" s="70"/>
       <c r="I34" s="62"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="65" t="s">
         <v>21</v>
       </c>
@@ -6066,7 +6094,7 @@
       <c r="H35" s="66"/>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="107" t="s">
         <v>22</v>
       </c>
@@ -6084,13 +6112,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
-"Verifying that Users Are Properly Authenticated")</f>
-        <v>Verifying that Users Are Properly Authenticated</v>
+"Testing Authentication")</f>
+        <v>Testing Authentication</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="62"/>
     </row>
-    <row r="37" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="107" t="s">
         <v>44</v>
       </c>
@@ -6114,7 +6142,7 @@
       <c r="H37" s="70"/>
       <c r="I37" s="62"/>
     </row>
-    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="107" t="s">
         <v>45</v>
       </c>
@@ -6132,14 +6160,14 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
-"Testing Stateless Authentication")</f>
-        <v>Testing Stateless Authentication</v>
+"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="62"/>
       <c r="K38" s="75"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="107" t="s">
         <v>23</v>
       </c>
@@ -6153,14 +6181,14 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
-"Testing the Logout Functionality")</f>
-        <v>Testing the Logout Functionality</v>
+"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
       </c>
       <c r="H39" s="70"/>
       <c r="I39" s="62"/>
       <c r="K39" s="75"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="107" t="s">
         <v>24</v>
       </c>
@@ -6178,13 +6206,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
-"Testing the Password Policy")</f>
-        <v>Testing the Password Policy</v>
+"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
       </c>
       <c r="H40" s="70"/>
       <c r="I40" s="62"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="107" t="s">
         <v>46</v>
       </c>
@@ -6202,13 +6230,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
-"Testing Excessive Login Attempts")</f>
-        <v>Testing Excessive Login Attempts</v>
+"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="62"/>
     </row>
-    <row r="42" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" s="107" t="s">
         <v>47</v>
       </c>
@@ -6226,13 +6254,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
-"Testing the Session Timeout")</f>
-        <v>Testing the Session Timeout</v>
+"Session Timeout")</f>
+        <v>Session Timeout</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="76"/>
     </row>
-    <row r="43" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B43" s="107" t="s">
         <v>25</v>
       </c>
@@ -6256,7 +6284,7 @@
       <c r="H43" s="70"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B44" s="107" t="s">
         <v>26</v>
       </c>
@@ -6274,13 +6302,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
-"Testing 2-Factor Authentication")</f>
-        <v>Testing 2-Factor Authentication</v>
+"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="62"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="107" t="s">
         <v>27</v>
       </c>
@@ -6298,13 +6326,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
-"Testing Step-up Authentication")</f>
-        <v>Testing Step-up Authentication</v>
+"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
       <c r="H45" s="70"/>
       <c r="I45" s="62"/>
     </row>
-    <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:11" ht="48" x14ac:dyDescent="0.2">
       <c r="B46" s="107" t="s">
         <v>91</v>
       </c>
@@ -6323,13 +6351,13 @@
 CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Testing Login Activity and Device Blocking")</f>
-        <v>Testing Login Activity and Device Blocking</v>
+"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="65" t="s">
         <v>28</v>
       </c>
@@ -6343,7 +6371,7 @@
       <c r="H47" s="66"/>
       <c r="I47" s="69"/>
     </row>
-    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B48" s="107" t="s">
         <v>29</v>
       </c>
@@ -6361,13 +6389,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
-"Testing for Unencrypted Sensitive Data on the Network")</f>
-        <v>Testing for Unencrypted Sensitive Data on the Network</v>
+"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
       </c>
       <c r="H48" s="70"/>
       <c r="I48" s="62"/>
     </row>
-    <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B49" s="107" t="s">
         <v>48</v>
       </c>
@@ -6385,13 +6413,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
-"Verifying the TLS Settings")</f>
-        <v>Verifying the TLS Settings</v>
+"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
       </c>
       <c r="H49" s="70"/>
       <c r="I49" s="62"/>
     </row>
-    <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B50" s="107" t="s">
         <v>30</v>
       </c>
@@ -6415,7 +6443,7 @@
       <c r="H50" s="77"/>
       <c r="I50" s="78"/>
     </row>
-    <row r="51" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B51" s="107" t="s">
         <v>49</v>
       </c>
@@ -6433,13 +6461,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and SSL Pinning")</f>
-        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="107" t="s">
         <v>31</v>
       </c>
@@ -6457,13 +6485,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Verifying that Critical Operations Use Secure Communication Channels")</f>
-        <v>Verifying that Critical Operations Use Secure Communication Channels</v>
+"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
       <c r="H52" s="70"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="107" t="s">
         <v>105</v>
       </c>
@@ -6481,13 +6509,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-the-security-provider"),
-"Verifying the Security Provider")</f>
-        <v>Verifying the Security Provider</v>
+"Testing the Security Provider")</f>
+        <v>Testing the Security Provider</v>
       </c>
       <c r="H53" s="70"/>
       <c r="I53" s="62"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="65" t="s">
         <v>32</v>
       </c>
@@ -6501,7 +6529,7 @@
       <c r="H54" s="66"/>
       <c r="I54" s="69"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
         <v>50</v>
       </c>
@@ -6525,7 +6553,7 @@
       <c r="H55" s="70"/>
       <c r="I55" s="62"/>
     </row>
-    <row r="56" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B56" s="107" t="s">
         <v>51</v>
       </c>
@@ -6543,13 +6571,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Testing Input Validation and Sanitization")</f>
-        <v>Testing Input Validation and Sanitization</v>
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="62"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B57" s="107" t="s">
         <v>52</v>
       </c>
@@ -6573,7 +6601,7 @@
       <c r="H57" s="70"/>
       <c r="I57" s="62"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
         <v>53</v>
       </c>
@@ -6591,13 +6619,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Testing For Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing For Sensitive Functionality Exposure Through IPC</v>
+"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
       <c r="H58" s="70"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
         <v>54</v>
       </c>
@@ -6621,7 +6649,7 @@
       <c r="H59" s="70"/>
       <c r="I59" s="62"/>
     </row>
-    <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
         <v>55</v>
       </c>
@@ -6645,7 +6673,7 @@
       <c r="H60" s="70"/>
       <c r="I60" s="62"/>
     </row>
-    <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
         <v>104</v>
       </c>
@@ -6663,13 +6691,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),
-"Testing Whether Java Objects Are Exposed Through WebViews")</f>
-        <v>Testing Whether Java Objects Are Exposed Through WebViews</v>
+"Determining Whether Java Objects Are Exposed Through WebViews")</f>
+        <v>Determining Whether Java Objects Are Exposed Through WebViews</v>
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B62" s="107" t="s">
         <v>103</v>
       </c>
@@ -6687,13 +6715,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),
-"Testing Object (De-)Serialization")</f>
-        <v>Testing Object (De-)Serialization</v>
+"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
       </c>
       <c r="H62" s="70"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="65" t="s">
         <v>33</v>
       </c>
@@ -6707,7 +6735,7 @@
       <c r="H63" s="66"/>
       <c r="I63" s="69"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" s="107" t="s">
         <v>56</v>
       </c>
@@ -6725,13 +6753,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
-"Verifying That the App is Properly Signed")</f>
-        <v>Verifying That the App is Properly Signed</v>
+"Making Sure That the App is Properly Signed")</f>
+        <v>Making Sure That the App is Properly Signed</v>
       </c>
       <c r="H64" s="70"/>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B65" s="107" t="s">
         <v>34</v>
       </c>
@@ -6749,13 +6777,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
-"Testing If the App is Debuggable")</f>
-        <v>Testing If the App is Debuggable</v>
+"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
       </c>
       <c r="H65" s="70"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
         <v>57</v>
       </c>
@@ -6773,13 +6801,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
-"Testing for Debugging Symbols")</f>
-        <v>Testing for Debugging Symbols</v>
+"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
       </c>
       <c r="H66" s="70"/>
       <c r="I66" s="62"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
         <v>58</v>
       </c>
@@ -6797,13 +6825,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
-"Testing for Debugging Code and Verbose Error Logging")</f>
-        <v>Testing for Debugging Code and Verbose Error Logging</v>
+"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
       <c r="H67" s="70"/>
       <c r="I67" s="62"/>
     </row>
-    <row r="68" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B68" s="107" t="s">
         <v>59</v>
       </c>
@@ -6821,13 +6849,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Testing for Weaknesses in Third Party Libraries")</f>
-        <v>Testing for Weaknesses in Third Party Libraries</v>
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
       <c r="H68" s="77"/>
       <c r="I68" s="62"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="107" t="s">
         <v>35</v>
       </c>
@@ -6851,7 +6879,7 @@
       <c r="H69" s="70"/>
       <c r="I69" s="62"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="107" t="s">
         <v>36</v>
       </c>
@@ -6869,13 +6897,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing  Error Handling in Security Controls")</f>
-        <v>Testing  Error Handling in Security Controls</v>
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H70" s="70"/>
       <c r="I70" s="62"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B71" s="107" t="s">
         <v>37</v>
       </c>
@@ -6893,14 +6921,14 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),
-"Testing for Memory Management Bugs")</f>
-        <v>Testing for Memory Management Bugs</v>
+"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
       </c>
       <c r="H71" s="70"/>
       <c r="I71" s="79"/>
       <c r="J71" s="80"/>
     </row>
-    <row r="72" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B72" s="107" t="s">
         <v>93</v>
       </c>
@@ -6918,13 +6946,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
-"Verifying usage of Free Security Features")</f>
-        <v>Verifying usage of Free Security Features</v>
+"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
       </c>
       <c r="H72" s="70"/>
       <c r="I72" s="62"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="81"/>
       <c r="C73" s="82"/>
       <c r="D73" s="83"/>
@@ -6934,7 +6962,7 @@
       <c r="H73" s="82"/>
       <c r="I73" s="84"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="85"/>
       <c r="C74" s="61"/>
       <c r="D74" s="38"/>
@@ -6944,7 +6972,7 @@
       <c r="H74" s="61"/>
       <c r="I74" s="61"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="85"/>
       <c r="C75" s="74"/>
       <c r="D75" s="38"/>
@@ -6954,7 +6982,7 @@
       <c r="H75" s="61"/>
       <c r="I75" s="61"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="85"/>
       <c r="C76" s="61"/>
       <c r="D76" s="38"/>
@@ -6964,7 +6992,7 @@
       <c r="H76" s="61"/>
       <c r="I76" s="61"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="86" t="s">
         <v>275</v>
       </c>
@@ -6976,7 +7004,7 @@
       <c r="H77" s="61"/>
       <c r="I77" s="61"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B78" s="87" t="s">
         <v>276</v>
       </c>
@@ -6990,7 +7018,7 @@
       <c r="H78" s="61"/>
       <c r="I78" s="61"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="89" t="s">
         <v>68</v>
       </c>
@@ -7004,7 +7032,7 @@
       <c r="H79" s="61"/>
       <c r="I79" s="61"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="89" t="s">
         <v>69</v>
       </c>
@@ -7018,7 +7046,7 @@
       <c r="H80" s="61"/>
       <c r="I80" s="61"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="89" t="s">
         <v>64</v>
       </c>
@@ -7032,7 +7060,7 @@
       <c r="H81" s="61"/>
       <c r="I81" s="61"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="85"/>
       <c r="C82" s="61"/>
       <c r="D82" s="38"/>
@@ -7042,7 +7070,7 @@
       <c r="H82" s="61"/>
       <c r="I82" s="61"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="85"/>
       <c r="C83" s="61"/>
       <c r="D83" s="38"/>
@@ -7052,7 +7080,7 @@
       <c r="H83" s="61"/>
       <c r="I83" s="61"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="85"/>
       <c r="C84" s="61"/>
       <c r="D84" s="38"/>
@@ -7062,7 +7090,7 @@
       <c r="H84" s="61"/>
       <c r="I84" s="61"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="85"/>
       <c r="C85" s="61"/>
       <c r="D85" s="38"/>
@@ -7101,21 +7129,23 @@
   </sheetPr>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F5:F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5" style="46" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="47" customWidth="1"/>
     <col min="3" max="3" width="97.1640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="2.9140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="46" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="42.4140625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="48" customWidth="1"/>
-    <col min="8" max="16384" width="10.9140625" style="46"/>
+    <col min="6" max="6" width="42.33203125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="48" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="91" t="s">
         <v>257</v>
       </c>
@@ -7125,7 +7155,7 @@
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="85"/>
       <c r="C2" s="61"/>
       <c r="D2" s="38"/>
@@ -7133,7 +7163,7 @@
       <c r="F2" s="61"/>
       <c r="G2" s="61"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
@@ -7153,7 +7183,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="66" t="s">
         <v>260</v>
@@ -7163,7 +7193,7 @@
       <c r="F4" s="66"/>
       <c r="G4" s="69"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>113</v>
       </c>
@@ -7185,7 +7215,7 @@
       </c>
       <c r="G5" s="62"/>
     </row>
-    <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>114</v>
       </c>
@@ -7203,12 +7233,12 @@
 CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),
-"Testing Debugging Defenses")</f>
-        <v>Testing Debugging Defenses</v>
+"Testing Anti-Debugging")</f>
+        <v>Testing Anti-Debugging</v>
       </c>
       <c r="G6" s="62"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>115</v>
       </c>
@@ -7230,7 +7260,7 @@
       </c>
       <c r="G7" s="62"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>116</v>
       </c>
@@ -7247,12 +7277,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),
-"Testing Detection of Reverse Engineering Tools")</f>
-        <v>Testing Detection of Reverse Engineering Tools</v>
+"Testing The Detection of Reverse Engineering Tools")</f>
+        <v>Testing The Detection of Reverse Engineering Tools</v>
       </c>
       <c r="G8" s="62"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B9" s="107" t="s">
         <v>117</v>
       </c>
@@ -7269,12 +7299,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),
-"Testing Simple Emulator Detection")</f>
-        <v>Testing Simple Emulator Detection</v>
+"Testing Emulator Detection")</f>
+        <v>Testing Emulator Detection</v>
       </c>
       <c r="G9" s="62"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="107" t="s">
         <v>118</v>
       </c>
@@ -7291,12 +7321,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),
-"Testing Run-Time Integrity Checks")</f>
-        <v>Testing Run-Time Integrity Checks</v>
+"Testing Run Time Integrity Checks")</f>
+        <v>Testing Run Time Integrity Checks</v>
       </c>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="107" t="s">
         <v>119</v>
       </c>
@@ -7314,7 +7344,7 @@
       </c>
       <c r="G11" s="62"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="107" t="s">
         <v>120</v>
       </c>
@@ -7332,7 +7362,7 @@
       </c>
       <c r="G12" s="62"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="107" t="s">
         <v>95</v>
       </c>
@@ -7349,12 +7379,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
-"Testing Simple Obfuscation")</f>
-        <v>Testing Simple Obfuscation</v>
+"Testing Obfuscation")</f>
+        <v>Testing Obfuscation</v>
       </c>
       <c r="G13" s="62"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
       <c r="C14" s="66" t="s">
         <v>270</v>
@@ -7364,7 +7394,7 @@
       <c r="F14" s="66"/>
       <c r="G14" s="69"/>
     </row>
-    <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="108" t="s">
         <v>60</v>
       </c>
@@ -7386,7 +7416,7 @@
       </c>
       <c r="G15" s="62"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="65"/>
       <c r="C16" s="66" t="s">
         <v>272</v>
@@ -7396,7 +7426,7 @@
       <c r="F16" s="66"/>
       <c r="G16" s="69"/>
     </row>
-    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B17" s="107" t="s">
         <v>121</v>
       </c>
@@ -7418,7 +7448,7 @@
       </c>
       <c r="G17" s="62"/>
     </row>
-    <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>122</v>
       </c>
@@ -7436,7 +7466,7 @@
       </c>
       <c r="G18" s="62"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="83"/>
@@ -7444,7 +7474,7 @@
       <c r="F19" s="82"/>
       <c r="G19" s="84"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="85"/>
       <c r="C20" s="61"/>
       <c r="D20" s="38"/>
@@ -7452,7 +7482,7 @@
       <c r="F20" s="61"/>
       <c r="G20" s="61"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="85"/>
       <c r="C21" s="61"/>
       <c r="D21" s="38"/>
@@ -7460,7 +7490,7 @@
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="86" t="s">
         <v>275</v>
       </c>
@@ -7470,7 +7500,7 @@
       <c r="F22" s="61"/>
       <c r="G22" s="61"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="87" t="s">
         <v>276</v>
       </c>
@@ -7482,7 +7512,7 @@
       <c r="F23" s="61"/>
       <c r="G23" s="61"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
         <v>68</v>
       </c>
@@ -7494,7 +7524,7 @@
       <c r="F24" s="61"/>
       <c r="G24" s="61"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="89" t="s">
         <v>69</v>
       </c>
@@ -7506,7 +7536,7 @@
       <c r="F25" s="61"/>
       <c r="G25" s="61"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="89" t="s">
         <v>64</v>
       </c>
@@ -7518,7 +7548,7 @@
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="85"/>
       <c r="C27" s="61"/>
       <c r="D27" s="38"/>
@@ -7526,7 +7556,7 @@
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="85"/>
       <c r="C28" s="61"/>
       <c r="D28" s="38"/>
@@ -7534,7 +7564,7 @@
       <c r="F28" s="61"/>
       <c r="G28" s="61"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="85"/>
       <c r="C29" s="61"/>
       <c r="D29" s="38"/>
@@ -7561,29 +7591,31 @@
   </sheetPr>
   <dimension ref="B1:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="7.9140625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="95" customWidth="1"/>
     <col min="3" max="3" width="97.1640625" style="94" customWidth="1"/>
-    <col min="4" max="5" width="6.58203125" style="19" customWidth="1"/>
+    <col min="4" max="5" width="6.5" style="19" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" style="19" customWidth="1"/>
     <col min="7" max="7" width="60.1640625" style="94" customWidth="1"/>
-    <col min="8" max="8" width="63.58203125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="63.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="30.6640625" style="94" customWidth="1"/>
-    <col min="10" max="10" width="10.9140625" style="19"/>
+    <col min="10" max="10" width="10.83203125" style="19"/>
     <col min="11" max="12" width="10.6640625" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="10.9140625" style="19"/>
+    <col min="13" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:9" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="93" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
@@ -7607,7 +7639,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
@@ -7621,7 +7653,7 @@
       <c r="H4" s="54"/>
       <c r="I4" s="56"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>2</v>
       </c>
@@ -7641,7 +7673,7 @@
       <c r="H5" s="74"/>
       <c r="I5" s="62"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>112</v>
       </c>
@@ -7661,7 +7693,7 @@
       <c r="H6" s="74"/>
       <c r="I6" s="62"/>
     </row>
-    <row r="7" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>111</v>
       </c>
@@ -7681,7 +7713,7 @@
       <c r="H7" s="74"/>
       <c r="I7" s="62"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>110</v>
       </c>
@@ -7701,7 +7733,7 @@
       <c r="H8" s="74"/>
       <c r="I8" s="62"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="107" t="s">
         <v>109</v>
       </c>
@@ -7721,7 +7753,7 @@
       <c r="H9" s="74"/>
       <c r="I9" s="62"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="107" t="s">
         <v>108</v>
       </c>
@@ -7741,7 +7773,7 @@
       <c r="H10" s="74"/>
       <c r="I10" s="62"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="107" t="s">
         <v>4</v>
       </c>
@@ -7761,7 +7793,7 @@
       <c r="H11" s="74"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="107" t="s">
         <v>107</v>
       </c>
@@ -7781,7 +7813,7 @@
       <c r="H12" s="74"/>
       <c r="I12" s="62"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="107" t="s">
         <v>106</v>
       </c>
@@ -7801,7 +7833,7 @@
       <c r="H13" s="74"/>
       <c r="I13" s="62"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="107" t="s">
         <v>5</v>
       </c>
@@ -7821,7 +7853,7 @@
       <c r="H14" s="74"/>
       <c r="I14" s="62"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="65" t="s">
         <v>6</v>
       </c>
@@ -7835,7 +7867,7 @@
       <c r="H15" s="66"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="107" t="s">
         <v>7</v>
       </c>
@@ -7853,13 +7885,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="62"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="107" t="s">
         <v>39</v>
       </c>
@@ -7873,13 +7905,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
       </c>
       <c r="H17" s="74"/>
       <c r="I17" s="62"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>40</v>
       </c>
@@ -7897,13 +7929,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),
-"Testing For Sensitive Data in Logs")</f>
-        <v>Testing For Sensitive Data in Logs</v>
+"Checking Logs for Sensitive Data")</f>
+        <v>Checking Logs for Sensitive Data</v>
       </c>
       <c r="H18" s="74"/>
       <c r="I18" s="62"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="107" t="s">
         <v>8</v>
       </c>
@@ -7921,13 +7953,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
-"Testing Whether Sensitive Data Is Sent To Third Parties")</f>
-        <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
+"Determining Whether Sensitive Data Is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data Is Sent to Third Parties</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="107" t="s">
         <v>41</v>
       </c>
@@ -7945,13 +7977,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),
-"Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
-        <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+"Finding Sensitive Data in the Keyboard Cache")</f>
+        <v>Finding Sensitive Data in the Keyboard Cache</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="62"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="107" t="s">
         <v>9</v>
       </c>
@@ -7969,13 +8001,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),
-"Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
-        <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="62"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="107" t="s">
         <v>10</v>
       </c>
@@ -7993,13 +8025,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),
-"Testing for Sensitive Data Disclosure Through the User Interface")</f>
-        <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
+"Checking for Sensitive Data Disclosed Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosed Through the User Interface</v>
       </c>
       <c r="H22" s="74"/>
       <c r="I22" s="62"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="107" t="s">
         <v>11</v>
       </c>
@@ -8017,13 +8049,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
-"Testing for Sensitive Data in Backups")</f>
-        <v>Testing for Sensitive Data in Backups</v>
+"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
       </c>
       <c r="H23" s="74"/>
       <c r="I23" s="62"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="107" t="s">
         <v>12</v>
       </c>
@@ -8041,13 +8073,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),
-"Testing for Sensitive Information in Auto-Generated Screenshots")</f>
-        <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
+"Testing Auto-Generated Screenshots for Sensitive Information")</f>
+        <v>Testing Auto-Generated Screenshots for Sensitive Information</v>
       </c>
       <c r="H24" s="74"/>
       <c r="I24" s="62"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B25" s="107" t="s">
         <v>42</v>
       </c>
@@ -8065,13 +8097,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),
-"Testing for Sensitive Data in Memory")</f>
-        <v>Testing for Sensitive Data in Memory</v>
+"Testing Memory for Sensitive Data")</f>
+        <v>Testing Memory for Sensitive Data</v>
       </c>
       <c r="H25" s="74"/>
       <c r="I25" s="62"/>
     </row>
-    <row r="26" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B26" s="107" t="s">
         <v>43</v>
       </c>
@@ -8089,14 +8121,14 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
-"Testing Local Authentication")</f>
-        <v>Testing Local Authentication</v>
+"Local Authentication on iOS")</f>
+        <v>Local Authentication on iOS</v>
       </c>
       <c r="H26" s="74"/>
       <c r="I26" s="62"/>
       <c r="J26" s="96"/>
     </row>
-    <row r="27" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" s="107" t="s">
         <v>13</v>
       </c>
@@ -8114,14 +8146,14 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04i-Testing-user-interaction.md#testing-user-education"),
-"Testing user education")</f>
-        <v>Testing user education</v>
+"Testing User Education")</f>
+        <v>Testing User Education</v>
       </c>
       <c r="H27" s="74"/>
       <c r="I27" s="62"/>
       <c r="J27" s="46"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="65" t="s">
         <v>14</v>
       </c>
@@ -8135,7 +8167,7 @@
       <c r="H28" s="66"/>
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="107" t="s">
         <v>15</v>
       </c>
@@ -8153,13 +8185,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H29" s="74"/>
       <c r="I29" s="62"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="107" t="s">
         <v>16</v>
       </c>
@@ -8177,13 +8209,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),
-"Testing for Custom Implementations of Cryptography")</f>
-        <v>Testing for Custom Implementations of Cryptography</v>
+"Custom Implementations of Cryptography")</f>
+        <v>Custom Implementations of Cryptography</v>
       </c>
       <c r="H30" s="74"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="107" t="s">
         <v>17</v>
       </c>
@@ -8207,7 +8239,7 @@
       <c r="H31" s="74"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B32" s="107" t="s">
         <v>18</v>
       </c>
@@ -8225,13 +8257,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
-"Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
+"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
       <c r="H32" s="74"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="107" t="s">
         <v>19</v>
       </c>
@@ -8249,13 +8281,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="62"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="107" t="s">
         <v>20</v>
       </c>
@@ -8279,7 +8311,7 @@
       <c r="H34" s="74"/>
       <c r="I34" s="62"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="65" t="s">
         <v>21</v>
       </c>
@@ -8293,7 +8325,7 @@
       <c r="H35" s="66"/>
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B36" s="107" t="s">
         <v>22</v>
       </c>
@@ -8311,13 +8343,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
-"Verifying that Users Are Properly Authenticated")</f>
-        <v>Verifying that Users Are Properly Authenticated</v>
+"Testing Authentication")</f>
+        <v>Testing Authentication</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="62"/>
     </row>
-    <row r="37" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B37" s="107" t="s">
         <v>44</v>
       </c>
@@ -8341,7 +8373,7 @@
       <c r="H37" s="74"/>
       <c r="I37" s="62"/>
     </row>
-    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="107" t="s">
         <v>45</v>
       </c>
@@ -8359,13 +8391,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
-"Testing Stateless Authentication")</f>
-        <v>Testing Stateless Authentication</v>
+"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
       <c r="H38" s="74"/>
       <c r="I38" s="62"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="107" t="s">
         <v>23</v>
       </c>
@@ -8380,14 +8412,14 @@
 CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
-"Testing the Logout Functionality")</f>
-        <v>Testing the Logout Functionality</v>
+"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
       </c>
       <c r="H39" s="74"/>
       <c r="I39" s="62"/>
       <c r="K39" s="75"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B40" s="107" t="s">
         <v>24</v>
       </c>
@@ -8405,14 +8437,14 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
-"Testing the Password Policy")</f>
-        <v>Testing the Password Policy</v>
+"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
       </c>
       <c r="H40" s="74"/>
       <c r="I40" s="62"/>
       <c r="K40" s="75"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B41" s="107" t="s">
         <v>46</v>
       </c>
@@ -8430,13 +8462,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
-"Testing Excessive Login Attempts")</f>
-        <v>Testing Excessive Login Attempts</v>
+"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
       </c>
       <c r="H41" s="74"/>
       <c r="I41" s="62"/>
     </row>
-    <row r="42" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" s="107" t="s">
         <v>47</v>
       </c>
@@ -8454,13 +8486,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
-"Testing the Session Timeout")</f>
-        <v>Testing the Session Timeout</v>
+"Session Timeout")</f>
+        <v>Session Timeout</v>
       </c>
       <c r="H42" s="97"/>
       <c r="I42" s="76"/>
     </row>
-    <row r="43" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B43" s="107" t="s">
         <v>25</v>
       </c>
@@ -8478,13 +8510,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#testing-local-authentication"),
-"Testing Biometric Authentication")</f>
-        <v>Testing Biometric Authentication</v>
+"Testing Local Authentication")</f>
+        <v>Testing Local Authentication</v>
       </c>
       <c r="H43" s="74"/>
       <c r="I43" s="62"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B44" s="107" t="s">
         <v>26</v>
       </c>
@@ -8502,13 +8534,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
-"Testing 2-Factor Authentication")</f>
-        <v>Testing 2-Factor Authentication</v>
+"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
       </c>
       <c r="H44" s="74"/>
       <c r="I44" s="62"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="2:11" ht="17" x14ac:dyDescent="0.2">
       <c r="B45" s="107" t="s">
         <v>27</v>
       </c>
@@ -8526,13 +8558,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
-"Testing Step-up Authentication")</f>
-        <v>Testing Step-up Authentication</v>
+"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
       <c r="H45" s="74"/>
       <c r="I45" s="62"/>
     </row>
-    <row r="46" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="2:11" ht="48" x14ac:dyDescent="0.2">
       <c r="B46" s="107" t="s">
         <v>91</v>
       </c>
@@ -8550,13 +8582,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Testing Login Activity and Device Blocking")</f>
-        <v>Testing Login Activity and Device Blocking</v>
+"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
       </c>
       <c r="H46" s="74"/>
       <c r="I46" s="62"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="65" t="s">
         <v>28</v>
       </c>
@@ -8570,7 +8602,7 @@
       <c r="H47" s="66"/>
       <c r="I47" s="69"/>
     </row>
-    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B48" s="107" t="s">
         <v>29</v>
       </c>
@@ -8588,8 +8620,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
-"Testing for Unencrypted Sensitive Data on the Network")</f>
-        <v>Testing for Unencrypted Sensitive Data on the Network</v>
+"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
       </c>
       <c r="H48" s="77" t="str">
         <f>HYPERLINK(CONCATENATE(
@@ -8600,7 +8632,7 @@
       </c>
       <c r="I48" s="78"/>
     </row>
-    <row r="49" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B49" s="107" t="s">
         <v>48</v>
       </c>
@@ -8618,8 +8650,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
-"Verifying the TLS Settings")</f>
-        <v>Verifying the TLS Settings</v>
+"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
       </c>
       <c r="H49" s="77" t="str">
         <f>HYPERLINK(CONCATENATE(
@@ -8630,7 +8662,7 @@
       </c>
       <c r="I49" s="78"/>
     </row>
-    <row r="50" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B50" s="107" t="s">
         <v>30</v>
       </c>
@@ -8648,13 +8680,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and SSL Pinning")</f>
-        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H50" s="77"/>
       <c r="I50" s="78"/>
     </row>
-    <row r="51" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B51" s="107" t="s">
         <v>49</v>
       </c>
@@ -8672,13 +8704,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and SSL Pinning")</f>
-        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H51" s="74"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="107" t="s">
         <v>31</v>
       </c>
@@ -8696,13 +8728,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Verifying that Critical Operations Use Secure Communication Channels")</f>
-        <v>Verifying that Critical Operations Use Secure Communication Channels</v>
+"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
       <c r="H52" s="74"/>
       <c r="I52" s="62"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B53" s="107" t="s">
         <v>105</v>
       </c>
@@ -8726,7 +8758,7 @@
       <c r="H53" s="74"/>
       <c r="I53" s="62"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="65" t="s">
         <v>32</v>
       </c>
@@ -8740,7 +8772,7 @@
       <c r="H54" s="66"/>
       <c r="I54" s="69"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B55" s="107" t="s">
         <v>50</v>
       </c>
@@ -8764,7 +8796,7 @@
       <c r="H55" s="74"/>
       <c r="I55" s="62"/>
     </row>
-    <row r="56" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B56" s="107" t="s">
         <v>51</v>
       </c>
@@ -8782,13 +8814,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Testing Input Validation and Sanitization")</f>
-        <v>Testing Input Validation and Sanitization</v>
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
       </c>
       <c r="H56" s="74"/>
       <c r="I56" s="62"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B57" s="107" t="s">
         <v>52</v>
       </c>
@@ -8812,7 +8844,7 @@
       <c r="H57" s="74"/>
       <c r="I57" s="62"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B58" s="107" t="s">
         <v>53</v>
       </c>
@@ -8830,13 +8862,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Testing For Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing For Sensitive Functionality Exposure Through IPC</v>
+"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
       <c r="H58" s="74"/>
       <c r="I58" s="62"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B59" s="107" t="s">
         <v>54</v>
       </c>
@@ -8854,13 +8886,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),
-"Testing JavaScript Execution in WebViews")</f>
-        <v>Testing JavaScript Execution in WebViews</v>
+"Testing iOS WebViews")</f>
+        <v>Testing iOS WebViews</v>
       </c>
       <c r="H59" s="74"/>
       <c r="I59" s="62"/>
     </row>
-    <row r="60" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B60" s="107" t="s">
         <v>55</v>
       </c>
@@ -8884,7 +8916,7 @@
       <c r="H60" s="74"/>
       <c r="I60" s="62"/>
     </row>
-    <row r="61" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B61" s="107" t="s">
         <v>104</v>
       </c>
@@ -8902,13 +8934,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),
-"Testing Whether Native Methods Are Exposed Through WebViews")</f>
-        <v>Testing Whether Native Methods Are Exposed Through WebViews</v>
+"Determining Whether Native Methods Are Exposed Through WebViews")</f>
+        <v>Determining Whether Native Methods Are Exposed Through WebViews</v>
       </c>
       <c r="H61" s="74"/>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B62" s="107" t="s">
         <v>103</v>
       </c>
@@ -8926,13 +8958,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),
-"Testing Object (De-)Serialization")</f>
-        <v>Testing Object (De-)Serialization</v>
+"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
       </c>
       <c r="H62" s="74"/>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="65" t="s">
         <v>33</v>
       </c>
@@ -8946,7 +8978,7 @@
       <c r="H63" s="66"/>
       <c r="I63" s="69"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" s="107" t="s">
         <v>56</v>
       </c>
@@ -8964,13 +8996,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
-"Verifying That the App is Properly Signed")</f>
-        <v>Verifying That the App is Properly Signed</v>
+"Making Sure that the App Is Properly Signed")</f>
+        <v>Making Sure that the App Is Properly Signed</v>
       </c>
       <c r="H64" s="74"/>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B65" s="107" t="s">
         <v>34</v>
       </c>
@@ -8988,13 +9020,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
-"Testing If the App is Debuggable")</f>
-        <v>Testing If the App is Debuggable</v>
+"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
       </c>
       <c r="H65" s="74"/>
       <c r="I65" s="62"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="107" t="s">
         <v>57</v>
       </c>
@@ -9012,13 +9044,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
-"Testing for Debugging Symbols")</f>
-        <v>Testing for Debugging Symbols</v>
+"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
       </c>
       <c r="H66" s="74"/>
       <c r="I66" s="62"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B67" s="107" t="s">
         <v>58</v>
       </c>
@@ -9036,13 +9068,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
-"Testing for Debugging Code and Verbose Error Logging")</f>
-        <v>Testing for Debugging Code and Verbose Error Logging</v>
+"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
       <c r="H67" s="74"/>
       <c r="I67" s="62"/>
     </row>
-    <row r="68" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B68" s="107" t="s">
         <v>59</v>
       </c>
@@ -9060,13 +9092,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Testing for Weaknesses in Third Party Libraries")</f>
-        <v>Testing for Weaknesses in Third Party Libraries</v>
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
       <c r="H68" s="74"/>
       <c r="I68" s="62"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B69" s="107" t="s">
         <v>35</v>
       </c>
@@ -9090,7 +9122,7 @@
       <c r="H69" s="74"/>
       <c r="I69" s="62"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B70" s="107" t="s">
         <v>36</v>
       </c>
@@ -9108,13 +9140,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing  Error Handling in Security Controls")</f>
-        <v>Testing  Error Handling in Security Controls</v>
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H70" s="74"/>
       <c r="I70" s="62"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B71" s="107" t="s">
         <v>37</v>
       </c>
@@ -9132,13 +9164,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),
-"Testing for Memory Management Bugs")</f>
-        <v>Testing for Memory Management Bugs</v>
+"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
       </c>
       <c r="H71" s="74"/>
       <c r="I71" s="62"/>
     </row>
-    <row r="72" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B72" s="107" t="s">
         <v>93</v>
       </c>
@@ -9156,13 +9188,13 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
-"Verifying usage of Free Security Features")</f>
-        <v>Verifying usage of Free Security Features</v>
+"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
       </c>
       <c r="H72" s="74"/>
       <c r="I72" s="62"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="81"/>
       <c r="C73" s="82"/>
       <c r="D73" s="83"/>
@@ -9172,7 +9204,7 @@
       <c r="H73" s="98"/>
       <c r="I73" s="99"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="100"/>
       <c r="C74" s="101"/>
       <c r="D74" s="28"/>
@@ -9182,7 +9214,7 @@
       <c r="H74" s="61"/>
       <c r="I74" s="101"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="100"/>
       <c r="C75" s="101"/>
       <c r="D75" s="28"/>
@@ -9192,7 +9224,7 @@
       <c r="H75" s="61"/>
       <c r="I75" s="101"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="100"/>
       <c r="C76" s="101"/>
       <c r="D76" s="28"/>
@@ -9202,7 +9234,7 @@
       <c r="H76" s="61"/>
       <c r="I76" s="101"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="102" t="s">
         <v>275</v>
       </c>
@@ -9214,7 +9246,7 @@
       <c r="H77" s="61"/>
       <c r="I77" s="101"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B78" s="87" t="s">
         <v>276</v>
       </c>
@@ -9228,7 +9260,7 @@
       <c r="H78" s="61"/>
       <c r="I78" s="101"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="89" t="s">
         <v>68</v>
       </c>
@@ -9242,7 +9274,7 @@
       <c r="H79" s="61"/>
       <c r="I79" s="101"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="89" t="s">
         <v>69</v>
       </c>
@@ -9256,7 +9288,7 @@
       <c r="H80" s="61"/>
       <c r="I80" s="101"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="89" t="s">
         <v>64</v>
       </c>
@@ -9270,7 +9302,7 @@
       <c r="H81" s="61"/>
       <c r="I81" s="101"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" s="100"/>
       <c r="C82" s="101"/>
       <c r="D82" s="28"/>
@@ -9280,7 +9312,7 @@
       <c r="H82" s="61"/>
       <c r="I82" s="101"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" s="100"/>
       <c r="C83" s="101"/>
       <c r="D83" s="28"/>
@@ -9290,7 +9322,7 @@
       <c r="H83" s="61"/>
       <c r="I83" s="101"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="100"/>
       <c r="C84" s="101"/>
       <c r="D84" s="28"/>
@@ -9300,7 +9332,7 @@
       <c r="H84" s="61"/>
       <c r="I84" s="101"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" s="100"/>
       <c r="C85" s="101"/>
       <c r="D85" s="28"/>
@@ -9348,30 +9380,32 @@
   </sheetPr>
   <dimension ref="B1:G32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F5:F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" style="95" customWidth="1"/>
     <col min="3" max="3" width="93.1640625" style="94" customWidth="1"/>
-    <col min="4" max="4" width="2.9140625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="42.4140625" style="101" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="94" customWidth="1"/>
-    <col min="8" max="16384" width="10.9140625" style="19"/>
+    <col min="6" max="6" width="42.33203125" style="101" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="94" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:7" ht="19" x14ac:dyDescent="0.25">
       <c r="B1" s="93" t="s">
         <v>282</v>
       </c>
       <c r="G1" s="101"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G2" s="101"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
@@ -9391,7 +9425,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="66" t="s">
         <v>260</v>
@@ -9401,7 +9435,7 @@
       <c r="F4" s="66"/>
       <c r="G4" s="69"/>
     </row>
-    <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="107" t="s">
         <v>113</v>
       </c>
@@ -9418,12 +9452,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),
-"Testing Jailbreak Detection")</f>
-        <v>Testing Jailbreak Detection</v>
+"Jailbreak Detection")</f>
+        <v>Jailbreak Detection</v>
       </c>
       <c r="G5" s="62"/>
     </row>
-    <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="107" t="s">
         <v>114</v>
       </c>
@@ -9440,12 +9474,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),
-"Testing Debugging Defenses")</f>
-        <v>Testing Debugging Defenses</v>
+"Anti-Debugging Checks")</f>
+        <v>Anti-Debugging Checks</v>
       </c>
       <c r="G6" s="62"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="107" t="s">
         <v>115</v>
       </c>
@@ -9462,12 +9496,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),
-"Testing File Integrity Checks")</f>
-        <v>Testing File Integrity Checks</v>
+"File Integrity Checks")</f>
+        <v>File Integrity Checks</v>
       </c>
       <c r="G7" s="62"/>
     </row>
-    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="107" t="s">
         <v>116</v>
       </c>
@@ -9485,7 +9519,7 @@
       </c>
       <c r="G8" s="62"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="107" t="s">
         <v>117</v>
       </c>
@@ -9503,7 +9537,7 @@
       </c>
       <c r="G9" s="62"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="107" t="s">
         <v>118</v>
       </c>
@@ -9521,7 +9555,7 @@
       </c>
       <c r="G10" s="62"/>
     </row>
-    <row r="11" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="107" t="s">
         <v>119</v>
       </c>
@@ -9539,7 +9573,7 @@
       </c>
       <c r="G11" s="62"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="107" t="s">
         <v>120</v>
       </c>
@@ -9557,7 +9591,7 @@
       </c>
       <c r="G12" s="62"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="107" t="s">
         <v>95</v>
       </c>
@@ -9575,7 +9609,7 @@
       </c>
       <c r="G13" s="62"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
       <c r="C14" s="66" t="s">
         <v>270</v>
@@ -9585,7 +9619,7 @@
       <c r="F14" s="66"/>
       <c r="G14" s="69"/>
     </row>
-    <row r="15" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="108" t="s">
         <v>60</v>
       </c>
@@ -9602,12 +9636,12 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),
-"Testing Device Binding")</f>
-        <v>Testing Device Binding</v>
+"Device Binding")</f>
+        <v>Device Binding</v>
       </c>
       <c r="G15" s="62"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="65"/>
       <c r="C16" s="66" t="s">
         <v>272</v>
@@ -9617,7 +9651,7 @@
       <c r="F16" s="66"/>
       <c r="G16" s="69"/>
     </row>
-    <row r="17" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B17" s="107" t="s">
         <v>121</v>
       </c>
@@ -9635,7 +9669,7 @@
       </c>
       <c r="G17" s="62"/>
     </row>
-    <row r="18" spans="2:7" ht="52.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B18" s="107" t="s">
         <v>122</v>
       </c>
@@ -9653,7 +9687,7 @@
       </c>
       <c r="G18" s="62"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="83"/>
@@ -9661,21 +9695,21 @@
       <c r="F19" s="84"/>
       <c r="G19" s="84"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="100"/>
       <c r="C20" s="101"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
       <c r="G20" s="101"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="100"/>
       <c r="C21" s="101"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
       <c r="G21" s="101"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="102" t="s">
         <v>275</v>
       </c>
@@ -9684,7 +9718,7 @@
       <c r="E22" s="28"/>
       <c r="G22" s="101"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B23" s="87" t="s">
         <v>276</v>
       </c>
@@ -9695,7 +9729,7 @@
       <c r="E23" s="28"/>
       <c r="G23" s="101"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="89" t="s">
         <v>68</v>
       </c>
@@ -9706,7 +9740,7 @@
       <c r="E24" s="28"/>
       <c r="G24" s="101"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="89" t="s">
         <v>69</v>
       </c>
@@ -9717,7 +9751,7 @@
       <c r="E25" s="28"/>
       <c r="G25" s="101"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="89" t="s">
         <v>64</v>
       </c>
@@ -9728,40 +9762,40 @@
       <c r="E26" s="28"/>
       <c r="G26" s="101"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="100"/>
       <c r="C27" s="101"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="G27" s="101"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="100"/>
       <c r="C28" s="101"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="G28" s="101"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="100"/>
       <c r="C29" s="101"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="G29" s="101"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="100"/>
       <c r="C30" s="101"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="100"/>
       <c r="C31" s="101"/>
       <c r="D31" s="28"/>
       <c r="E31" s="28"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="100"/>
       <c r="C32" s="101"/>
       <c r="D32" s="28"/>
@@ -9824,20 +9858,20 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.58203125" customWidth="1"/>
-    <col min="5" max="5" width="119.58203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="119.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="156" t="s">
         <v>61</v>
       </c>
@@ -9846,7 +9880,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
@@ -9863,7 +9897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -9878,7 +9912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
@@ -9893,7 +9927,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -9908,7 +9942,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
@@ -9923,7 +9957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -9938,7 +9972,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>78</v>
       </c>
@@ -9953,7 +9987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
@@ -9968,7 +10002,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>63</v>
       </c>
@@ -9983,7 +10017,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -9998,7 +10032,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>63</v>
       </c>
@@ -10013,7 +10047,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>124</v>
       </c>
@@ -10028,7 +10062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>126</v>
       </c>
@@ -10043,7 +10077,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="409.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>102</v>
       </c>
@@ -10060,7 +10094,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>124</v>
       </c>
@@ -10077,7 +10111,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>102</v>
       </c>
@@ -10094,7 +10128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>102</v>
       </c>
@@ -10111,7 +10145,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>102</v>
       </c>
@@ -10128,7 +10162,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="134.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>124</v>
       </c>
@@ -10145,7 +10179,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>124</v>
       </c>
@@ -10162,7 +10196,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>124</v>
       </c>
@@ -10179,7 +10213,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>124</v>
       </c>
@@ -10194,6 +10228,23 @@
       </c>
       <c r="E23" s="18" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" s="4">
+        <v>43677</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -10217,22 +10268,22 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="19.2" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" style="19" customWidth="1"/>
-    <col min="2" max="4" width="11.08203125" style="19"/>
+    <col min="2" max="4" width="11" style="19"/>
     <col min="5" max="5" width="70.6640625" style="19" customWidth="1"/>
-    <col min="6" max="16384" width="11.08203125" style="19"/>
+    <col min="6" max="16384" width="11" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="157" t="s">
         <v>284</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="109"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="103" t="s">
         <v>81</v>
       </c>
@@ -10249,7 +10300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="105" t="s">
         <v>177</v>
       </c>
@@ -10266,7 +10317,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="105" t="s">
         <v>177</v>
       </c>
@@ -10283,7 +10334,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="105" t="s">
         <v>177</v>
       </c>
@@ -10300,7 +10351,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="105" t="s">
         <v>177</v>
       </c>

--- a/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Japanese_1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-ja-20181106-2139X\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50CECD5-AED2-4321-B39B-DAFC3AAD2D7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062F1D19-B90B-44C8-9EF5-AB630515B48D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="72" windowWidth="22020" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12" yWindow="132" windowWidth="22596" windowHeight="12108" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="305">
   <si>
     <t>ID</t>
   </si>
@@ -710,13 +710,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>&lt;顧客企業名&gt;との協議の結果、レベル1の要件のみを&lt;アプリ名&gt;に適用することに決定した。
-レベル1：標準セキュリティ
-レベル2：多層防御
-レベルR：リバースエンジニアリングに対する耐性</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
     <t>テスト情報 Android</t>
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
@@ -983,154 +976,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アプリのすべてのコンポーネントを把握し、それらが必要とされていることを検証する。</t>
-    <rPh sb="35" eb="37">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セキュリティコントロールはクライアント側だけではなくそれぞれのリモートエンドポイントで実施されていることを検証する。</t>
-    <rPh sb="53" eb="55">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>モバイルアプリと接続されるすべてのリモートサービスの高次のアーキテクチャが定義され、そのアーキテクチャにセキュリティが対応されていることを検証する。</t>
-    <rPh sb="69" eb="71">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>モバイルアプリのコンテキストで機密とみなされるデータが明確に特定されていることを検証する。</t>
-    <rPh sb="40" eb="42">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリのすべてのコンポーネントは提供する業務上の機能やセキュリティ上の機能の観点で定義されていることを検証する。</t>
-    <rPh sb="51" eb="53">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>モバイルアプリとそれに関連するリモートサービスの脅威モデルが作られ、潜在的な脅威と対策を特定していることを検証する。</t>
-    <rPh sb="53" eb="55">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>すべてのセキュリティコントロールは集約実装されていることを検証する。</t>
-    <rPh sb="29" eb="31">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">暗号鍵が（もしあれば）どのように管理されるかについての明確な方針があり、暗号鍵のライフサイクルが施行されていることを検証する。 NIST SP 800-57 などの鍵管理標準に準拠することが理想的である。 </t>
-    <rPh sb="58" eb="60">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>モバイルアプリの更新を強制するメカニズムが存在していることを検証する。</t>
-    <rPh sb="30" eb="32">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セキュリティはソフトウェア開発ライフサイクルのあらゆる部分で対処されていることを検証する。</t>
-    <rPh sb="40" eb="42">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>データストレージとプライバシー</t>
-  </si>
-  <si>
-    <t>個人識別情報、ユーザー資格情報、暗号化鍵などの機密データを格納するために、システムの資格情報保存機能が適切に使用されていることを検証する。</t>
-    <rPh sb="64" eb="66">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機密データはアプリコンテナまたはシステムの資格情報保存機能の外部に保存されていないことを検証する。</t>
-    <rPh sb="44" eb="46">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機密データはアプリケーションログに書き込まれていないことを検証する。</t>
-    <rPh sb="29" eb="31">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機密データはアーキテクチャに必要な部分でない限りサードパーティと共有されていないことを検証する。</t>
-    <rPh sb="43" eb="45">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機密データを処理するテキスト入力では、キーボードキャッシュが無効にされていることを検証する。</t>
-    <rPh sb="41" eb="43">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機密データはIPCメカニズムを介して公開されていないことを検証する。</t>
-    <rPh sb="29" eb="31">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワードやピンなどの機密データは、ユーザーインタフェースを介して公開されていないことを検証する。</t>
-    <rPh sb="44" eb="46">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機密データはモバイルオペレーティングシステムにより生成されるバックアップに含まれていないことを検証する。</t>
-    <rPh sb="47" eb="49">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは必要以上に長くメモリ内に機密データを保持せず、使用後は明示的にメモリがクリアされていることを検証する。</t>
-    <rPh sb="50" eb="52">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは最低限のデバイスアクセスセキュリティポリシーを適用しており、ユーザーにデバイスパスコードを設定することなどを必要としていることを検証する。</t>
-    <rPh sb="68" eb="70">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは処理される個人識別情報の種類をユーザーに通知しており、同様にユーザーがアプリを使用する際に従うべきセキュリティのベストプラクティスについて通知していることを検証する。</t>
-    <rPh sb="82" eb="84">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>1.1.0</t>
@@ -1140,48 +986,6 @@
     <t>暗号化</t>
     <rPh sb="0" eb="3">
       <t>アンゴウカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは暗号化の唯一の方法としてハードコードされた鍵による対称暗号化に依存していないことを検証する。</t>
-    <rPh sb="45" eb="47">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは実績のある暗号化プリミティブの実装を使用していることを検証する。</t>
-    <rPh sb="31" eb="33">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは特定のユースケースに適した暗号化プリミティブを使用している。業界のベストプラクティスに基づくパラメータで構成されていることを検証する。</t>
-    <rPh sb="66" eb="68">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはセキュリティ上の目的で広く非推奨と考えられる暗号プロトコルやアルゴリズムを使用していないことを検証する。</t>
-    <rPh sb="51" eb="53">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは複数の目的のために同じ暗号化鍵を再利用していないことを検証する。</t>
-    <rPh sb="31" eb="33">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>すべての乱数値は十分にセキュアな乱数生成器を用いて生成されていることを検証する。</t>
-    <rPh sb="35" eb="37">
-      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1196,90 +1000,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アプリがユーザーにリモートサービスへのアクセスを提供する場合、ユーザー名/パスワード認証など何らかの形態の認証がリモートエンドポイントで実行されていることを検証する。</t>
-    <rPh sb="78" eb="80">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ステートフルなセッション管理を使用する場合、リモートエンドポイントはランダムに生成されたセッション識別子を使用し、ユーザーの資格情報を送信せずにクライアントリクエストを認証していることを検証する。</t>
-    <rPh sb="93" eb="95">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ステートレスなトークンベースの認証を使用する場合、サーバーはセキュアなアルゴリズムを使用して署名されたトークンを提供していることを検証する。</t>
-    <rPh sb="65" eb="67">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザーがログアウトする際に、リモートエンドポイントは既存のセッションを終了していることを検証する。</t>
-    <rPh sb="45" eb="47">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パスワードポリシーが存在し、リモートエンドポイントで実施されていることを検証する。</t>
-    <rPh sb="36" eb="38">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リモートエンドポイントは過度な資格情報の送信に対する保護を実装していることを検証する。</t>
-    <rPh sb="38" eb="40">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>事前に定義された非アクティブ期間およびアクセストークンの有効期限が切れた後に、セッションはリモートエンドポイントで無効にしていることを検証する。</t>
-    <rPh sb="67" eb="69">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>生体認証が使用される場合は（単に「true」や「false」を返すAPIを使うなどの）イベントバインディングは使用しない。代わりに、キーチェーンやキーストアのアンロックに基づいていることを検証する。</t>
-    <rPh sb="94" eb="96">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>リモートエンドポイントに二要素認証が存在し、リモートエンドポイントで二要素認証要件が一貫して適用されていることを検証する。</t>
-    <rPh sb="56" eb="58">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 機密トランザクションはステップアップ認証を必要としていることを検証する。</t>
-    <rPh sb="32" eb="34">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはユーザーのアカウントでのすべてのログインアクティビティをユーザーに通知している。ユーザーはアカウントへのアクセスに使用されるデバイスの一覧を表示し、特定のデバイスをブロックすることができることを検証する。</t>
-    <rPh sb="101" eb="103">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>機密トランザクションはステップアップ認証を必要としていることを検証する。</t>
-    <rPh sb="31" eb="33">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ネットワーク通信</t>
     <rPh sb="6" eb="8">
       <t>ツウシン</t>
@@ -1287,107 +1007,9 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>データはネットワーク上でTLSを使用して暗号化されている。セキュアチャネルがアプリ全体を通して一貫して使用されていることを検証する。</t>
-    <rPh sb="61" eb="63">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TLS 設定は現在のベストプラクティスと一致している。モバイルオペレーティングシステムが推奨される標準規格をサポートしていない場合には可能な限り近い状態であることを検証する。</t>
-    <rPh sb="82" eb="84">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セキュアチャネルが確立されたときに、アプリはリモートエンドポイントのX.509証明書を検証している。信頼されたCAにより署名された証明書のみが受け入れられていることを検証する。</t>
-    <rPh sb="83" eb="85">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは自身の証明書ストアを使用するか、エンドポイント証明書もしくは公開鍵をピンニングしている。信頼されたCAにより署名された場合でも、別の証明書や鍵を提供するエンドポイントとの接続を確立していないことを検証する。</t>
-    <rPh sb="102" eb="104">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは登録やアカウントリカバリーなどの重要な操作において（電子メールやSMSなどの）単方向のセキュアでない通信チャネルに依存していないことを検証する。</t>
-    <rPh sb="71" eb="73">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは最新の接続ライブラリとセキュリティライブラリにのみ依存していることを検証する。</t>
-    <rPh sb="38" eb="40">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>プラットフォーム連携</t>
     <rPh sb="8" eb="10">
       <t>レンケイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは必要となる最低限のパーミッションのみを要求していることを検証する。</t>
-    <rPh sb="32" eb="34">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>外部ソースおよびユーザーからの入力はすべて検証されており、必要に応じてサニタイズされていることを検証する。これにはUI、インテントやカスタムURLなどのIPCメカニズム、ネットワークソースを介して受信したデータを含んでいる。</t>
-    <rPh sb="48" eb="50">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはメカニズムが適切に保護されていない限り、カスタムURLスキームを介して機密な機能をエクスポートしていないことを検証する。</t>
-    <rPh sb="59" eb="61">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはメカニズムが適切に保護されていない限り、IPC機構を通じて機密な機能をエクスポートしていないことを検証する。</t>
-    <rPh sb="53" eb="55">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>明示的に必要でない限りWebViewでJavaScriptが無効化されていることを検証する。</t>
-    <rPh sb="41" eb="43">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>WebViewは最低限必要のプロトコルハンドラのセットのみを許可するよう構成されている（理想的には、httpsのみがサポートされている）。file, tel, app-id などの潜在的に危険なハンドラは無効化されていることを検証する。</t>
-    <rPh sb="113" eb="115">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリのネイティブメソッドがWebViewに公開されている場合、WebViewはアプリパッケージ内に含まれるJavaScriptのみをレンダリングしていることを検証する。</t>
-    <rPh sb="80" eb="82">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>オブジェクトのデシリアライゼーションは、もしあれば、安全なシリアライゼーションAPIを使用して実装されていることを検証する。</t>
-    <rPh sb="57" eb="59">
-      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1398,69 +1020,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは有効な証明書で署名およびプロビジョニングされている。その秘密鍵は適切に保護されていることを検証する。</t>
-    <rPh sb="49" eb="51">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはリリースモードでビルドされている。リリースビルドに適した設定である（デバッグ不可など）ことを検証する。</t>
-    <rPh sb="50" eb="52">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>デバッグシンボルはネイティブバイナリから削除されていることを検証する。</t>
-    <rPh sb="30" eb="32">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>デバッグコードは削除されており、アプリは詳細なエラーやデバッグメッセージをログ出力していないことを検証する。</t>
-    <rPh sb="49" eb="51">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>モバイルアプリで使用されるライブラリ、フレームワークなどのすべてのサードパーティコンポーネントを把握し、既知の脆弱性を確認していることを検証する。</t>
-    <rPh sb="68" eb="70">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは可能性のある例外をキャッチし処理していることを検証する。</t>
-    <rPh sb="27" eb="29">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>セキュリティコントロールのエラー処理ロジックはデフォルトでアクセスを拒否していることを検証する。</t>
-    <rPh sb="43" eb="45">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アンマネージドコードでは、メモリはセキュアに割り当て、解放、使用されていることを検証する。</t>
-    <rPh sb="40" eb="42">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>バイトコードの軽量化、スタック保護、PIEサポート、自動参照カウントなどツールチェーンにより提供されるフリーのセキュリティ機能が有効化されていることを検証する。</t>
-    <rPh sb="75" eb="77">
-      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1511,80 +1070,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>アプリはユーザーに警告するかアプリを終了することでルート化デバイスや脱獄済みデバイスの存在を検知し応答していることを検証する。</t>
-    <rPh sb="58" eb="60">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはデバッグを防止し、デバッガのアタッチを検知し応答していることを検証する。利用可能なすべてのデバッグプロトコルを網羅している必要がある。</t>
-    <rPh sb="35" eb="37">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはそれ自身のサンドボックス内の実行ファイルや重要なデータの改竄を検知し応答している検証することを検証する。</t>
-    <rPh sb="44" eb="46">
-      <t>ケンショウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはそのデバイスで広く使用されるリバースエンジニアリングツールやフレームワークの存在を検知し応答していることを検証する。</t>
-    <rPh sb="57" eb="59">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは任意の方法を使用してエミュレータ内で動作しているかどうかを検知し応答していることを検証する。</t>
-    <rPh sb="45" eb="47">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリはそれ自身のメモリ空間内のコードとデータの改竄を検知し応答していることを検証する。</t>
-    <rPh sb="39" eb="41">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリは各防御カテゴリ(8.1から8.6)で複数のメカニズムを実装していることを検証する。耐性は使用されるメカニズムのオリジナリティの量、多様性と比例することに注意する。</t>
-    <rPh sb="40" eb="42">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>検知メカニズムは遅延応答やステルス応答を含むさまざまな種類の応答をトリガーしていることを検証する。</t>
-    <rPh sb="44" eb="46">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>難読化はプログラムの防御に適用されており、動的解析による逆難読化を妨げていることを検証する。</t>
-    <rPh sb="41" eb="43">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>デバイスバインディング</t>
-  </si>
-  <si>
-    <t>アプリはデバイスに固有の複数のプロパティから由来するデバイスフィンガープリントを使用して「デバイスバインディング」機能を実装していることを検証する。</t>
-    <rPh sb="69" eb="71">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>理解の阻止</t>
@@ -1593,20 +1079,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ソシ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>アプリに属するすべての実行可能ファイルとライブラリはファイルレベルで暗号化されているか、実行可能ファイル内の重要なコードやデータセグメントが暗号化またはパック化されている。簡単な静的解析では重要なコードやデータは明らかにならないことを検証する。</t>
-    <rPh sb="117" eb="119">
-      <t>ケンショウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>難読化の目的が機密性の高い計算を保護することである場合、現在公開されている研究を考慮して、特定のタスクに適しており手動および自動の逆難読化メソッドに対して堅牢な難読化スキームを使用していることを検証する。難読化スキームの有効性は手動テストにより検証する必要がある。可能であればハードウェアベースの隔離機能が難読化より優先されることに注意する。</t>
-    <rPh sb="97" eb="99">
-      <t>ケンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1799,6 +1271,316 @@
   <si>
     <t>translate ver. 1.1.1.3 into Japanese</t>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>&lt;顧客企業名&gt;との協議の結果、&lt;レベル1の要件のみ&gt;を&lt;アプリ名&gt;に適用することに決定した。
+レベル1：標準セキュリティ
+レベル2：多層防御
+レベルR：リバースエンジニアリングに対する耐性</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>Ensure that tiles are in sync on Excel and MSTG</t>
+  </si>
+  <si>
+    <t>translate ver. 1.1.1.3 - "Ensure that tiles are in sync on Excel and MSTG" into Japanese</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>アプリのすべてのコンポーネントを把握し、それらが必要とされている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セキュリティコントロールはクライアント側だけではなくそれぞれのリモートエンドポイントで実施されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モバイルアプリと接続されるすべてのリモートサービスの高次のアーキテクチャが定義され、そのアーキテクチャにセキュリティが対応されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モバイルアプリのコンテキストで機密とみなされるデータが明確に特定されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリのすべてのコンポーネントは提供する業務上の機能やセキュリティ上の機能の観点で定義されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モバイルアプリとそれに関連するリモートサービスの脅威モデルが作られ、潜在的な脅威と対策を特定している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すべてのセキュリティコントロールは集約実装されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">暗号鍵が（もしあれば）どのように管理されるかについての明確な方針があり、暗号鍵のライフサイクルが施行されている。 NIST SP 800-57 などの鍵管理標準に準拠することが理想的である。 </t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モバイルアプリの更新を強制するメカニズムが存在している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セキュリティはソフトウェア開発ライフサイクルのあらゆる部分で対処されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>個人識別情報、ユーザー資格情報、暗号化鍵などの機密データを格納するために、システムの資格情報保存機能が適切に使用されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機密データはアプリコンテナまたはシステムの資格情報保存機能の外部に保存されていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機密データはアプリケーションログに書き込まれていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機密データはアーキテクチャに必要な部分でない限りサードパーティと共有されていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機密データを処理するテキスト入力では、キーボードキャッシュが無効にされている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機密データはIPCメカニズムを介して公開されていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードやピンなどの機密データは、ユーザーインタフェースを介して公開されていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機密データはモバイルオペレーティングシステムにより生成されるバックアップに含まれていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは必要以上に長くメモリ内に機密データを保持せず、使用後は明示的にメモリがクリアされている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは最低限のデバイスアクセスセキュリティポリシーを適用しており、ユーザーにデバイスパスコードを設定することなどを必要としている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは処理される個人識別情報の種類をユーザーに通知しており、同様にユーザーがアプリを使用する際に従うべきセキュリティのベストプラクティスについて通知している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは暗号化の唯一の方法としてハードコードされた鍵による対称暗号化に依存していない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは実績のある暗号化プリミティブの実装を使用している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは特定のユースケースに適した暗号化プリミティブを使用している。業界のベストプラクティスに基づくパラメータで構成されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはセキュリティ上の目的で広く非推奨と考えられる暗号プロトコルやアルゴリズムを使用していない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは複数の目的のために同じ暗号化鍵を再利用していない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>すべての乱数値は十分にセキュアな乱数生成器を用いて生成されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリがユーザーにリモートサービスへのアクセスを提供する場合、ユーザー名/パスワード認証など何らかの形態の認証がリモートエンドポイントで実行されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステートフルなセッション管理を使用する場合、リモートエンドポイントはランダムに生成されたセッション識別子を使用し、ユーザーの資格情報を送信せずにクライアントリクエストを認証している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステートレスなトークンベースの認証を使用する場合、サーバーはセキュアなアルゴリズムを使用して署名されたトークンを提供している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーがログアウトする際に、リモートエンドポイントは既存のセッションを終了している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードポリシーが存在し、リモートエンドポイントで実施されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リモートエンドポイントは過度な資格情報の送信に対する保護を実装している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>事前に定義された非アクティブ期間およびアクセストークンの有効期限が切れた後に、セッションはリモートエンドポイントで無効にしている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生体認証が使用される場合は（単に「true」や「false」を返すAPIを使うなどの）イベントバインディングは使用しない。代わりに、キーチェーンやキーストアのアンロックに基づいている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リモートエンドポイントに二要素認証が存在し、リモートエンドポイントで二要素認証要件が一貫して適用されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>機密トランザクションはステップアップ認証を必要としている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはユーザーのアカウントでのすべてのログインアクティビティをユーザーに通知している。ユーザーはアカウントへのアクセスに使用されるデバイスの一覧を表示し、特定のデバイスをブロックすることができる。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データはネットワーク上でTLSを使用して暗号化されている。セキュアチャネルがアプリ全体を通して一貫して使用されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TLS 設定は現在のベストプラクティスと一致している。モバイルオペレーティングシステムが推奨される標準規格をサポートしていない場合には可能な限り近い状態である。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セキュアチャネルが確立されたときに、アプリはリモートエンドポイントのX.509証明書を検証している。信頼されたCAにより署名された証明書のみが受け入れられている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは自身の証明書ストアを使用するか、エンドポイント証明書もしくは公開鍵をピンニングしている。信頼されたCAにより署名された場合でも、別の証明書や鍵を提供するエンドポイントとの接続を確立していない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは登録やアカウントリカバリーなどの重要な操作において（電子メールやSMSなどの）単方向のセキュアでない通信チャネルに依存していない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは最新の接続ライブラリとセキュリティライブラリにのみ依存している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは必要となる最低限のパーミッションのみを要求している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>外部ソースおよびユーザーからの入力はすべて検証されており、必要に応じてサニタイズされている。これにはUI、インテントやカスタムURLなどのIPCメカニズム、ネットワークソースを介して受信したデータを含んでいる。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはメカニズムが適切に保護されていない限り、カスタムURLスキームを介して機密な機能をエクスポートしていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはメカニズムが適切に保護されていない限り、IPC機構を通じて機密な機能をエクスポートしていない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>明示的に必要でない限りWebViewでJavaScriptが無効化されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WebViewは最低限必要のプロトコルハンドラのセットのみを許可するよう構成されている（理想的には、httpsのみがサポートされている）。file, tel, app-id などの潜在的に危険なハンドラは無効化されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリのネイティブメソッドがWebViewに公開されている場合、WebViewはアプリパッケージ内に含まれるJavaScriptのみをレンダリングしている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>オブジェクトのデシリアライゼーションは、もしあれば、安全なシリアライゼーションAPIを使用して実装されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは有効な証明書で署名およびプロビジョニングされている。その秘密鍵は適切に保護されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはリリースモードでビルドされている。リリースビルドに適した設定である（デバッグ不可など）。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デバッグシンボルはネイティブバイナリから削除されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デバッグコードは削除されており、アプリは詳細なエラーやデバッグメッセージをログ出力していない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モバイルアプリで使用されるライブラリ、フレームワークなどのすべてのサードパーティコンポーネントを把握し、既知の脆弱性を確認している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは可能性のある例外をキャッチし処理している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セキュリティコントロールのエラー処理ロジックはデフォルトでアクセスを拒否している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アンマネージドコードでは、メモリはセキュアに割り当て、解放、使用されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>バイトコードの軽量化、スタック保護、PIEサポート、自動参照カウントなどツールチェーンにより提供されるフリーのセキュリティ機能が有効化されている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはユーザーに警告するかアプリを終了することでルート化デバイスや脱獄済みデバイスの存在を検知し応答している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはデバッグを防止し、デバッガのアタッチを検知し応答している。利用可能なすべてのデバッグプロトコルを網羅している必要がある。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはそのデバイスで広く使用されるリバースエンジニアリングツールやフレームワークの存在を検知し応答している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは任意の方法を使用してエミュレータ内で動作しているかどうかを検知し応答している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはそれ自身のメモリ空間内のコードとデータの改竄を検知し応答している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリは各防御カテゴリ(8.1から8.6)で複数のメカニズムを実装している。耐性は使用されるメカニズムのオリジナリティの量、多様性と比例することに注意する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>検知メカニズムは遅延応答やステルス応答を含むさまざまな種類の応答をトリガーしている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>難読化はプログラムの防御に適用されており、動的解析による逆難読化を妨げている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはデバイスに固有の複数のプロパティから由来するデバイスフィンガープリントを使用して「デバイスバインディング」機能を実装している。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリに属するすべての実行可能ファイルとライブラリはファイルレベルで暗号化されているか、実行可能ファイル内の重要なコードやデータセグメントが暗号化またはパック化されている。簡単な静的解析では重要なコードやデータは明らかにならない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>難読化の目的が機密性の高い計算を保護することである場合、現在公開されている研究を考慮して、特定のタスクに適しており手動および自動の逆難読化メソッドに対して堅牢な難読化スキームを使用している。難読化スキームの有効性は手動テストにより検証する必要がある。可能であればハードウェアベースの隔離機能が難読化より優先されることに注意する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 機密トランザクションはステップアップ認証を必要としている。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリはそれ自身のサンドボックス内の実行ファイルや重要なデータの改竄を検知し応答している。</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -2909,76 +2691,88 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3016,18 +2810,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4340,48 +4122,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="7.95" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="125"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="128"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="121"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="126"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="128"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="121"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="126"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="121"/>
     </row>
     <row r="8" spans="2:4" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="129"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="131"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="124"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="120"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="127"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="20" t="s">
@@ -4391,19 +4173,19 @@
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="112" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="118"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="23" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="117" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="118"/>
+      <c r="B12" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="113"/>
       <c r="D12" s="111" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -4413,19 +4195,19 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="117" t="s">
-        <v>293</v>
-      </c>
-      <c r="C13" s="118"/>
+      <c r="B13" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="113"/>
       <c r="D13" s="23" t="s">
-        <v>295</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="112" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="118"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="111" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -4435,266 +4217,263 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="31.95" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="134"/>
-      <c r="D15" s="135"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="112" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="118"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="112" t="s">
+      <c r="B17" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="122"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="117" t="s">
+      <c r="B18" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="118"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="117" t="s">
+      <c r="B19" s="112" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="118"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="112" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="118"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="117" t="s">
+      <c r="B21" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="118"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="23" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="118"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="23" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="127"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="117" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="118"/>
+      <c r="B26" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="113"/>
       <c r="D26" s="23"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="117" t="s">
+      <c r="B27" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="118"/>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="117" t="s">
+      <c r="C28" s="113"/>
+      <c r="D28" s="23"/>
+    </row>
+    <row r="29" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="118"/>
-      <c r="D28" s="23"/>
-    </row>
-    <row r="29" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="121" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="118"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="127"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="118"/>
+      <c r="B33" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="113"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="113"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="112" t="s">
         <v>154</v>
       </c>
-      <c r="C34" s="118"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="117" t="s">
-        <v>155</v>
-      </c>
-      <c r="C35" s="118"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="2:4" ht="52.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="118"/>
+      <c r="B36" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="113"/>
       <c r="D36" s="23"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="119"/>
-      <c r="C37" s="119"/>
-      <c r="D37" s="120"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="127"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="116"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="133"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="112" t="s">
+      <c r="B40" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="134"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="D40" s="26"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="112" t="s">
+      <c r="C41" s="134"/>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="113"/>
-      <c r="D41" s="26"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="112" t="s">
+      <c r="C42" s="134"/>
+      <c r="D42" s="26"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="26"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="112" t="s">
+      <c r="C43" s="134"/>
+      <c r="D43" s="27"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="D43" s="27"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="113"/>
+      <c r="C44" s="134"/>
       <c r="D44" s="26"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="116"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="132"/>
+      <c r="D45" s="133"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="112" t="s">
+      <c r="B46" s="114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="134"/>
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="113"/>
-      <c r="D46" s="26"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="112" t="s">
+      <c r="C47" s="134"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="113"/>
-      <c r="D47" s="26"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="112" t="s">
+      <c r="C48" s="134"/>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="113"/>
-      <c r="D48" s="26"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="112" t="s">
+      <c r="C49" s="134"/>
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="113"/>
-      <c r="D49" s="27"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="112" t="s">
-        <v>166</v>
-      </c>
-      <c r="C50" s="113"/>
+      <c r="C50" s="134"/>
       <c r="D50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4709,16 +4488,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4750,7 +4532,7 @@
     <row r="2" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -4764,11 +4546,11 @@
       <c r="F3" s="31"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.5">
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
     </row>
     <row r="5" spans="2:24" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="32"/>
@@ -4783,16 +4565,16 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
-      <c r="G6" s="146" t="s">
-        <v>168</v>
-      </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="148"/>
-      <c r="V6" s="146" t="s">
+      <c r="G6" s="150" t="s">
+        <v>167</v>
+      </c>
+      <c r="H6" s="151"/>
+      <c r="I6" s="152"/>
+      <c r="V6" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="W6" s="147"/>
-      <c r="X6" s="148"/>
+      <c r="W6" s="151"/>
+      <c r="X6" s="152"/>
     </row>
     <row r="7" spans="2:24" ht="18" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="34"/>
@@ -4807,18 +4589,18 @@
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="137">
+      <c r="G8" s="141">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
-      <c r="V8" s="137">
+      <c r="H8" s="142"/>
+      <c r="I8" s="143"/>
+      <c r="V8" s="141">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="138"/>
-      <c r="X8" s="139"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="143"/>
     </row>
     <row r="9" spans="2:24" ht="91.05" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="33"/>
@@ -4826,12 +4608,12 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="142"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="142"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="146"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="34"/>
@@ -4839,12 +4621,12 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="142"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="146"/>
+      <c r="V10" s="144"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="146"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="34"/>
@@ -4852,19 +4634,19 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="145"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="149"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="148"/>
+      <c r="X11" s="149"/>
     </row>
     <row r="12" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.5">
       <c r="B13" s="35"/>
@@ -4888,11 +4670,11 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:24" ht="16.05" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B17" s="35"/>
@@ -4940,18 +4722,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="3:11" x14ac:dyDescent="0.5">
-      <c r="D41" s="150" t="s">
+      <c r="D41" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="150" t="s">
+      <c r="E41" s="138"/>
+      <c r="F41" s="138"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="152"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="138"/>
+      <c r="K41" s="139"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.5">
       <c r="D42" s="39" t="s">
@@ -4981,7 +4763,7 @@
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C43" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D43" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F5:F14,'Security Requirements - Android'!B79)</f>
@@ -5018,7 +4800,7 @@
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C44" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F16:F27,'Security Requirements - Android'!B79)</f>
@@ -5055,7 +4837,7 @@
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C45" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F29:F34,'Security Requirements - Android'!B79)</f>
@@ -5092,7 +4874,7 @@
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C46" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F36:F46,'Security Requirements - Android'!B79)</f>
@@ -5129,7 +4911,7 @@
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C47" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F48:F53,'Security Requirements - Android'!B79)</f>
@@ -5166,7 +4948,7 @@
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C48" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D48" s="41">
         <f>COUNTIFS('Security Requirements - Android'!F55:F62,'Security Requirements - Android'!B79)</f>
@@ -5203,7 +4985,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C49" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="44">
         <f>COUNTIFS('Security Requirements - Android'!F64:F72,'Security Requirements - Android'!B79)</f>
@@ -5240,7 +5022,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.5">
       <c r="C50" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50" s="41">
         <f>COUNTIFS('Anti-RE - Android'!E4:E18,'Security Requirements - Android'!B79)</f>
@@ -5277,6 +5059,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
@@ -5284,8 +5068,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="V6:X6"/>
-    <mergeCell ref="V8:X11"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <conditionalFormatting sqref="F14">
@@ -5348,7 +5130,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="153" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="153"/>
       <c r="D1" s="153"/>
@@ -5363,23 +5145,23 @@
         <v>0</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="154" t="s">
         <v>184</v>
-      </c>
-      <c r="G3" s="154" t="s">
-        <v>185</v>
       </c>
       <c r="H3" s="154"/>
       <c r="I3" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -5387,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -5401,7 +5183,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>3</v>
@@ -5421,7 +5203,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>3</v>
@@ -5441,7 +5223,7 @@
         <v>111</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>3</v>
@@ -5461,7 +5243,7 @@
         <v>110</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>3</v>
@@ -5481,7 +5263,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="59" t="s">
@@ -5501,7 +5283,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="59" t="s">
@@ -5521,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="59" t="s">
@@ -5541,7 +5323,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="59" t="s">
@@ -5561,7 +5343,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="59" t="s">
@@ -5581,7 +5363,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="59" t="s">
@@ -5601,7 +5383,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="68"/>
@@ -5610,12 +5392,12 @@
       <c r="H15" s="66"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>3</v>
@@ -5628,8 +5410,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="62"/>
@@ -5639,7 +5421,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="59"/>
@@ -5648,8 +5430,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-local-storage-for-sensitive-data"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Storage for Sensitive Data")</f>
+        <v>Testing Local Storage for Sensitive Data</v>
       </c>
       <c r="H17" s="71"/>
       <c r="I17" s="72"/>
@@ -5659,7 +5441,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>3</v>
@@ -5672,8 +5454,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-logs-for-sensitive-data"),
-"Testing For Sensitive Data in Logs")</f>
-        <v>Testing For Sensitive Data in Logs</v>
+"Testing Logs for Sensitive Data")</f>
+        <v>Testing Logs for Sensitive Data</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="62"/>
@@ -5683,7 +5465,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>3</v>
@@ -5696,18 +5478,18 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
-"Testing Whether Sensitive Data Is Sent To Third Parties")</f>
-        <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
+"Determining Whether Sensitive Data is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data is Sent to Third Parties</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="62"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:9" ht="38.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="107" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>3</v>
@@ -5720,18 +5502,18 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-the-keyboard-cache-is-disabled-for-text-input-fields"),
-"Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
-        <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+"Determining Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
+        <v>Determining Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="62"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:9" ht="38.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="107" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>3</v>
@@ -5744,8 +5526,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#determining-whether-sensitive-stored-data-has-been-exposed-via-ipc-mechanisms"),
-"Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
-        <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+"Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Stored Data Has Been Exposed via IPC Mechanisms</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="62"/>
@@ -5755,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>3</v>
@@ -5768,8 +5550,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosure-through-the-user-interface"),
-"Testing for Sensitive Data Disclosure Through the User Interface")</f>
-        <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
+"Checking for Sensitive Data Disclosure Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosure Through the User Interface</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="62"/>
@@ -5779,7 +5561,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="59" t="s">
@@ -5792,8 +5574,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
-"Testing for Sensitive Data in Backups")</f>
-        <v>Testing for Sensitive Data in Backups</v>
+"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="62"/>
@@ -5803,7 +5585,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="59" t="s">
@@ -5816,8 +5598,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#finding-sensitive-information-in-auto-generated-screenshots"),
-"Testing for Sensitive Information in Auto-Generated Screenshots")</f>
-        <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
+"Finding Sensitive Information in Auto-Generated Screenshots")</f>
+        <v>Finding Sensitive Information in Auto-Generated Screenshots</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="62"/>
@@ -5827,7 +5609,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="59" t="s">
@@ -5840,8 +5622,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05d-Testing-Data-Storage.md#checking-memory-for-sensitive-data"),
-"Testing for Sensitive Data in Memory")</f>
-        <v>Testing for Sensitive Data in Memory</v>
+"Checking Memory for Sensitive Data")</f>
+        <v>Checking Memory for Sensitive Data</v>
       </c>
       <c r="H25" s="70"/>
       <c r="I25" s="62"/>
@@ -5851,7 +5633,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="59" t="s">
@@ -5875,7 +5657,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="59" t="s">
@@ -5888,8 +5670,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04i-Testing-user-interaction.md#testing-user-education"),
-"Testing user education")</f>
-        <v>Testing user education</v>
+"Testing User Education")</f>
+        <v>Testing User Education</v>
       </c>
       <c r="H27" s="70"/>
       <c r="I27" s="62"/>
@@ -5899,7 +5681,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="68"/>
@@ -5913,7 +5695,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>3</v>
@@ -5926,8 +5708,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H29" s="70"/>
       <c r="I29" s="62"/>
@@ -5937,7 +5719,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>3</v>
@@ -5950,18 +5732,18 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#cryptography-for-mobile-apps"),
-"Testing for Custom Implementations of Cryptography")</f>
-        <v>Testing for Custom Implementations of Cryptography</v>
+"Cryptography for Mobile Apps")</f>
+        <v>Cryptography for Mobile Apps</v>
       </c>
       <c r="H30" s="70"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>3</v>
@@ -5985,7 +5767,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>3</v>
@@ -5998,8 +5780,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
-"Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
+"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
       <c r="H32" s="70"/>
       <c r="I32" s="62"/>
@@ -6009,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="D33" s="58" t="s">
         <v>3</v>
@@ -6022,8 +5804,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H33" s="70"/>
       <c r="I33" s="62"/>
@@ -6033,7 +5815,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>3</v>
@@ -6057,7 +5839,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="68"/>
@@ -6071,7 +5853,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>3</v>
@@ -6084,8 +5866,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
-"Verifying that Users Are Properly Authenticated")</f>
-        <v>Verifying that Users Are Properly Authenticated</v>
+"Testing Authentication")</f>
+        <v>Testing Authentication</v>
       </c>
       <c r="H36" s="70"/>
       <c r="I36" s="62"/>
@@ -6095,7 +5877,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>3</v>
@@ -6114,12 +5896,12 @@
       <c r="H37" s="70"/>
       <c r="I37" s="62"/>
     </row>
-    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="D38" s="58" t="s">
         <v>3</v>
@@ -6132,8 +5914,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
-"Testing Stateless Authentication")</f>
-        <v>Testing Stateless Authentication</v>
+"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
       <c r="H38" s="70"/>
       <c r="I38" s="62"/>
@@ -6144,7 +5926,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="59"/>
@@ -6153,8 +5935,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
-"Testing the Logout Functionality")</f>
-        <v>Testing the Logout Functionality</v>
+"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
       </c>
       <c r="H39" s="70"/>
       <c r="I39" s="62"/>
@@ -6165,7 +5947,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="D40" s="58" t="s">
         <v>3</v>
@@ -6178,8 +5960,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
-"Testing the Password Policy")</f>
-        <v>Testing the Password Policy</v>
+"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
       </c>
       <c r="H40" s="70"/>
       <c r="I40" s="62"/>
@@ -6189,7 +5971,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>3</v>
@@ -6202,8 +5984,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
-"Testing Excessive Login Attempts")</f>
-        <v>Testing Excessive Login Attempts</v>
+"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
       </c>
       <c r="H41" s="70"/>
       <c r="I41" s="62"/>
@@ -6213,7 +5995,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>3</v>
@@ -6226,8 +6008,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
-"Testing the Session Timeout")</f>
-        <v>Testing the Session Timeout</v>
+"Session Timeout")</f>
+        <v>Session Timeout</v>
       </c>
       <c r="H42" s="70"/>
       <c r="I42" s="76"/>
@@ -6237,7 +6019,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="D43" s="73"/>
       <c r="E43" s="59" t="s">
@@ -6261,7 +6043,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="D44" s="73"/>
       <c r="E44" s="59" t="s">
@@ -6274,8 +6056,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
-"Testing 2-Factor Authentication")</f>
-        <v>Testing 2-Factor Authentication</v>
+"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="62"/>
@@ -6285,7 +6067,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="D45" s="73"/>
       <c r="E45" s="59" t="s">
@@ -6298,8 +6080,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
-"Testing Step-up Authentication")</f>
-        <v>Testing Step-up Authentication</v>
+"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
       <c r="H45" s="70"/>
       <c r="I45" s="62"/>
@@ -6309,7 +6091,7 @@
         <v>91</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="D46" s="73"/>
       <c r="E46" s="59" t="s">
@@ -6323,8 +6105,8 @@
 CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Testing Login Activity and Device Blocking")</f>
-        <v>Testing Login Activity and Device Blocking</v>
+"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="62"/>
@@ -6334,7 +6116,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D47" s="67"/>
       <c r="E47" s="68"/>
@@ -6343,12 +6125,12 @@
       <c r="H47" s="66"/>
       <c r="I47" s="69"/>
     </row>
-    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="107" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>3</v>
@@ -6361,8 +6143,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
-"Testing for Unencrypted Sensitive Data on the Network")</f>
-        <v>Testing for Unencrypted Sensitive Data on the Network</v>
+"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
       </c>
       <c r="H48" s="70"/>
       <c r="I48" s="62"/>
@@ -6372,7 +6154,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>3</v>
@@ -6385,8 +6167,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
-"Verifying the TLS Settings")</f>
-        <v>Verifying the TLS Settings</v>
+"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
       </c>
       <c r="H49" s="70"/>
       <c r="I49" s="62"/>
@@ -6396,7 +6178,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>3</v>
@@ -6420,7 +6202,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="D51" s="73"/>
       <c r="E51" s="59" t="s">
@@ -6433,18 +6215,18 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and SSL Pinning")</f>
-        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H51" s="70"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:9" ht="38.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="107" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="74" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D52" s="73"/>
       <c r="E52" s="59" t="s">
@@ -6457,8 +6239,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Verifying that Critical Operations Use Secure Communication Channels")</f>
-        <v>Verifying that Critical Operations Use Secure Communication Channels</v>
+"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
       <c r="H52" s="70"/>
       <c r="I52" s="62"/>
@@ -6468,7 +6250,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="59" t="s">
@@ -6481,8 +6263,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05g-Testing-Network-Communication.md#testing-the-security-provider"),
-"Verifying the Security Provider")</f>
-        <v>Verifying the Security Provider</v>
+"Testing the Security Provider")</f>
+        <v>Testing the Security Provider</v>
       </c>
       <c r="H53" s="70"/>
       <c r="I53" s="62"/>
@@ -6492,7 +6274,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="68"/>
@@ -6506,7 +6288,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D55" s="58" t="s">
         <v>3</v>
@@ -6530,7 +6312,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="D56" s="58" t="s">
         <v>3</v>
@@ -6543,8 +6325,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Testing Input Validation and Sanitization")</f>
-        <v>Testing Input Validation and Sanitization</v>
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
       </c>
       <c r="H56" s="70"/>
       <c r="I56" s="62"/>
@@ -6554,7 +6336,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="74" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="D57" s="58" t="s">
         <v>3</v>
@@ -6578,7 +6360,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="D58" s="58" t="s">
         <v>3</v>
@@ -6591,8 +6373,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Testing For Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing For Sensitive Functionality Exposure Through IPC</v>
+"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
       <c r="H58" s="70"/>
       <c r="I58" s="62"/>
@@ -6602,7 +6384,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="74" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="D59" s="58" t="s">
         <v>3</v>
@@ -6626,7 +6408,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D60" s="58" t="s">
         <v>3</v>
@@ -6650,7 +6432,7 @@
         <v>104</v>
       </c>
       <c r="C61" s="74" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="D61" s="58" t="s">
         <v>3</v>
@@ -6663,8 +6445,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#determining-whether-java-objects-are-exposed-through-webviews"),
-"Testing Whether Java Objects Are Exposed Through WebViews")</f>
-        <v>Testing Whether Java Objects Are Exposed Through WebViews</v>
+"Determining Whether Java Objects Are Exposed Through WebViews")</f>
+        <v>Determining Whether Java Objects Are Exposed Through WebViews</v>
       </c>
       <c r="H61" s="70"/>
       <c r="I61" s="62"/>
@@ -6674,7 +6456,7 @@
         <v>103</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D62" s="58" t="s">
         <v>3</v>
@@ -6687,8 +6469,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05h-Testing-Platform-Interaction.md#testing-object-persistence"),
-"Testing Object (De-)Serialization")</f>
-        <v>Testing Object (De-)Serialization</v>
+"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
       </c>
       <c r="H62" s="70"/>
       <c r="I62" s="62"/>
@@ -6698,7 +6480,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="D63" s="67"/>
       <c r="E63" s="68"/>
@@ -6712,7 +6494,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="D64" s="58" t="s">
         <v>3</v>
@@ -6725,8 +6507,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
-"Verifying That the App is Properly Signed")</f>
-        <v>Verifying That the App is Properly Signed</v>
+"Making Sure That the App is Properly Signed")</f>
+        <v>Making Sure That the App is Properly Signed</v>
       </c>
       <c r="H64" s="70"/>
       <c r="I64" s="62"/>
@@ -6736,7 +6518,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="D65" s="58" t="s">
         <v>3</v>
@@ -6749,8 +6531,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
-"Testing If the App is Debuggable")</f>
-        <v>Testing If the App is Debuggable</v>
+"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
       </c>
       <c r="H65" s="70"/>
       <c r="I65" s="62"/>
@@ -6760,7 +6542,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D66" s="58" t="s">
         <v>3</v>
@@ -6773,8 +6555,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
-"Testing for Debugging Symbols")</f>
-        <v>Testing for Debugging Symbols</v>
+"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
       </c>
       <c r="H66" s="70"/>
       <c r="I66" s="62"/>
@@ -6784,7 +6566,7 @@
         <v>58</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="D67" s="58" t="s">
         <v>3</v>
@@ -6797,8 +6579,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
-"Testing for Debugging Code and Verbose Error Logging")</f>
-        <v>Testing for Debugging Code and Verbose Error Logging</v>
+"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
       <c r="H67" s="70"/>
       <c r="I67" s="62"/>
@@ -6808,7 +6590,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="D68" s="58" t="s">
         <v>3</v>
@@ -6821,8 +6603,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Testing for Weaknesses in Third Party Libraries")</f>
-        <v>Testing for Weaknesses in Third Party Libraries</v>
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
       <c r="H68" s="77"/>
       <c r="I68" s="62"/>
@@ -6832,7 +6614,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="D69" s="58" t="s">
         <v>3</v>
@@ -6856,7 +6638,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="D70" s="58" t="s">
         <v>3</v>
@@ -6869,8 +6651,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing  Error Handling in Security Controls")</f>
-        <v>Testing  Error Handling in Security Controls</v>
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H70" s="70"/>
       <c r="I70" s="62"/>
@@ -6880,7 +6662,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="D71" s="58" t="s">
         <v>3</v>
@@ -6893,8 +6675,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#memory-corruption-bugs"),
-"Testing for Memory Management Bugs")</f>
-        <v>Testing for Memory Management Bugs</v>
+"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
       </c>
       <c r="H71" s="70"/>
       <c r="I71" s="79"/>
@@ -6905,7 +6687,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="57" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="D72" s="58" t="s">
         <v>3</v>
@@ -6918,8 +6700,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
-"Verifying usage of Free Security Features")</f>
-        <v>Verifying usage of Free Security Features</v>
+"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
       </c>
       <c r="H72" s="70"/>
       <c r="I72" s="62"/>
@@ -6966,7 +6748,7 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="86" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="C77" s="61"/>
       <c r="D77" s="38"/>
@@ -6978,10 +6760,10 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="87" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C78" s="88" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="D78" s="38"/>
       <c r="E78" s="38"/>
@@ -6995,7 +6777,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="D79" s="38"/>
       <c r="E79" s="38"/>
@@ -7009,7 +6791,7 @@
         <v>69</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="D80" s="38"/>
       <c r="E80" s="38"/>
@@ -7023,7 +6805,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -7117,7 +6899,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B1" s="91" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="38"/>
@@ -7138,25 +6920,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="65"/>
       <c r="C4" s="66" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
@@ -7168,7 +6950,7 @@
         <v>113</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>3</v>
@@ -7185,12 +6967,12 @@
       </c>
       <c r="G5" s="62"/>
     </row>
-    <row r="6" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="107" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="D6" s="92" t="s">
         <v>3</v>
@@ -7203,8 +6985,8 @@
 CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-anti-debugging"),
-"Testing Debugging Defenses")</f>
-        <v>Testing Debugging Defenses</v>
+"Testing Anti-Debugging")</f>
+        <v>Testing Anti-Debugging</v>
       </c>
       <c r="G6" s="62"/>
     </row>
@@ -7213,7 +6995,7 @@
         <v>115</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>3</v>
@@ -7230,12 +7012,12 @@
       </c>
       <c r="G7" s="62"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" ht="38.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="107" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>3</v>
@@ -7247,8 +7029,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-the-detection-of-reverse-engineering-tools"),
-"Testing Detection of Reverse Engineering Tools")</f>
-        <v>Testing Detection of Reverse Engineering Tools</v>
+"Testing The Detection of Reverse Engineering Tools")</f>
+        <v>Testing The Detection of Reverse Engineering Tools</v>
       </c>
       <c r="G8" s="62"/>
     </row>
@@ -7257,7 +7039,7 @@
         <v>117</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>3</v>
@@ -7269,8 +7051,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-emulator-detection"),
-"Testing Simple Emulator Detection")</f>
-        <v>Testing Simple Emulator Detection</v>
+"Testing Emulator Detection")</f>
+        <v>Testing Emulator Detection</v>
       </c>
       <c r="G9" s="62"/>
     </row>
@@ -7279,7 +7061,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>3</v>
@@ -7291,8 +7073,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-run-time-integrity-checks"),
-"Testing Run-Time Integrity Checks")</f>
-        <v>Testing Run-Time Integrity Checks</v>
+"Testing Run Time Integrity Checks")</f>
+        <v>Testing Run Time Integrity Checks</v>
       </c>
       <c r="G10" s="62"/>
     </row>
@@ -7301,7 +7083,7 @@
         <v>119</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>3</v>
@@ -7319,7 +7101,7 @@
         <v>120</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>3</v>
@@ -7337,7 +7119,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>3</v>
@@ -7349,15 +7131,15 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x05j-Testing-Resiliency-Against-Reverse-Engineering.md#testing-obfuscation"),
-"Testing Simple Obfuscation")</f>
-        <v>Testing Simple Obfuscation</v>
+"Testing Obfuscation")</f>
+        <v>Testing Obfuscation</v>
       </c>
       <c r="G13" s="62"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="65"/>
       <c r="C14" s="66" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -7369,7 +7151,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D15" s="92" t="s">
         <v>3</v>
@@ -7389,7 +7171,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="65"/>
       <c r="C16" s="66" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -7401,7 +7183,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>3</v>
@@ -7423,7 +7205,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="D18" s="92" t="s">
         <v>3</v>
@@ -7462,7 +7244,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="86" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="38"/>
@@ -7472,10 +7254,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="87" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -7487,7 +7269,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -7499,7 +7281,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -7511,7 +7293,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="38"/>
@@ -7580,7 +7362,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B1" s="93" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -7588,23 +7370,23 @@
         <v>0</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="E3" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="F3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="G3" s="154" t="s">
         <v>184</v>
-      </c>
-      <c r="G3" s="154" t="s">
-        <v>185</v>
       </c>
       <c r="H3" s="155"/>
       <c r="I3" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
@@ -7612,7 +7394,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55"/>
@@ -7626,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>3</v>
@@ -7646,7 +7428,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>3</v>
@@ -7666,7 +7448,7 @@
         <v>111</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="D7" s="58" t="s">
         <v>3</v>
@@ -7686,7 +7468,7 @@
         <v>110</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>3</v>
@@ -7706,7 +7488,7 @@
         <v>109</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="59" t="s">
@@ -7726,7 +7508,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="59" t="s">
@@ -7746,7 +7528,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="59" t="s">
@@ -7766,7 +7548,7 @@
         <v>107</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="59" t="s">
@@ -7786,7 +7568,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="59" t="s">
@@ -7806,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="59" t="s">
@@ -7826,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D15" s="67"/>
       <c r="E15" s="68"/>
@@ -7835,12 +7617,12 @@
       <c r="H15" s="66"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="D16" s="58" t="s">
         <v>3</v>
@@ -7853,8 +7635,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="62"/>
@@ -7864,7 +7646,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="59"/>
@@ -7873,8 +7655,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-local-data-storage"),
-"Testing For Sensitive Data in Local Data Storage")</f>
-        <v>Testing For Sensitive Data in Local Data Storage</v>
+"Testing Local Data Storage")</f>
+        <v>Testing Local Data Storage</v>
       </c>
       <c r="H17" s="74"/>
       <c r="I17" s="62"/>
@@ -7884,7 +7666,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>3</v>
@@ -7897,8 +7679,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-logs-for-sensitive-data"),
-"Testing For Sensitive Data in Logs")</f>
-        <v>Testing For Sensitive Data in Logs</v>
+"Checking Logs for Sensitive Data")</f>
+        <v>Checking Logs for Sensitive Data</v>
       </c>
       <c r="H18" s="74"/>
       <c r="I18" s="62"/>
@@ -7908,7 +7690,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>3</v>
@@ -7921,8 +7703,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-sent-to-third-parties"),
-"Testing Whether Sensitive Data Is Sent To Third Parties")</f>
-        <v>Testing Whether Sensitive Data Is Sent To Third Parties</v>
+"Determining Whether Sensitive Data Is Sent to Third Parties")</f>
+        <v>Determining Whether Sensitive Data Is Sent to Third Parties</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="62"/>
@@ -7932,7 +7714,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>3</v>
@@ -7945,8 +7727,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#finding-sensitive-data-in-the-keyboard-cache"),
-"Testing Whether the Keyboard Cache Is Disabled for Text Input Fields")</f>
-        <v>Testing Whether the Keyboard Cache Is Disabled for Text Input Fields</v>
+"Finding Sensitive Data in the Keyboard Cache")</f>
+        <v>Finding Sensitive Data in the Keyboard Cache</v>
       </c>
       <c r="H20" s="74"/>
       <c r="I20" s="62"/>
@@ -7956,7 +7738,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>3</v>
@@ -7969,8 +7751,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#determining-whether-sensitive-data-is-exposed-via-ipc-mechanisms"),
-"Testing Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
-        <v>Testing Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
+"Determining Whether Sensitive Data Is Exposed via IPC Mechanisms")</f>
+        <v>Determining Whether Sensitive Data Is Exposed via IPC Mechanisms</v>
       </c>
       <c r="H21" s="74"/>
       <c r="I21" s="62"/>
@@ -7980,7 +7762,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>3</v>
@@ -7993,8 +7775,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#checking-for-sensitive-data-disclosed-through-the-user-interface"),
-"Testing for Sensitive Data Disclosure Through the User Interface")</f>
-        <v>Testing for Sensitive Data Disclosure Through the User Interface</v>
+"Checking for Sensitive Data Disclosed Through the User Interface")</f>
+        <v>Checking for Sensitive Data Disclosed Through the User Interface</v>
       </c>
       <c r="H22" s="74"/>
       <c r="I22" s="62"/>
@@ -8004,7 +7786,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D23" s="73"/>
       <c r="E23" s="59" t="s">
@@ -8017,8 +7799,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-backups-for-sensitive-data"),
-"Testing for Sensitive Data in Backups")</f>
-        <v>Testing for Sensitive Data in Backups</v>
+"Testing Backups for Sensitive Data")</f>
+        <v>Testing Backups for Sensitive Data</v>
       </c>
       <c r="H23" s="74"/>
       <c r="I23" s="62"/>
@@ -8028,7 +7810,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="D24" s="73"/>
       <c r="E24" s="59" t="s">
@@ -8041,8 +7823,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-auto-generated-screenshots-for-sensitive-information"),
-"Testing for Sensitive Information in Auto-Generated Screenshots")</f>
-        <v>Testing for Sensitive Information in Auto-Generated Screenshots</v>
+"Testing Auto-Generated Screenshots for Sensitive Information")</f>
+        <v>Testing Auto-Generated Screenshots for Sensitive Information</v>
       </c>
       <c r="H24" s="74"/>
       <c r="I24" s="62"/>
@@ -8052,7 +7834,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="D25" s="73"/>
       <c r="E25" s="59" t="s">
@@ -8065,8 +7847,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06d-Testing-Data-Storage.md#testing-memory-for-sensitive-data"),
-"Testing for Sensitive Data in Memory")</f>
-        <v>Testing for Sensitive Data in Memory</v>
+"Testing Memory for Sensitive Data")</f>
+        <v>Testing Memory for Sensitive Data</v>
       </c>
       <c r="H25" s="74"/>
       <c r="I25" s="62"/>
@@ -8076,7 +7858,7 @@
         <v>43</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="D26" s="73"/>
       <c r="E26" s="59" t="s">
@@ -8089,8 +7871,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#local-authentication-on-ios"),
-"Testing Local Authentication")</f>
-        <v>Testing Local Authentication</v>
+"Local Authentication on iOS")</f>
+        <v>Local Authentication on iOS</v>
       </c>
       <c r="H26" s="74"/>
       <c r="I26" s="62"/>
@@ -8101,7 +7883,7 @@
         <v>13</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="D27" s="73"/>
       <c r="E27" s="59" t="s">
@@ -8114,8 +7896,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04i-Testing-user-interaction.md#testing-user-education"),
-"Testing user education")</f>
-        <v>Testing user education</v>
+"Testing User Education")</f>
+        <v>Testing User Education</v>
       </c>
       <c r="H27" s="74"/>
       <c r="I27" s="62"/>
@@ -8126,7 +7908,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="66" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="68"/>
@@ -8140,7 +7922,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>3</v>
@@ -8153,8 +7935,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H29" s="74"/>
       <c r="I29" s="62"/>
@@ -8164,7 +7946,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>3</v>
@@ -8177,18 +7959,18 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#custom-implementations-of-cryptography"),
-"Testing for Custom Implementations of Cryptography")</f>
-        <v>Testing for Custom Implementations of Cryptography</v>
+"Custom Implementations of Cryptography")</f>
+        <v>Custom Implementations of Cryptography</v>
       </c>
       <c r="H30" s="74"/>
       <c r="I30" s="62"/>
     </row>
-    <row r="31" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>3</v>
@@ -8212,7 +7994,7 @@
         <v>18</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>3</v>
@@ -8225,8 +8007,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04g-Testing-Cryptography.md#identifying-insecure-andor-deprecated-cryptographic-algorithms"),
-"Testing for Insecure and/or Deprecated Cryptographic Algorithms")</f>
-        <v>Testing for Insecure and/or Deprecated Cryptographic Algorithms</v>
+"Identifying Insecure and/or Deprecated Cryptographic Algorithms")</f>
+        <v>Identifying Insecure and/or Deprecated Cryptographic Algorithms</v>
       </c>
       <c r="H32" s="74"/>
       <c r="I32" s="62"/>
@@ -8236,7 +8018,7 @@
         <v>19</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="D33" s="58" t="s">
         <v>3</v>
@@ -8249,8 +8031,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06e-Testing-Cryptography.md#testing-key-management"),
-"Verifying Key Management")</f>
-        <v>Verifying Key Management</v>
+"Testing Key Management")</f>
+        <v>Testing Key Management</v>
       </c>
       <c r="H33" s="74"/>
       <c r="I33" s="62"/>
@@ -8260,7 +8042,7 @@
         <v>20</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="D34" s="58" t="s">
         <v>3</v>
@@ -8284,7 +8066,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="68"/>
@@ -8298,7 +8080,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>3</v>
@@ -8311,8 +8093,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-authentication"),
-"Verifying that Users Are Properly Authenticated")</f>
-        <v>Verifying that Users Are Properly Authenticated</v>
+"Testing Authentication")</f>
+        <v>Testing Authentication</v>
       </c>
       <c r="H36" s="74"/>
       <c r="I36" s="62"/>
@@ -8322,7 +8104,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="74" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>3</v>
@@ -8341,12 +8123,12 @@
       <c r="H37" s="74"/>
       <c r="I37" s="62"/>
     </row>
-    <row r="38" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="107" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="74" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="D38" s="58" t="s">
         <v>3</v>
@@ -8359,8 +8141,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#testing-stateless-token-based-authentication"),
-"Testing Stateless Authentication")</f>
-        <v>Testing Stateless Authentication</v>
+"Testing Stateless (Token-Based) Authentication")</f>
+        <v>Testing Stateless (Token-Based) Authentication</v>
       </c>
       <c r="H38" s="74"/>
       <c r="I38" s="62"/>
@@ -8370,7 +8152,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="74" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="59"/>
@@ -8380,8 +8162,8 @@
 CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#user-logout-and-session-timeouts"),
-"Testing the Logout Functionality")</f>
-        <v>Testing the Logout Functionality</v>
+"User Logout and Session Timeouts")</f>
+        <v>User Logout and Session Timeouts</v>
       </c>
       <c r="H39" s="74"/>
       <c r="I39" s="62"/>
@@ -8392,7 +8174,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="74" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="D40" s="58" t="s">
         <v>3</v>
@@ -8405,8 +8187,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#best-practices-for-passwords"),
-"Testing the Password Policy")</f>
-        <v>Testing the Password Policy</v>
+"Best Practices for Passwords")</f>
+        <v>Best Practices for Passwords</v>
       </c>
       <c r="H40" s="74"/>
       <c r="I40" s="62"/>
@@ -8417,7 +8199,7 @@
         <v>46</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>3</v>
@@ -8430,8 +8212,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#running-a-password-dictionary-attack"),
-"Testing Excessive Login Attempts")</f>
-        <v>Testing Excessive Login Attempts</v>
+"Running a Password Dictionary Attack")</f>
+        <v>Running a Password Dictionary Attack</v>
       </c>
       <c r="H41" s="74"/>
       <c r="I41" s="62"/>
@@ -8441,7 +8223,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="74" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>3</v>
@@ -8454,8 +8236,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#session-timeout"),
-"Testing the Session Timeout")</f>
-        <v>Testing the Session Timeout</v>
+"Session Timeout")</f>
+        <v>Session Timeout</v>
       </c>
       <c r="H42" s="97"/>
       <c r="I42" s="76"/>
@@ -8465,7 +8247,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="D43" s="73"/>
       <c r="E43" s="59" t="s">
@@ -8478,8 +8260,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06f-Testing-Local-Authentication.md#testing-local-authentication"),
-"Testing Biometric Authentication")</f>
-        <v>Testing Biometric Authentication</v>
+"Testing Local Authentication")</f>
+        <v>Testing Local Authentication</v>
       </c>
       <c r="H43" s="74"/>
       <c r="I43" s="62"/>
@@ -8489,7 +8271,7 @@
         <v>26</v>
       </c>
       <c r="C44" s="74" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="D44" s="73"/>
       <c r="E44" s="59" t="s">
@@ -8502,8 +8284,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#verifying-that-2fa-is-enforced"),
-"Testing 2-Factor Authentication")</f>
-        <v>Testing 2-Factor Authentication</v>
+"Verifying that 2FA is Enforced")</f>
+        <v>Verifying that 2FA is Enforced</v>
       </c>
       <c r="H44" s="74"/>
       <c r="I44" s="62"/>
@@ -8513,7 +8295,7 @@
         <v>27</v>
       </c>
       <c r="C45" s="74" t="s">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="D45" s="73"/>
       <c r="E45" s="59" t="s">
@@ -8526,8 +8308,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#2-factor-authentication-and-step-up-authentication"),
-"Testing Step-up Authentication")</f>
-        <v>Testing Step-up Authentication</v>
+"2-Factor Authentication and Step-up Authentication")</f>
+        <v>2-Factor Authentication and Step-up Authentication</v>
       </c>
       <c r="H45" s="74"/>
       <c r="I45" s="62"/>
@@ -8537,7 +8319,7 @@
         <v>91</v>
       </c>
       <c r="C46" s="74" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="D46" s="73"/>
       <c r="E46" s="59" t="s">
@@ -8550,8 +8332,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04e-Testing-Authentication-and-Session-Management.md#login-activity-and-device-blocking"),
-"Testing Login Activity and Device Blocking")</f>
-        <v>Testing Login Activity and Device Blocking</v>
+"Login Activity and Device Blocking")</f>
+        <v>Login Activity and Device Blocking</v>
       </c>
       <c r="H46" s="74"/>
       <c r="I46" s="62"/>
@@ -8561,7 +8343,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="66" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="D47" s="67"/>
       <c r="E47" s="68"/>
@@ -8570,12 +8352,12 @@
       <c r="H47" s="66"/>
       <c r="I47" s="69"/>
     </row>
-    <row r="48" spans="2:11" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="107" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="74" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="D48" s="58" t="s">
         <v>3</v>
@@ -8588,15 +8370,15 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#verifying-data-encryption-on-the-network"),
-"Testing for Unencrypted Sensitive Data on the Network")</f>
-        <v>Testing for Unencrypted Sensitive Data on the Network</v>
+"Verifying Data Encryption on the Network")</f>
+        <v>Verifying Data Encryption on the Network</v>
       </c>
       <c r="H48" s="77" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#app-transport-security"),
-"App Transport Security (ATS)")</f>
-        <v>App Transport Security (ATS)</v>
+"App Transport Security")</f>
+        <v>App Transport Security</v>
       </c>
       <c r="I48" s="78"/>
     </row>
@@ -8605,7 +8387,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="D49" s="58" t="s">
         <v>3</v>
@@ -8618,15 +8400,15 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#recommended-tls-settings"),
-"Verifying the TLS Settings")</f>
-        <v>Verifying the TLS Settings</v>
+"Recommended TLS Settings")</f>
+        <v>Recommended TLS Settings</v>
       </c>
       <c r="H49" s="77" t="str">
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#app-transport-security"),
-"App Transport Security (ATS)")</f>
-        <v>App Transport Security (ATS)</v>
+"App Transport Security")</f>
+        <v>App Transport Security</v>
       </c>
       <c r="I49" s="78"/>
     </row>
@@ -8635,7 +8417,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="74" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="D50" s="58" t="s">
         <v>3</v>
@@ -8648,8 +8430,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and SSL Pinning")</f>
-        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H50" s="77"/>
       <c r="I50" s="78"/>
@@ -8659,7 +8441,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="D51" s="73"/>
       <c r="E51" s="59" t="s">
@@ -8672,18 +8454,18 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06g-Testing-Network-Communication.md#testing-custom-certificate-stores-and-certificate-pinning"),
-"Testing Custom Certificate Stores and SSL Pinning")</f>
-        <v>Testing Custom Certificate Stores and SSL Pinning</v>
+"Testing Custom Certificate Stores and Certificate Pinning")</f>
+        <v>Testing Custom Certificate Stores and Certificate Pinning</v>
       </c>
       <c r="H51" s="74"/>
       <c r="I51" s="62"/>
     </row>
-    <row r="52" spans="2:9" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="2:9" ht="38.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="107" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="74" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D52" s="73"/>
       <c r="E52" s="59" t="s">
@@ -8696,8 +8478,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04f-Testing-Network-Communication.md#making-sure-that-critical-operations-use-secure-communication-channels"),
-"Verifying that Critical Operations Use Secure Communication Channels")</f>
-        <v>Verifying that Critical Operations Use Secure Communication Channels</v>
+"Making Sure that Critical Operations Use Secure Communication Channels")</f>
+        <v>Making Sure that Critical Operations Use Secure Communication Channels</v>
       </c>
       <c r="H52" s="74"/>
       <c r="I52" s="62"/>
@@ -8707,7 +8489,7 @@
         <v>105</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="D53" s="73"/>
       <c r="E53" s="59" t="s">
@@ -8731,7 +8513,7 @@
         <v>32</v>
       </c>
       <c r="C54" s="66" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
       <c r="D54" s="67"/>
       <c r="E54" s="68"/>
@@ -8745,7 +8527,7 @@
         <v>50</v>
       </c>
       <c r="C55" s="74" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="D55" s="58" t="s">
         <v>3</v>
@@ -8769,7 +8551,7 @@
         <v>51</v>
       </c>
       <c r="C56" s="74" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="D56" s="58" t="s">
         <v>3</v>
@@ -8782,8 +8564,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x04h-Testing-Code-Quality.md#injection-flaws"),
-"Testing Input Validation and Sanitization")</f>
-        <v>Testing Input Validation and Sanitization</v>
+"Injection Flaws")</f>
+        <v>Injection Flaws</v>
       </c>
       <c r="H56" s="74"/>
       <c r="I56" s="62"/>
@@ -8793,7 +8575,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="74" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="D57" s="58" t="s">
         <v>3</v>
@@ -8817,7 +8599,7 @@
         <v>53</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="D58" s="58" t="s">
         <v>3</v>
@@ -8830,8 +8612,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-for-sensitive-functionality-exposure-through-ipc"),
-"Testing For Sensitive Functionality Exposure Through IPC")</f>
-        <v>Testing For Sensitive Functionality Exposure Through IPC</v>
+"Testing for Sensitive Functionality Exposure Through IPC")</f>
+        <v>Testing for Sensitive Functionality Exposure Through IPC</v>
       </c>
       <c r="H58" s="74"/>
       <c r="I58" s="62"/>
@@ -8841,7 +8623,7 @@
         <v>54</v>
       </c>
       <c r="C59" s="74" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="D59" s="58" t="s">
         <v>3</v>
@@ -8854,8 +8636,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-ios-webviews"),
-"Testing JavaScript Execution in WebViews")</f>
-        <v>Testing JavaScript Execution in WebViews</v>
+"Testing iOS WebViews")</f>
+        <v>Testing iOS WebViews</v>
       </c>
       <c r="H59" s="74"/>
       <c r="I59" s="62"/>
@@ -8865,7 +8647,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="74" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D60" s="58" t="s">
         <v>3</v>
@@ -8889,7 +8671,7 @@
         <v>104</v>
       </c>
       <c r="C61" s="74" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="D61" s="58" t="s">
         <v>3</v>
@@ -8902,8 +8684,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#determining-whether-native-methods-are-exposed-through-webviews"),
-"Testing Whether Native Methods Are Exposed Through WebViews")</f>
-        <v>Testing Whether Native Methods Are Exposed Through WebViews</v>
+"Determining Whether Native Methods Are Exposed Through WebViews")</f>
+        <v>Determining Whether Native Methods Are Exposed Through WebViews</v>
       </c>
       <c r="H61" s="74"/>
       <c r="I61" s="62"/>
@@ -8913,7 +8695,7 @@
         <v>103</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D62" s="58" t="s">
         <v>3</v>
@@ -8926,8 +8708,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06h-Testing-Platform-Interaction.md#testing-object-persistence"),
-"Testing Object (De-)Serialization")</f>
-        <v>Testing Object (De-)Serialization</v>
+"Testing Object Persistence")</f>
+        <v>Testing Object Persistence</v>
       </c>
       <c r="H62" s="74"/>
       <c r="I62" s="62"/>
@@ -8937,7 +8719,7 @@
         <v>33</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="D63" s="67"/>
       <c r="E63" s="68"/>
@@ -8951,7 +8733,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="57" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="D64" s="58" t="s">
         <v>3</v>
@@ -8964,8 +8746,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#making-sure-that-the-app-is-properly-signed"),
-"Verifying That the App is Properly Signed")</f>
-        <v>Verifying That the App is Properly Signed</v>
+"Making Sure that the App Is Properly Signed")</f>
+        <v>Making Sure that the App Is Properly Signed</v>
       </c>
       <c r="H64" s="74"/>
       <c r="I64" s="62"/>
@@ -8975,7 +8757,7 @@
         <v>34</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="D65" s="58" t="s">
         <v>3</v>
@@ -8988,8 +8770,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#determining-whether-the-app-is-debuggable"),
-"Testing If the App is Debuggable")</f>
-        <v>Testing If the App is Debuggable</v>
+"Determining Whether the App is Debuggable")</f>
+        <v>Determining Whether the App is Debuggable</v>
       </c>
       <c r="H65" s="74"/>
       <c r="I65" s="62"/>
@@ -8999,7 +8781,7 @@
         <v>57</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="D66" s="58" t="s">
         <v>3</v>
@@ -9012,8 +8794,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-symbols"),
-"Testing for Debugging Symbols")</f>
-        <v>Testing for Debugging Symbols</v>
+"Finding Debugging Symbols")</f>
+        <v>Finding Debugging Symbols</v>
       </c>
       <c r="H66" s="74"/>
       <c r="I66" s="62"/>
@@ -9023,7 +8805,7 @@
         <v>58</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="D67" s="58" t="s">
         <v>3</v>
@@ -9036,8 +8818,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#finding-debugging-code-and-verbose-error-logging"),
-"Testing for Debugging Code and Verbose Error Logging")</f>
-        <v>Testing for Debugging Code and Verbose Error Logging</v>
+"Finding Debugging Code and Verbose Error Logging")</f>
+        <v>Finding Debugging Code and Verbose Error Logging</v>
       </c>
       <c r="H67" s="74"/>
       <c r="I67" s="62"/>
@@ -9047,7 +8829,7 @@
         <v>59</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="D68" s="58" t="s">
         <v>3</v>
@@ -9060,8 +8842,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#checking-for-weaknesses-in-third-party-libraries"),
-"Testing for Weaknesses in Third Party Libraries")</f>
-        <v>Testing for Weaknesses in Third Party Libraries</v>
+"Checking for Weaknesses in Third Party Libraries")</f>
+        <v>Checking for Weaknesses in Third Party Libraries</v>
       </c>
       <c r="H68" s="74"/>
       <c r="I68" s="62"/>
@@ -9071,7 +8853,7 @@
         <v>35</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="D69" s="58" t="s">
         <v>3</v>
@@ -9095,7 +8877,7 @@
         <v>36</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="D70" s="58" t="s">
         <v>3</v>
@@ -9108,8 +8890,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#testing-exception-handling"),
-"Testing  Error Handling in Security Controls")</f>
-        <v>Testing  Error Handling in Security Controls</v>
+"Testing Exception Handling")</f>
+        <v>Testing Exception Handling</v>
       </c>
       <c r="H70" s="74"/>
       <c r="I70" s="62"/>
@@ -9119,7 +8901,7 @@
         <v>37</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="D71" s="58" t="s">
         <v>3</v>
@@ -9132,8 +8914,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#memory-corruption-bugs"),
-"Testing for Memory Management Bugs")</f>
-        <v>Testing for Memory Management Bugs</v>
+"Memory Corruption Bugs")</f>
+        <v>Memory Corruption Bugs</v>
       </c>
       <c r="H71" s="74"/>
       <c r="I71" s="62"/>
@@ -9143,7 +8925,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="57" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="D72" s="58" t="s">
         <v>3</v>
@@ -9156,8 +8938,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06i-Testing-Code-Quality-and-Build-Settings.md#make-sure-that-free-security-features-are-activated"),
-"Verifying usage of Free Security Features")</f>
-        <v>Verifying usage of Free Security Features</v>
+"Make Sure That Free Security Features Are Activated")</f>
+        <v>Make Sure That Free Security Features Are Activated</v>
       </c>
       <c r="H72" s="74"/>
       <c r="I72" s="62"/>
@@ -9204,7 +8986,7 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="102" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="C77" s="101"/>
       <c r="D77" s="28"/>
@@ -9216,10 +8998,10 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="87" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C78" s="88" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
@@ -9233,7 +9015,7 @@
         <v>68</v>
       </c>
       <c r="C79" s="90" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
@@ -9247,7 +9029,7 @@
         <v>69</v>
       </c>
       <c r="C80" s="90" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
@@ -9261,7 +9043,7 @@
         <v>64</v>
       </c>
       <c r="C81" s="90" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
@@ -9364,7 +9146,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21.6" x14ac:dyDescent="0.6">
       <c r="B1" s="93" t="s">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="G1" s="101"/>
     </row>
@@ -9376,37 +9158,37 @@
         <v>0</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="D3" s="51" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="65"/>
       <c r="C4" s="66" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="D4" s="67"/>
       <c r="E4" s="67"/>
       <c r="F4" s="66"/>
       <c r="G4" s="69"/>
     </row>
-    <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="107" t="s">
         <v>113</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="D5" s="92" t="s">
         <v>3</v>
@@ -9418,8 +9200,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#jailbreak-detection"),
-"Testing Jailbreak Detection")</f>
-        <v>Testing Jailbreak Detection</v>
+"Jailbreak Detection")</f>
+        <v>Jailbreak Detection</v>
       </c>
       <c r="G5" s="62"/>
     </row>
@@ -9428,7 +9210,7 @@
         <v>114</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="D6" s="92" t="s">
         <v>3</v>
@@ -9440,8 +9222,8 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#anti-debugging-checks"),
-"Testing Debugging Defenses")</f>
-        <v>Testing Debugging Defenses</v>
+"Anti-Debugging Checks")</f>
+        <v>Anti-Debugging Checks</v>
       </c>
       <c r="G6" s="62"/>
     </row>
@@ -9450,7 +9232,7 @@
         <v>115</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>3</v>
@@ -9462,17 +9244,17 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#file-integrity-checks"),
-"Testing File Integrity Checks")</f>
-        <v>Testing File Integrity Checks</v>
+"File Integrity Checks")</f>
+        <v>File Integrity Checks</v>
       </c>
       <c r="G7" s="62"/>
     </row>
-    <row r="8" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="107" t="s">
         <v>116</v>
       </c>
       <c r="C8" s="74" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="D8" s="92" t="s">
         <v>3</v>
@@ -9490,7 +9272,7 @@
         <v>117</v>
       </c>
       <c r="C9" s="74" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D9" s="92" t="s">
         <v>3</v>
@@ -9508,7 +9290,7 @@
         <v>118</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="D10" s="92" t="s">
         <v>3</v>
@@ -9526,7 +9308,7 @@
         <v>119</v>
       </c>
       <c r="C11" s="74" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="D11" s="92" t="s">
         <v>3</v>
@@ -9544,7 +9326,7 @@
         <v>120</v>
       </c>
       <c r="C12" s="74" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>3</v>
@@ -9562,7 +9344,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="D13" s="92" t="s">
         <v>3</v>
@@ -9578,7 +9360,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="65"/>
       <c r="C14" s="66" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="D14" s="67"/>
       <c r="E14" s="67"/>
@@ -9590,7 +9372,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D15" s="92" t="s">
         <v>3</v>
@@ -9602,15 +9384,15 @@
         <f>HYPERLINK(CONCATENATE(
 BASE_URL,
 "0x06j-Testing-Resiliency-Against-Reverse-Engineering.md#device-binding"),
-"Testing Device Binding")</f>
-        <v>Testing Device Binding</v>
+"Device Binding")</f>
+        <v>Device Binding</v>
       </c>
       <c r="G15" s="62"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="65"/>
       <c r="C16" s="66" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -9622,7 +9404,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="D17" s="92" t="s">
         <v>3</v>
@@ -9640,7 +9422,7 @@
         <v>122</v>
       </c>
       <c r="C18" s="74" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="D18" s="92" t="s">
         <v>3</v>
@@ -9677,7 +9459,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="102" t="s">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="C22" s="101"/>
       <c r="D22" s="28"/>
@@ -9686,10 +9468,10 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="87" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="C23" s="88" t="s">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
@@ -9700,7 +9482,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -9711,7 +9493,7 @@
         <v>69</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>279</v>
+        <v>204</v>
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
@@ -9722,7 +9504,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="90" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="28"/>
@@ -9824,7 +9606,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -10133,16 +9915,16 @@
         <v>124</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="C20" s="110" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="D20" s="14">
         <v>43641</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>289</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10150,16 +9932,16 @@
         <v>124</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="C21" s="110" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="D21" s="14">
         <v>43642</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>291</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -10167,16 +9949,16 @@
         <v>124</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="C22" s="110" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="D22" s="14">
         <v>43649</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>299</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -10184,16 +9966,33 @@
         <v>124</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="C23" s="110" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="D23" s="14">
         <v>43672</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>300</v>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>213</v>
+      </c>
+      <c r="D24" s="14">
+        <v>43674</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -10211,7 +10010,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -10227,7 +10026,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="157" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="B1" s="157"/>
       <c r="C1" s="109"/>
@@ -10251,70 +10050,87 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="106" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D3" s="104">
         <v>43402</v>
       </c>
       <c r="E3" s="105" t="s">
-        <v>285</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="106" t="s">
-        <v>178</v>
-      </c>
       <c r="C4" s="106" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D4" s="104">
         <v>43590</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="106" t="s">
-        <v>178</v>
-      </c>
       <c r="C5" s="106" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="D5" s="104">
         <v>43643</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>297</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="B6" s="106" t="s">
-        <v>178</v>
-      </c>
       <c r="C6" s="106" t="s">
-        <v>294</v>
+        <v>219</v>
       </c>
       <c r="D6" s="104">
         <v>43673</v>
       </c>
       <c r="E6" s="105" t="s">
-        <v>302</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="104">
+        <v>43679</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
